--- a/Logbook_automated_by_python_testing.xlsx
+++ b/Logbook_automated_by_python_testing.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e67038fc02b579b/Documenten/GitHub/tidegas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_103992065458C00E62355476585DCE3A8747D64C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_079123C3946C9E0E62355476585DCE3A8746DD8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C79A3DD8-4920-4526-9710-26DDD1F98BD0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
   <si>
     <t>Description</t>
   </si>
@@ -83,10 +70,19 @@
     <t>end time</t>
   </si>
   <si>
+    <t>duration (seconds)</t>
+  </si>
+  <si>
     <t>detailed timings?</t>
   </si>
   <si>
-    <t xml:space="preserve">acid added (mL) </t>
+    <t>acid in mL extracted</t>
+  </si>
+  <si>
+    <t>acid increment extracted</t>
+  </si>
+  <si>
+    <t>acid added (mL)</t>
   </si>
   <si>
     <t>acid increments (mL)</t>
@@ -110,16 +106,37 @@
     <t>start time</t>
   </si>
   <si>
-    <t>sample volume (mL)</t>
+    <t>sample volume (L)</t>
+  </si>
+  <si>
+    <t>Reference (0 acid) integraded current uAs</t>
   </si>
   <si>
     <t>Integrated current  (uAs)</t>
   </si>
   <si>
-    <t>raw DIC ug/L</t>
-  </si>
-  <si>
-    <t>Calculated DIC ug/kg</t>
+    <t>raw DIC umol/L</t>
+  </si>
+  <si>
+    <t>Calculated DIC umol/kg</t>
+  </si>
+  <si>
+    <t>Faradays constant</t>
+  </si>
+  <si>
+    <t>Unnamed: 34</t>
+  </si>
+  <si>
+    <t>Unnamed: 35</t>
+  </si>
+  <si>
+    <t>Unnamed: 36</t>
+  </si>
+  <si>
+    <t>Unnamed: 37</t>
+  </si>
+  <si>
+    <t>Unnamed: 38</t>
   </si>
   <si>
     <t>0-0  0  (0)junk-250916-01.dat</t>
@@ -215,9 +232,6 @@
     <t>18-Sep</t>
   </si>
   <si>
-    <t xml:space="preserve">update temperature from log </t>
-  </si>
-  <si>
     <t>0-0  0  (0)junk-250918-02.dat</t>
   </si>
   <si>
@@ -249,6 +263,81 @@
   </si>
   <si>
     <t>0-0  0  (0)junk-250930-09-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251001-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>01-Oct</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251001-02-2_25mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251001-03-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251001-04-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251001-05-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251001-07-2_25mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251001-08-2_25mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251001-09-2_25mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251001-10-3_15mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251001-11-3_15mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251001-12-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251001-13-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251003-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>03-Oct</t>
+  </si>
+  <si>
+    <t>change this!</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251003-02-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251003-03-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251003-04-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251003-05-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251003-07-2_25mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251003-08-2_25mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251003-09-2_25mL-0_15incrmL.dat</t>
   </si>
 </sst>
 </file>
@@ -611,15 +700,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC35"/>
+  <dimension ref="A1:AM55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,25 +796,55 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>21.3</v>
@@ -742,22 +861,25 @@
       <c r="N2">
         <v>2300</v>
       </c>
-      <c r="R2">
-        <v>4.2</v>
-      </c>
-      <c r="S2">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U2">
+        <v>4.2</v>
+      </c>
+      <c r="V2">
+        <v>0.15</v>
+      </c>
+      <c r="AH2">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -777,31 +899,34 @@
       <c r="N3">
         <v>2300</v>
       </c>
-      <c r="R3">
-        <v>4.2</v>
-      </c>
-      <c r="S3">
-        <v>0.15</v>
-      </c>
-      <c r="T3">
+      <c r="U3">
+        <v>4.2</v>
+      </c>
+      <c r="V3">
+        <v>0.15</v>
+      </c>
+      <c r="W3">
         <v>634.63099687729891</v>
       </c>
-      <c r="V3">
+      <c r="Y3">
         <v>2479.6198341980248</v>
       </c>
-      <c r="W3">
+      <c r="Z3">
         <v>2480.8330047934478</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AH3">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -821,31 +946,34 @@
       <c r="N4">
         <v>2300</v>
       </c>
-      <c r="R4">
-        <v>4.2</v>
-      </c>
-      <c r="S4">
-        <v>0.15</v>
-      </c>
-      <c r="T4">
+      <c r="U4">
+        <v>4.2</v>
+      </c>
+      <c r="V4">
+        <v>0.15</v>
+      </c>
+      <c r="W4">
         <v>634.10452133248555</v>
       </c>
-      <c r="V4">
+      <c r="Y4">
         <v>2465.0561969677628</v>
       </c>
-      <c r="W4">
+      <c r="Z4">
         <v>2466.305071712774</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AH4">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -865,31 +993,34 @@
       <c r="N5">
         <v>2300</v>
       </c>
-      <c r="R5">
-        <v>4.2</v>
-      </c>
-      <c r="S5">
-        <v>0.15</v>
-      </c>
-      <c r="T5">
+      <c r="U5">
+        <v>4.2</v>
+      </c>
+      <c r="V5">
+        <v>0.15</v>
+      </c>
+      <c r="W5">
         <v>633.65667660847907</v>
       </c>
-      <c r="V5">
+      <c r="Y5">
         <v>2462.0952016550468</v>
       </c>
-      <c r="W5">
+      <c r="Z5">
         <v>2463.3601185301532</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AH5">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -909,31 +1040,34 @@
       <c r="N6">
         <v>2300</v>
       </c>
-      <c r="R6">
-        <v>4.2</v>
-      </c>
-      <c r="S6">
-        <v>0.15</v>
-      </c>
-      <c r="T6">
+      <c r="U6">
+        <v>4.2</v>
+      </c>
+      <c r="V6">
+        <v>0.15</v>
+      </c>
+      <c r="W6">
         <v>633.79616941716108</v>
       </c>
-      <c r="V6">
+      <c r="Y6">
         <v>2463.2785124089828</v>
       </c>
-      <c r="W6">
+      <c r="Z6">
         <v>2464.6783328184151</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AH6">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -953,31 +1087,34 @@
       <c r="N7">
         <v>2300</v>
       </c>
-      <c r="R7">
-        <v>4.2</v>
-      </c>
-      <c r="S7">
-        <v>0.15</v>
-      </c>
-      <c r="T7">
+      <c r="U7">
+        <v>4.2</v>
+      </c>
+      <c r="V7">
+        <v>0.15</v>
+      </c>
+      <c r="W7">
         <v>633.60487914459236</v>
       </c>
-      <c r="V7">
+      <c r="Y7">
         <v>2469.4351669244979</v>
       </c>
-      <c r="W7">
+      <c r="Z7">
         <v>2470.6688480338839</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AH7">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -997,40 +1134,43 @@
       <c r="N8">
         <v>2300</v>
       </c>
-      <c r="R8">
-        <v>4.2</v>
-      </c>
-      <c r="S8">
-        <v>0.15</v>
-      </c>
-      <c r="T8">
+      <c r="U8">
+        <v>4.2</v>
+      </c>
+      <c r="V8">
+        <v>0.15</v>
+      </c>
+      <c r="W8">
         <v>633.80577511308525</v>
       </c>
-      <c r="V8">
+      <c r="Y8">
         <v>2471.5820131893788</v>
       </c>
-      <c r="W8">
+      <c r="Z8">
         <v>2472.943848697912</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AH8">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>25.9</v>
@@ -1047,22 +1187,25 @@
       <c r="N9">
         <v>2300</v>
       </c>
-      <c r="R9">
-        <v>4.2</v>
-      </c>
-      <c r="S9">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="U9">
+        <v>4.2</v>
+      </c>
+      <c r="V9">
+        <v>0.15</v>
+      </c>
+      <c r="AH9">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -1082,31 +1225,34 @@
       <c r="N10">
         <v>2300</v>
       </c>
-      <c r="R10">
-        <v>4.2</v>
-      </c>
-      <c r="S10">
-        <v>0.15</v>
-      </c>
-      <c r="T10">
+      <c r="U10">
+        <v>4.2</v>
+      </c>
+      <c r="V10">
+        <v>0.15</v>
+      </c>
+      <c r="W10">
         <v>633.81023214963614</v>
       </c>
-      <c r="V10">
+      <c r="Y10">
         <v>2461.2116622787239</v>
       </c>
-      <c r="W10">
+      <c r="Z10">
         <v>2462.6199479465008</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AH10">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1126,31 +1272,34 @@
       <c r="N11">
         <v>2300</v>
       </c>
-      <c r="R11">
-        <v>4.2</v>
-      </c>
-      <c r="S11">
-        <v>0.15</v>
-      </c>
-      <c r="T11">
+      <c r="U11">
+        <v>4.2</v>
+      </c>
+      <c r="V11">
+        <v>0.15</v>
+      </c>
+      <c r="W11">
         <v>633.93290905613537</v>
       </c>
-      <c r="V11">
+      <c r="Y11">
         <v>2451.293749336804</v>
       </c>
-      <c r="W11">
+      <c r="Z11">
         <v>2452.738872422045</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AH11">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1170,31 +1319,34 @@
       <c r="N12">
         <v>2300</v>
       </c>
-      <c r="R12">
-        <v>4.2</v>
-      </c>
-      <c r="S12">
-        <v>0.15</v>
-      </c>
-      <c r="T12">
+      <c r="U12">
+        <v>4.2</v>
+      </c>
+      <c r="V12">
+        <v>0.15</v>
+      </c>
+      <c r="W12">
         <v>634.13598330989282</v>
       </c>
-      <c r="V12">
+      <c r="Y12">
         <v>2450.9733882057199</v>
       </c>
-      <c r="W12">
+      <c r="Z12">
         <v>2452.427789110056</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AH12">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1214,31 +1366,34 @@
       <c r="N13">
         <v>2300</v>
       </c>
-      <c r="R13">
-        <v>4.2</v>
-      </c>
-      <c r="S13">
-        <v>0.15</v>
-      </c>
-      <c r="T13">
+      <c r="U13">
+        <v>4.2</v>
+      </c>
+      <c r="V13">
+        <v>0.15</v>
+      </c>
+      <c r="W13">
         <v>635.62796300211505</v>
       </c>
-      <c r="V13">
+      <c r="Y13">
         <v>2369.100115903098</v>
       </c>
-      <c r="W13">
+      <c r="Z13">
         <v>2368.8679078452992</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AH13">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1258,31 +1413,34 @@
       <c r="N14">
         <v>2300</v>
       </c>
-      <c r="R14">
-        <v>4.2</v>
-      </c>
-      <c r="S14">
-        <v>0.15</v>
-      </c>
-      <c r="T14">
+      <c r="U14">
+        <v>4.2</v>
+      </c>
+      <c r="V14">
+        <v>0.15</v>
+      </c>
+      <c r="W14">
         <v>634.88962071946457</v>
       </c>
-      <c r="V14">
+      <c r="Y14">
         <v>2378.588585063505</v>
       </c>
-      <c r="W14">
+      <c r="Z14">
         <v>2378.588585063505</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AH14">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1302,31 +1460,34 @@
       <c r="N15">
         <v>2300</v>
       </c>
-      <c r="R15">
-        <v>4.2</v>
-      </c>
-      <c r="S15">
-        <v>0.15</v>
-      </c>
-      <c r="T15">
+      <c r="U15">
+        <v>4.2</v>
+      </c>
+      <c r="V15">
+        <v>0.15</v>
+      </c>
+      <c r="W15">
         <v>635.7973952407948</v>
       </c>
-      <c r="V15">
+      <c r="Y15">
         <v>2378.671600932701</v>
       </c>
-      <c r="W15">
+      <c r="Z15">
         <v>2378.7836612974579</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AH15">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -1346,31 +1507,34 @@
       <c r="N16">
         <v>2300</v>
       </c>
-      <c r="R16">
-        <v>4.2</v>
-      </c>
-      <c r="S16">
-        <v>0.15</v>
-      </c>
-      <c r="T16">
+      <c r="U16">
+        <v>4.2</v>
+      </c>
+      <c r="V16">
+        <v>0.15</v>
+      </c>
+      <c r="W16">
         <v>635.22566694086993</v>
       </c>
-      <c r="V16">
+      <c r="Y16">
         <v>2379.4923501751409</v>
       </c>
-      <c r="W16">
+      <c r="Z16">
         <v>2379.7145675521101</v>
       </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="AH16">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -1390,31 +1554,34 @@
       <c r="N17">
         <v>2300</v>
       </c>
-      <c r="R17">
-        <v>4.2</v>
-      </c>
-      <c r="S17">
-        <v>0.15</v>
-      </c>
-      <c r="T17">
+      <c r="U17">
+        <v>4.2</v>
+      </c>
+      <c r="V17">
+        <v>0.15</v>
+      </c>
+      <c r="W17">
         <v>634.99785044230418</v>
       </c>
-      <c r="V17">
+      <c r="Y17">
         <v>2380.1405290242369</v>
       </c>
-      <c r="W17">
+      <c r="Z17">
         <v>2380.3633254358929</v>
       </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="AH17">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -1434,31 +1601,34 @@
       <c r="N18">
         <v>2300</v>
       </c>
-      <c r="R18">
-        <v>4.2</v>
-      </c>
-      <c r="S18">
-        <v>0.15</v>
-      </c>
-      <c r="T18">
+      <c r="U18">
+        <v>4.2</v>
+      </c>
+      <c r="V18">
+        <v>0.15</v>
+      </c>
+      <c r="W18">
         <v>634.12275170294572</v>
       </c>
-      <c r="V18">
+      <c r="Y18">
         <v>2382.832307525784</v>
       </c>
-      <c r="W18">
+      <c r="Z18">
         <v>2383.0509622805612</v>
       </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="AH18">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -1478,31 +1648,34 @@
       <c r="N19">
         <v>2300</v>
       </c>
-      <c r="R19">
-        <v>4.2</v>
-      </c>
-      <c r="S19">
-        <v>0.15</v>
-      </c>
-      <c r="T19">
+      <c r="U19">
+        <v>4.2</v>
+      </c>
+      <c r="V19">
+        <v>0.15</v>
+      </c>
+      <c r="W19">
         <v>633.83053814862444</v>
       </c>
-      <c r="V19">
+      <c r="Y19">
         <v>2382.002284193682</v>
       </c>
-      <c r="W19">
+      <c r="Z19">
         <v>2382.2228506305119</v>
       </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="AH19">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -1522,31 +1695,34 @@
       <c r="N20">
         <v>2300</v>
       </c>
-      <c r="R20">
-        <v>4.2</v>
-      </c>
-      <c r="S20">
-        <v>0.15</v>
-      </c>
-      <c r="T20">
+      <c r="U20">
+        <v>4.2</v>
+      </c>
+      <c r="V20">
+        <v>0.15</v>
+      </c>
+      <c r="W20">
         <v>633.60881395673073</v>
       </c>
-      <c r="V20">
+      <c r="Y20">
         <v>2381.8024935064932</v>
       </c>
-      <c r="W20">
+      <c r="Z20">
         <v>2382.0240580926011</v>
       </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="AH20">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -1566,37 +1742,40 @@
       <c r="N21">
         <v>2300</v>
       </c>
-      <c r="R21">
-        <v>4.2</v>
-      </c>
-      <c r="S21">
-        <v>0.15</v>
-      </c>
-      <c r="T21">
+      <c r="U21">
+        <v>4.2</v>
+      </c>
+      <c r="V21">
+        <v>0.15</v>
+      </c>
+      <c r="W21">
         <v>633.37258920101885</v>
       </c>
-      <c r="V21">
+      <c r="Y21">
         <v>2385.4116769447051</v>
       </c>
-      <c r="W21">
+      <c r="Z21">
         <v>2385.6289016839601</v>
       </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="AH21">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E22">
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>25.2</v>
@@ -1613,31 +1792,34 @@
       <c r="N22">
         <v>2300</v>
       </c>
-      <c r="R22">
-        <v>4.2</v>
-      </c>
-      <c r="S22">
-        <v>0.15</v>
-      </c>
-      <c r="T22">
+      <c r="U22">
+        <v>4.2</v>
+      </c>
+      <c r="V22">
+        <v>0.15</v>
+      </c>
+      <c r="W22">
         <v>633.21474400597629</v>
       </c>
-      <c r="V22">
+      <c r="Y22">
         <v>2381.0197906424992</v>
       </c>
-      <c r="W22">
+      <c r="Z22">
         <v>2381.2419488725068</v>
       </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="AH22">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>11</v>
@@ -1657,31 +1839,34 @@
       <c r="N23">
         <v>2300</v>
       </c>
-      <c r="R23">
-        <v>4.2</v>
-      </c>
-      <c r="S23">
-        <v>0.15</v>
-      </c>
-      <c r="T23">
+      <c r="U23">
+        <v>4.2</v>
+      </c>
+      <c r="V23">
+        <v>0.15</v>
+      </c>
+      <c r="W23">
         <v>633.09674478859677</v>
       </c>
-      <c r="V23">
+      <c r="Y23">
         <v>2380.21295236166</v>
       </c>
-      <c r="W23">
+      <c r="Z23">
         <v>2380.4361828127048</v>
       </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="AH23">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <v>12</v>
@@ -1701,38 +1886,38 @@
       <c r="N24">
         <v>2300</v>
       </c>
-      <c r="R24">
-        <v>4.2</v>
-      </c>
-      <c r="S24">
-        <v>0.15</v>
-      </c>
-      <c r="T24">
+      <c r="U24">
+        <v>4.2</v>
+      </c>
+      <c r="V24">
+        <v>0.15</v>
+      </c>
+      <c r="W24">
         <v>632.96424639964698</v>
       </c>
-      <c r="V24">
+      <c r="Y24">
         <v>2382.7737580172889</v>
       </c>
-      <c r="W24">
+      <c r="Z24">
         <v>2382.9933907835571</v>
       </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="AH24">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="I25" t="s">
-        <v>60</v>
-      </c>
       <c r="J25">
         <v>25.2</v>
       </c>
@@ -1748,25 +1933,28 @@
       <c r="N25">
         <v>2300</v>
       </c>
-      <c r="S25">
-        <v>0.15</v>
-      </c>
-      <c r="T25">
+      <c r="V25">
+        <v>0.15</v>
+      </c>
+      <c r="W25">
         <v>630.66257462689919</v>
       </c>
-      <c r="V25">
+      <c r="Y25">
         <v>2365.3109951043789</v>
       </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="AH25">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1786,25 +1974,28 @@
       <c r="N26">
         <v>2300</v>
       </c>
-      <c r="S26">
-        <v>0.15</v>
-      </c>
-      <c r="T26">
+      <c r="V26">
+        <v>0.15</v>
+      </c>
+      <c r="W26">
         <v>630.95972842503852</v>
       </c>
-      <c r="V26">
+      <c r="Y26">
         <v>2335.721492273969</v>
       </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="AH26">
+        <v>96485.332123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1824,31 +2015,31 @@
       <c r="N27">
         <v>2300</v>
       </c>
-      <c r="S27">
-        <v>0.15</v>
-      </c>
-      <c r="T27">
+      <c r="V27">
+        <v>0.15</v>
+      </c>
+      <c r="W27">
         <v>632.96346642531603</v>
       </c>
-      <c r="V27">
+      <c r="Y27">
         <v>2350.8830396586709</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
       <c r="J28">
-        <v>25.2</v>
+        <v>24.9</v>
       </c>
       <c r="K28">
         <v>170.25</v>
@@ -1862,34 +2053,34 @@
       <c r="N28">
         <v>2300</v>
       </c>
-      <c r="R28">
-        <v>4.2</v>
-      </c>
-      <c r="S28">
-        <v>0.15</v>
-      </c>
-      <c r="T28">
-        <v>631.64372226777971</v>
+      <c r="U28">
+        <v>4.2</v>
       </c>
       <c r="V28">
-        <v>2352.7767692378879</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="W28">
+        <v>631.42145341882497</v>
+      </c>
+      <c r="Y28">
+        <v>2353.151203754343</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="J29">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="K29">
         <v>170.15</v>
@@ -1903,34 +2094,43 @@
       <c r="N29">
         <v>2300</v>
       </c>
-      <c r="R29">
-        <v>4.2</v>
-      </c>
-      <c r="S29">
-        <v>0.15</v>
-      </c>
-      <c r="T29">
-        <v>631.67700173372452</v>
+      <c r="U29">
+        <v>4.2</v>
       </c>
       <c r="V29">
-        <v>2345.8933132324701</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="W29">
+        <v>631.52899611008434</v>
+      </c>
+      <c r="Y29">
+        <v>2346.1496396958842</v>
+      </c>
+      <c r="AC29">
+        <v>25</v>
+      </c>
+      <c r="AE29">
+        <v>4056255.2</v>
+      </c>
+      <c r="AF29">
+        <v>1681.6049075020289</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E30">
         <v>4</v>
       </c>
       <c r="J30">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="K30">
         <v>169.75</v>
@@ -1944,28 +2144,37 @@
       <c r="N30">
         <v>2300</v>
       </c>
-      <c r="R30">
+      <c r="U30">
         <v>2.25</v>
       </c>
-      <c r="S30">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="V30">
+        <v>0.15</v>
+      </c>
+      <c r="AC30">
+        <v>25</v>
+      </c>
+      <c r="AE30">
+        <v>4589511.5</v>
+      </c>
+      <c r="AF30">
+        <v>1902.677391066765</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E31">
         <v>5</v>
       </c>
       <c r="J31">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="K31">
         <v>169.15</v>
@@ -1979,34 +2188,43 @@
       <c r="N31">
         <v>2300</v>
       </c>
-      <c r="R31">
+      <c r="U31">
         <v>1.2</v>
       </c>
-      <c r="S31">
-        <v>0.15</v>
-      </c>
-      <c r="T31">
-        <v>457.58702801530671</v>
-      </c>
       <c r="V31">
-        <v>292.77069110316592</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="W31">
+        <v>457.43140812095999</v>
+      </c>
+      <c r="Y31">
+        <v>293.01038835475441</v>
+      </c>
+      <c r="AC31">
+        <v>25</v>
+      </c>
+      <c r="AE31">
+        <v>5129930.9000000004</v>
+      </c>
+      <c r="AF31">
+        <v>2126.7194866305022</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
       <c r="J32">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="K32">
         <v>167.7</v>
@@ -2020,28 +2238,37 @@
       <c r="N32">
         <v>2300</v>
       </c>
-      <c r="R32">
+      <c r="U32">
         <v>3.15</v>
       </c>
-      <c r="S32">
-        <v>0.15</v>
-      </c>
-      <c r="T32">
-        <v>631.82875159320849</v>
-      </c>
       <c r="V32">
-        <v>2353.9523605269342</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+      <c r="W32">
+        <v>631.74974421131105</v>
+      </c>
+      <c r="Y32">
+        <v>2353.9938189586978</v>
+      </c>
+      <c r="AC32">
+        <v>25</v>
+      </c>
+      <c r="AE32">
+        <v>4347129.0999999996</v>
+      </c>
+      <c r="AF32">
+        <v>1802.1927289251621</v>
+      </c>
+    </row>
+    <row r="33" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>7</v>
@@ -2061,28 +2288,37 @@
       <c r="N33">
         <v>2300</v>
       </c>
-      <c r="R33">
+      <c r="U33">
         <v>3.6</v>
       </c>
-      <c r="S33">
-        <v>0.15</v>
-      </c>
-      <c r="T33">
+      <c r="V33">
+        <v>0.15</v>
+      </c>
+      <c r="W33">
         <v>631.77497154357741</v>
       </c>
-      <c r="V33">
+      <c r="Y33">
         <v>2349.6763792928391</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="AC33">
+        <v>25</v>
+      </c>
+      <c r="AE33">
+        <v>4140068.8</v>
+      </c>
+      <c r="AF33">
+        <v>1716.351577552625</v>
+      </c>
+    </row>
+    <row r="34" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E34">
         <v>8</v>
@@ -2102,28 +2338,37 @@
       <c r="N34">
         <v>2300</v>
       </c>
-      <c r="R34">
+      <c r="U34">
         <v>4.8</v>
       </c>
-      <c r="S34">
-        <v>0.15</v>
-      </c>
-      <c r="T34">
+      <c r="V34">
+        <v>0.15</v>
+      </c>
+      <c r="W34">
         <v>631.70630035369732</v>
       </c>
-      <c r="V34">
+      <c r="Y34">
         <v>2354.5998481166612</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="AC34">
+        <v>25</v>
+      </c>
+      <c r="AE34">
+        <v>3850424.2</v>
+      </c>
+      <c r="AF34">
+        <v>1596.273387997031</v>
+      </c>
+    </row>
+    <row r="35" spans="2:39" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>9</v>
@@ -2143,17 +2388,1119 @@
       <c r="N35">
         <v>2300</v>
       </c>
-      <c r="R35">
-        <v>4.2</v>
-      </c>
-      <c r="S35">
-        <v>0.15</v>
-      </c>
-      <c r="T35">
+      <c r="U35">
+        <v>4.2</v>
+      </c>
+      <c r="V35">
+        <v>0.15</v>
+      </c>
+      <c r="W35">
         <v>631.75731559808935</v>
       </c>
-      <c r="V35">
+      <c r="Y35">
         <v>2356.3168167821818</v>
+      </c>
+    </row>
+    <row r="36" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>24.7</v>
+      </c>
+      <c r="K36">
+        <v>164.8</v>
+      </c>
+      <c r="L36">
+        <v>30</v>
+      </c>
+      <c r="M36">
+        <v>0.1</v>
+      </c>
+      <c r="N36">
+        <v>2290.851025088718</v>
+      </c>
+      <c r="P36">
+        <v>821</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>83</v>
+      </c>
+      <c r="S36">
+        <v>4.2</v>
+      </c>
+      <c r="T36">
+        <v>0.15</v>
+      </c>
+      <c r="U36">
+        <v>4.2</v>
+      </c>
+      <c r="V36">
+        <v>0.15</v>
+      </c>
+      <c r="W36">
+        <v>631.29484720917503</v>
+      </c>
+      <c r="Y36">
+        <v>2353.5751308215899</v>
+      </c>
+      <c r="AC36">
+        <v>25</v>
+      </c>
+      <c r="AE36">
+        <v>3996936.5</v>
+      </c>
+      <c r="AF36">
+        <v>1657.013107403593</v>
+      </c>
+    </row>
+    <row r="37" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>25</v>
+      </c>
+      <c r="K37">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="L37">
+        <v>30</v>
+      </c>
+      <c r="M37">
+        <v>0.1</v>
+      </c>
+      <c r="N37">
+        <v>2290.851025088718</v>
+      </c>
+      <c r="P37">
+        <v>555</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>83</v>
+      </c>
+      <c r="S37">
+        <v>2.25</v>
+      </c>
+      <c r="T37">
+        <v>0.15</v>
+      </c>
+      <c r="U37">
+        <v>2.25</v>
+      </c>
+      <c r="V37">
+        <v>0.15</v>
+      </c>
+      <c r="W37">
+        <v>521.13704587929658</v>
+      </c>
+      <c r="Y37">
+        <v>1473.4822206123811</v>
+      </c>
+      <c r="AC37">
+        <v>25</v>
+      </c>
+      <c r="AE37">
+        <v>4640377.9000000004</v>
+      </c>
+      <c r="AF37">
+        <v>1923.7651145085649</v>
+      </c>
+      <c r="AI37">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AK37">
+        <v>5540809</v>
+      </c>
+      <c r="AL37">
+        <v>2297.057543601155</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>162.05000000000001</v>
+      </c>
+      <c r="L38">
+        <v>30</v>
+      </c>
+      <c r="M38">
+        <v>0.1</v>
+      </c>
+      <c r="N38">
+        <v>2290.851025088718</v>
+      </c>
+      <c r="S38">
+        <v>1.2</v>
+      </c>
+      <c r="T38">
+        <v>0.15</v>
+      </c>
+      <c r="U38">
+        <v>1.2</v>
+      </c>
+      <c r="V38">
+        <v>0.15</v>
+      </c>
+      <c r="W38">
+        <v>457.17235530609531</v>
+      </c>
+      <c r="Y38">
+        <v>316.06099097493518</v>
+      </c>
+      <c r="AC38">
+        <v>25</v>
+      </c>
+      <c r="AE38">
+        <v>5097601</v>
+      </c>
+      <c r="AF38">
+        <v>2113.3164545680588</v>
+      </c>
+      <c r="AI38">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AK38">
+        <v>5510867.0999999996</v>
+      </c>
+      <c r="AL38">
+        <v>2284.6445065762809</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>25.2</v>
+      </c>
+      <c r="K39">
+        <v>160.94999999999999</v>
+      </c>
+      <c r="L39">
+        <v>30</v>
+      </c>
+      <c r="M39">
+        <v>0.1</v>
+      </c>
+      <c r="N39">
+        <v>2290.851025088718</v>
+      </c>
+      <c r="S39">
+        <v>1.2</v>
+      </c>
+      <c r="T39">
+        <v>0.15</v>
+      </c>
+      <c r="U39">
+        <v>1.2</v>
+      </c>
+      <c r="V39">
+        <v>0.15</v>
+      </c>
+      <c r="W39">
+        <v>457.25811077678622</v>
+      </c>
+      <c r="Y39">
+        <v>321.52978738815011</v>
+      </c>
+      <c r="AC39">
+        <v>25</v>
+      </c>
+      <c r="AE39">
+        <v>4970468.2</v>
+      </c>
+      <c r="AF39">
+        <v>2060.6109097136641</v>
+      </c>
+      <c r="AL39">
+        <v>2290.851025088718</v>
+      </c>
+    </row>
+    <row r="40" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>25.2</v>
+      </c>
+      <c r="K40">
+        <v>160.65</v>
+      </c>
+      <c r="L40">
+        <v>30</v>
+      </c>
+      <c r="M40">
+        <v>0.1</v>
+      </c>
+      <c r="N40">
+        <v>2290.851025088718</v>
+      </c>
+      <c r="S40">
+        <v>1.2</v>
+      </c>
+      <c r="T40">
+        <v>0.15</v>
+      </c>
+      <c r="U40">
+        <v>1.2</v>
+      </c>
+      <c r="V40">
+        <v>0.15</v>
+      </c>
+      <c r="W40">
+        <v>457.26364589724301</v>
+      </c>
+      <c r="Y40">
+        <v>321.95994581450168</v>
+      </c>
+      <c r="AC40">
+        <v>25</v>
+      </c>
+      <c r="AE40">
+        <v>5091844</v>
+      </c>
+      <c r="AF40">
+        <v>2110.9297705516069</v>
+      </c>
+    </row>
+    <row r="41" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="J41">
+        <v>25.2</v>
+      </c>
+      <c r="K41">
+        <v>160.05000000000001</v>
+      </c>
+      <c r="L41">
+        <v>30</v>
+      </c>
+      <c r="M41">
+        <v>0.1</v>
+      </c>
+      <c r="N41">
+        <v>2290.851025088718</v>
+      </c>
+      <c r="P41">
+        <v>539</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>83</v>
+      </c>
+      <c r="S41">
+        <v>2.25</v>
+      </c>
+      <c r="T41">
+        <v>0.15</v>
+      </c>
+      <c r="U41">
+        <v>2.25</v>
+      </c>
+      <c r="V41">
+        <v>0.15</v>
+      </c>
+      <c r="W41">
+        <v>516.50379346022282</v>
+      </c>
+      <c r="Y41">
+        <v>1381.2133427804949</v>
+      </c>
+      <c r="AC41">
+        <v>25</v>
+      </c>
+      <c r="AE41">
+        <v>4686458.3</v>
+      </c>
+      <c r="AF41">
+        <v>1942.8687021673629</v>
+      </c>
+    </row>
+    <row r="42" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <v>25.21</v>
+      </c>
+      <c r="K42">
+        <v>159.65</v>
+      </c>
+      <c r="L42">
+        <v>30</v>
+      </c>
+      <c r="M42">
+        <v>0.1</v>
+      </c>
+      <c r="N42">
+        <v>2290.851025088718</v>
+      </c>
+      <c r="P42">
+        <v>548</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>83</v>
+      </c>
+      <c r="S42">
+        <v>2.25</v>
+      </c>
+      <c r="T42">
+        <v>0.15</v>
+      </c>
+      <c r="U42">
+        <v>2.25</v>
+      </c>
+      <c r="V42">
+        <v>0.15</v>
+      </c>
+      <c r="W42">
+        <v>516.0945480188559</v>
+      </c>
+      <c r="Y42">
+        <v>1378.574262684311</v>
+      </c>
+      <c r="AC42">
+        <v>25</v>
+      </c>
+      <c r="AE42">
+        <v>4664614.5999999996</v>
+      </c>
+      <c r="AF42">
+        <v>1933.8129422837139</v>
+      </c>
+    </row>
+    <row r="43" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>9</v>
+      </c>
+      <c r="J43">
+        <v>25</v>
+      </c>
+      <c r="K43">
+        <v>159.35</v>
+      </c>
+      <c r="L43">
+        <v>30</v>
+      </c>
+      <c r="M43">
+        <v>0.1</v>
+      </c>
+      <c r="N43">
+        <v>2290.851025088718</v>
+      </c>
+      <c r="P43">
+        <v>561</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>83</v>
+      </c>
+      <c r="S43">
+        <v>2.25</v>
+      </c>
+      <c r="T43">
+        <v>0.15</v>
+      </c>
+      <c r="U43">
+        <v>2.25</v>
+      </c>
+      <c r="V43">
+        <v>0.15</v>
+      </c>
+      <c r="W43">
+        <v>515.58992502559022</v>
+      </c>
+      <c r="Y43">
+        <v>1375.7846896123549</v>
+      </c>
+      <c r="AC43">
+        <v>25</v>
+      </c>
+      <c r="AE43">
+        <v>4653102</v>
+      </c>
+      <c r="AF43">
+        <v>1929.040154649912</v>
+      </c>
+    </row>
+    <row r="44" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44">
+        <v>10</v>
+      </c>
+      <c r="J44">
+        <v>25</v>
+      </c>
+      <c r="K44">
+        <v>159.25</v>
+      </c>
+      <c r="L44">
+        <v>30</v>
+      </c>
+      <c r="M44">
+        <v>0.1</v>
+      </c>
+      <c r="N44">
+        <v>2290.851025088718</v>
+      </c>
+      <c r="P44">
+        <v>697</v>
+      </c>
+      <c r="S44">
+        <v>3.15</v>
+      </c>
+      <c r="T44">
+        <v>0.15</v>
+      </c>
+      <c r="U44">
+        <v>3.15</v>
+      </c>
+      <c r="V44">
+        <v>0.15</v>
+      </c>
+      <c r="W44">
+        <v>631.88252475650006</v>
+      </c>
+      <c r="Y44">
+        <v>2371.9008162905789</v>
+      </c>
+      <c r="AC44">
+        <v>25</v>
+      </c>
+      <c r="AE44">
+        <v>4331237</v>
+      </c>
+      <c r="AF44">
+        <v>1795.6043285329699</v>
+      </c>
+    </row>
+    <row r="45" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45">
+        <v>11</v>
+      </c>
+      <c r="J45">
+        <v>25.1</v>
+      </c>
+      <c r="K45">
+        <v>159.05000000000001</v>
+      </c>
+      <c r="L45">
+        <v>30</v>
+      </c>
+      <c r="M45">
+        <v>0.1</v>
+      </c>
+      <c r="N45">
+        <v>2290.851025088718</v>
+      </c>
+      <c r="P45">
+        <v>690</v>
+      </c>
+      <c r="S45">
+        <v>3.15</v>
+      </c>
+      <c r="T45">
+        <v>0.15</v>
+      </c>
+      <c r="U45">
+        <v>3.15</v>
+      </c>
+      <c r="V45">
+        <v>0.15</v>
+      </c>
+      <c r="W45">
+        <v>631.83894977692648</v>
+      </c>
+      <c r="Y45">
+        <v>2370.614220229178</v>
+      </c>
+      <c r="AC45">
+        <v>25</v>
+      </c>
+      <c r="AE45">
+        <v>4366788.8</v>
+      </c>
+      <c r="AF45">
+        <v>1810.3430662116371</v>
+      </c>
+    </row>
+    <row r="46" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46">
+        <v>12</v>
+      </c>
+      <c r="J46">
+        <v>24.8</v>
+      </c>
+      <c r="K46">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="L46">
+        <v>30</v>
+      </c>
+      <c r="M46">
+        <v>0.1</v>
+      </c>
+      <c r="N46">
+        <v>2290.851025088718</v>
+      </c>
+      <c r="P46">
+        <v>803</v>
+      </c>
+      <c r="S46">
+        <v>4.2</v>
+      </c>
+      <c r="T46">
+        <v>0.15</v>
+      </c>
+      <c r="U46">
+        <v>4.2</v>
+      </c>
+      <c r="V46">
+        <v>0.15</v>
+      </c>
+      <c r="W46">
+        <v>631.58138224648576</v>
+      </c>
+      <c r="Y46">
+        <v>2370.381440353894</v>
+      </c>
+      <c r="AC46">
+        <v>25</v>
+      </c>
+      <c r="AE46">
+        <v>4070656.6</v>
+      </c>
+      <c r="AF46">
+        <v>1687.575307223156</v>
+      </c>
+    </row>
+    <row r="47" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47">
+        <v>13</v>
+      </c>
+      <c r="J47">
+        <v>25</v>
+      </c>
+      <c r="K47">
+        <v>158.65</v>
+      </c>
+      <c r="L47">
+        <v>30</v>
+      </c>
+      <c r="M47">
+        <v>0.1</v>
+      </c>
+      <c r="N47">
+        <v>2290.851025088718</v>
+      </c>
+      <c r="S47">
+        <v>4.2</v>
+      </c>
+      <c r="T47">
+        <v>0.15</v>
+      </c>
+      <c r="U47">
+        <v>4.2</v>
+      </c>
+      <c r="V47">
+        <v>0.15</v>
+      </c>
+      <c r="W47">
+        <v>631.74758131230521</v>
+      </c>
+      <c r="Y47">
+        <v>2372.426943327805</v>
+      </c>
+      <c r="AC47">
+        <v>25</v>
+      </c>
+      <c r="AE47">
+        <v>4101739.2</v>
+      </c>
+      <c r="AF47">
+        <v>1700.461245143907</v>
+      </c>
+    </row>
+    <row r="48" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>25</v>
+      </c>
+      <c r="K48">
+        <v>170.95</v>
+      </c>
+      <c r="L48">
+        <v>30</v>
+      </c>
+      <c r="M48">
+        <v>0.1</v>
+      </c>
+      <c r="N48">
+        <v>2316</v>
+      </c>
+      <c r="O48" t="s">
+        <v>98</v>
+      </c>
+      <c r="U48">
+        <v>4.2</v>
+      </c>
+      <c r="V48">
+        <v>0.15</v>
+      </c>
+      <c r="W48">
+        <v>633.34722607222341</v>
+      </c>
+      <c r="Y48">
+        <v>2142.3808288182258</v>
+      </c>
+      <c r="Z48">
+        <v>2143.31749558193</v>
+      </c>
+      <c r="AC48">
+        <v>20.833333</v>
+      </c>
+      <c r="AE48">
+        <v>3238983</v>
+      </c>
+      <c r="AF48">
+        <v>1611.34530092516</v>
+      </c>
+    </row>
+    <row r="49" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>25</v>
+      </c>
+      <c r="K49">
+        <v>171.75</v>
+      </c>
+      <c r="L49">
+        <v>30</v>
+      </c>
+      <c r="M49">
+        <v>0.1</v>
+      </c>
+      <c r="N49">
+        <v>2316</v>
+      </c>
+      <c r="U49">
+        <v>4.2</v>
+      </c>
+      <c r="V49">
+        <v>0.15</v>
+      </c>
+      <c r="W49">
+        <v>634.1906281680001</v>
+      </c>
+      <c r="Y49">
+        <v>2187.733454519685</v>
+      </c>
+      <c r="Z49">
+        <v>2187.733454519685</v>
+      </c>
+      <c r="AC49">
+        <v>20.833333</v>
+      </c>
+      <c r="AE49">
+        <v>3156939.1</v>
+      </c>
+      <c r="AF49">
+        <v>1570.52969530618</v>
+      </c>
+    </row>
+    <row r="50" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>25</v>
+      </c>
+      <c r="K50">
+        <v>171.4</v>
+      </c>
+      <c r="L50">
+        <v>30</v>
+      </c>
+      <c r="M50">
+        <v>0.1</v>
+      </c>
+      <c r="N50">
+        <v>2316</v>
+      </c>
+      <c r="U50">
+        <v>4.2</v>
+      </c>
+      <c r="V50">
+        <v>0.15</v>
+      </c>
+      <c r="W50">
+        <v>633.58461882023494</v>
+      </c>
+      <c r="Y50">
+        <v>2197.502496978354</v>
+      </c>
+      <c r="Z50">
+        <v>2197.502496978354</v>
+      </c>
+    </row>
+    <row r="51" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>25</v>
+      </c>
+      <c r="K51">
+        <v>171.35</v>
+      </c>
+      <c r="L51">
+        <v>30</v>
+      </c>
+      <c r="M51">
+        <v>0.1</v>
+      </c>
+      <c r="N51">
+        <v>2316</v>
+      </c>
+      <c r="U51">
+        <v>4.2</v>
+      </c>
+      <c r="V51">
+        <v>0.15</v>
+      </c>
+      <c r="W51">
+        <v>631.97756310302896</v>
+      </c>
+      <c r="Y51">
+        <v>2334.678236514013</v>
+      </c>
+      <c r="Z51">
+        <v>2334.678236514013</v>
+      </c>
+      <c r="AC51">
+        <v>20.833333</v>
+      </c>
+      <c r="AE51">
+        <v>3070776.2</v>
+      </c>
+      <c r="AF51">
+        <v>1527.66494917164</v>
+      </c>
+    </row>
+    <row r="52" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>25</v>
+      </c>
+      <c r="K52">
+        <v>171.1</v>
+      </c>
+      <c r="L52">
+        <v>30</v>
+      </c>
+      <c r="M52">
+        <v>0.1</v>
+      </c>
+      <c r="N52">
+        <v>2316</v>
+      </c>
+      <c r="U52">
+        <v>4.2</v>
+      </c>
+      <c r="V52">
+        <v>0.15</v>
+      </c>
+      <c r="W52">
+        <v>632.01347509034508</v>
+      </c>
+      <c r="Y52">
+        <v>2335.427685555791</v>
+      </c>
+      <c r="Z52">
+        <v>2335.427685555791</v>
+      </c>
+      <c r="AC52">
+        <v>20.833333</v>
+      </c>
+      <c r="AE52">
+        <v>3152471.5</v>
+      </c>
+      <c r="AF52">
+        <v>1568.3071315365</v>
+      </c>
+    </row>
+    <row r="53" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53">
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <v>25</v>
+      </c>
+      <c r="K53">
+        <v>170.85</v>
+      </c>
+      <c r="L53">
+        <v>30</v>
+      </c>
+      <c r="M53">
+        <v>0.1</v>
+      </c>
+      <c r="N53">
+        <v>2316</v>
+      </c>
+      <c r="U53">
+        <v>2.25</v>
+      </c>
+      <c r="V53">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54">
+        <v>8</v>
+      </c>
+      <c r="J54">
+        <v>25</v>
+      </c>
+      <c r="K54">
+        <v>170.35</v>
+      </c>
+      <c r="L54">
+        <v>30</v>
+      </c>
+      <c r="M54">
+        <v>0.1</v>
+      </c>
+      <c r="N54">
+        <v>2316</v>
+      </c>
+      <c r="U54">
+        <v>2.25</v>
+      </c>
+      <c r="V54">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55">
+        <v>9</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>170.2</v>
+      </c>
+      <c r="L55">
+        <v>30</v>
+      </c>
+      <c r="M55">
+        <v>0.1</v>
+      </c>
+      <c r="N55">
+        <v>2316</v>
+      </c>
+      <c r="U55">
+        <v>2.25</v>
+      </c>
+      <c r="V55">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/Logbook_automated_by_python_testing.xlsx
+++ b/Logbook_automated_by_python_testing.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e67038fc02b579b/Documenten/GitHub/tidegas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_27E5F84751689C0E62355476585DCE3A8746AA61" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21EE2F42-3628-45F5-AD0A-74352FF3BC7A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_0319ED24126AC40F62355476585DCE3A87459430" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="183">
   <si>
     <t>Description</t>
   </si>
@@ -459,6 +446,129 @@
   </si>
   <si>
     <t>0-0  0  (0)junk-251013-10-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251014-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>14-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251014-02-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251014-03-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251014-04-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)CRM-251014-05-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>Crm</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251014-06-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>15-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-02-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-03-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-04-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-05-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-06-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-07-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-08-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-09-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-10-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251015-11-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>16-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-02-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-03-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-04-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-05-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-06-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-07-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-08-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-09-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-10-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-11-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-12-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-13-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251016-14-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251017-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>17-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251017-02-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251017-03-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251017-04-4_2mL-0_15incrmL.dat</t>
   </si>
 </sst>
 </file>
@@ -821,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF95"/>
+  <dimension ref="A1:AF130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="P126" sqref="P126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1946,8 +2056,7 @@
         <v>2255.986084078414</v>
       </c>
       <c r="Q23">
-        <f>2029.3*N23/O23</f>
-        <v>2068.8913078586925</v>
+        <v>2068.891307858692</v>
       </c>
       <c r="V23">
         <v>4.2</v>
@@ -5321,6 +5430,12 @@
       <c r="M86">
         <v>0.1</v>
       </c>
+      <c r="N86">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O86">
+        <v>2250.7549167113661</v>
+      </c>
       <c r="P86">
         <v>1664.8337513455481</v>
       </c>
@@ -5337,10 +5452,10 @@
         <v>0.15</v>
       </c>
       <c r="X86">
-        <v>631.23114576438309</v>
+        <v>631.63972804884656</v>
       </c>
       <c r="Z86">
-        <v>2276.393693305165</v>
+        <v>2294.4249745338939</v>
       </c>
       <c r="AF86">
         <v>1697.4630999999999</v>
@@ -5374,6 +5489,12 @@
       <c r="M87">
         <v>0.1</v>
       </c>
+      <c r="N87">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O87">
+        <v>2250.8204731561191</v>
+      </c>
       <c r="P87">
         <v>2091.9315153632419</v>
       </c>
@@ -5390,10 +5511,10 @@
         <v>0.15</v>
       </c>
       <c r="X87">
-        <v>457.78780730075681</v>
+        <v>460.40070434800373</v>
       </c>
       <c r="Z87">
-        <v>223.69571063881321</v>
+        <v>292.58074504303409</v>
       </c>
       <c r="AF87">
         <v>2132.8694999999998</v>
@@ -5427,6 +5548,12 @@
       <c r="M88">
         <v>0.1</v>
       </c>
+      <c r="N88">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O88">
+        <v>2250.9521257735769</v>
+      </c>
       <c r="P88">
         <v>1231.649717421521</v>
       </c>
@@ -5443,10 +5570,10 @@
         <v>0.15</v>
       </c>
       <c r="X88">
-        <v>457.64581774210058</v>
+        <v>460.19088806208362</v>
       </c>
       <c r="Z88">
-        <v>221.9548639716258</v>
+        <v>289.3159305762303</v>
       </c>
       <c r="AF88">
         <v>1255.6790000000001</v>
@@ -5480,6 +5607,12 @@
       <c r="M89">
         <v>0.1</v>
       </c>
+      <c r="N89">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O89">
+        <v>2250.886209589898</v>
+      </c>
       <c r="P89">
         <v>1931.1600302533141</v>
       </c>
@@ -5493,10 +5626,10 @@
         <v>0.15</v>
       </c>
       <c r="X89">
-        <v>459.43300365570792</v>
+        <v>459.91850519293888</v>
       </c>
       <c r="Z89">
-        <v>276.36273469942847</v>
+        <v>293.58979014483958</v>
       </c>
       <c r="AF89">
         <v>1968.8942999999999</v>
@@ -5530,6 +5663,12 @@
       <c r="M90">
         <v>0.1</v>
       </c>
+      <c r="N90">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O90">
+        <v>2250.886209589898</v>
+      </c>
       <c r="P90">
         <v>2087.0161498770522</v>
       </c>
@@ -5546,10 +5685,10 @@
         <v>0.15</v>
       </c>
       <c r="X90">
-        <v>459.69729839733509</v>
+        <v>460.18386268011932</v>
       </c>
       <c r="Z90">
-        <v>277.27869091433939</v>
+        <v>294.52556622969468</v>
       </c>
       <c r="AF90">
         <v>2127.7957999999999</v>
@@ -5583,6 +5722,12 @@
       <c r="M91">
         <v>0.1</v>
       </c>
+      <c r="N91">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O91">
+        <v>2250.886209589898</v>
+      </c>
       <c r="P91">
         <v>1955.2538445729349</v>
       </c>
@@ -5599,10 +5744,10 @@
         <v>0.15</v>
       </c>
       <c r="X91">
-        <v>459.55499086940551</v>
+        <v>460.03782442304907</v>
       </c>
       <c r="Z91">
-        <v>275.51183097171679</v>
+        <v>292.68180904261033</v>
       </c>
       <c r="AF91">
         <v>1993.4589000000001</v>
@@ -5636,6 +5781,12 @@
       <c r="M92">
         <v>0.1</v>
       </c>
+      <c r="N92">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O92">
+        <v>2250.886209589898</v>
+      </c>
       <c r="P92">
         <v>1860.638106826947</v>
       </c>
@@ -5652,10 +5803,10 @@
         <v>0.15</v>
       </c>
       <c r="X92">
-        <v>459.84611835171341</v>
+        <v>460.34425235269538</v>
       </c>
       <c r="Z92">
-        <v>281.55193821476939</v>
+        <v>299.04394448602801</v>
       </c>
       <c r="AF92">
         <v>1896.9944</v>
@@ -5689,6 +5840,12 @@
       <c r="M93">
         <v>0.1</v>
       </c>
+      <c r="N93">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O93">
+        <v>2250.886209589898</v>
+      </c>
       <c r="P93">
         <v>1858.548438303626</v>
       </c>
@@ -5705,10 +5862,10 @@
         <v>0.15</v>
       </c>
       <c r="X93">
-        <v>459.66397937000778</v>
+        <v>460.15642481810238</v>
       </c>
       <c r="Z93">
-        <v>278.31415432769637</v>
+        <v>295.69261407937171</v>
       </c>
       <c r="AF93">
         <v>1894.8639000000001</v>
@@ -5739,6 +5896,12 @@
       <c r="M94">
         <v>0.1</v>
       </c>
+      <c r="N94">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O94">
+        <v>2250.9521257735769</v>
+      </c>
       <c r="Q94">
         <v>30</v>
       </c>
@@ -5749,10 +5912,10 @@
         <v>0.15</v>
       </c>
       <c r="X94">
-        <v>459.79033991718819</v>
+        <v>460.29087316546497</v>
       </c>
       <c r="Z94">
-        <v>281.74671606938438</v>
+        <v>299.30108440046968</v>
       </c>
     </row>
     <row r="95" spans="2:32" x14ac:dyDescent="0.3">
@@ -5780,6 +5943,12 @@
       <c r="M95">
         <v>0.1</v>
       </c>
+      <c r="N95">
+        <v>2294.8678300000001</v>
+      </c>
+      <c r="O95">
+        <v>2250.9521257735769</v>
+      </c>
       <c r="V95">
         <v>1.2</v>
       </c>
@@ -5787,10 +5956,1865 @@
         <v>0.15</v>
       </c>
       <c r="X95">
-        <v>459.64436231672647</v>
+        <v>460.14654457701221</v>
       </c>
       <c r="Z95">
-        <v>281.68579523815703</v>
+        <v>299.27798093122982</v>
+      </c>
+    </row>
+    <row r="96" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>25.1</v>
+      </c>
+      <c r="K96">
+        <v>167.35</v>
+      </c>
+      <c r="L96">
+        <v>30</v>
+      </c>
+      <c r="M96">
+        <v>0.1</v>
+      </c>
+      <c r="N96">
+        <v>2263.3636799999999</v>
+      </c>
+      <c r="O96">
+        <v>2219.9858431928269</v>
+      </c>
+      <c r="V96">
+        <v>4.2</v>
+      </c>
+      <c r="W96">
+        <v>0.15</v>
+      </c>
+      <c r="X96">
+        <v>632.16637204841163</v>
+      </c>
+      <c r="Z96">
+        <v>2298.7501593160332</v>
+      </c>
+    </row>
+    <row r="97" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" t="s">
+        <v>143</v>
+      </c>
+      <c r="D97" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>25.1</v>
+      </c>
+      <c r="K97">
+        <v>166.85</v>
+      </c>
+      <c r="L97">
+        <v>30</v>
+      </c>
+      <c r="M97">
+        <v>0.1</v>
+      </c>
+      <c r="N97">
+        <v>2263.3636799999999</v>
+      </c>
+      <c r="O97">
+        <v>2219.9858431928269</v>
+      </c>
+      <c r="V97">
+        <v>4.2</v>
+      </c>
+      <c r="W97">
+        <v>0.15</v>
+      </c>
+      <c r="X97">
+        <v>632.17000149938781</v>
+      </c>
+      <c r="Z97">
+        <v>2301.1547998561809</v>
+      </c>
+    </row>
+    <row r="98" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="J98">
+        <v>25.2</v>
+      </c>
+      <c r="K98">
+        <v>166.5</v>
+      </c>
+      <c r="L98">
+        <v>30</v>
+      </c>
+      <c r="M98">
+        <v>0.1</v>
+      </c>
+      <c r="N98">
+        <v>2263.3636799999999</v>
+      </c>
+      <c r="O98">
+        <v>2220.0508544732638</v>
+      </c>
+      <c r="V98">
+        <v>4.2</v>
+      </c>
+      <c r="W98">
+        <v>0.15</v>
+      </c>
+      <c r="X98">
+        <v>632.20936190979342</v>
+      </c>
+      <c r="Z98">
+        <v>2301.49184626224</v>
+      </c>
+    </row>
+    <row r="99" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>146</v>
+      </c>
+      <c r="C99" t="s">
+        <v>143</v>
+      </c>
+      <c r="D99" t="s">
+        <v>147</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="J99">
+        <v>25.2</v>
+      </c>
+      <c r="K99">
+        <v>178.7</v>
+      </c>
+      <c r="L99">
+        <v>30</v>
+      </c>
+      <c r="M99">
+        <v>0.1</v>
+      </c>
+      <c r="N99">
+        <v>2263.3636799999999</v>
+      </c>
+      <c r="O99">
+        <v>2220.0508544732638</v>
+      </c>
+      <c r="V99">
+        <v>4.2</v>
+      </c>
+      <c r="W99">
+        <v>0.15</v>
+      </c>
+      <c r="X99">
+        <v>645.41802458589621</v>
+      </c>
+      <c r="Z99">
+        <v>1394.3848283829279</v>
+      </c>
+    </row>
+    <row r="100" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" t="s">
+        <v>143</v>
+      </c>
+      <c r="D100" t="s">
+        <v>149</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+      <c r="J100">
+        <v>25.2</v>
+      </c>
+      <c r="K100">
+        <v>166.15</v>
+      </c>
+      <c r="L100">
+        <v>30</v>
+      </c>
+      <c r="M100">
+        <v>0.1</v>
+      </c>
+      <c r="N100">
+        <v>2263.3636799999999</v>
+      </c>
+      <c r="O100">
+        <v>2220.0508544732638</v>
+      </c>
+      <c r="V100">
+        <v>4.2</v>
+      </c>
+      <c r="W100">
+        <v>0.15</v>
+      </c>
+      <c r="X100">
+        <v>632.91780630355515</v>
+      </c>
+      <c r="Z100">
+        <v>2139.7243087781821</v>
+      </c>
+    </row>
+    <row r="101" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>150</v>
+      </c>
+      <c r="C101" t="s">
+        <v>143</v>
+      </c>
+      <c r="D101" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101">
+        <v>6</v>
+      </c>
+      <c r="J101">
+        <v>25.2</v>
+      </c>
+      <c r="K101">
+        <v>166</v>
+      </c>
+      <c r="L101">
+        <v>30</v>
+      </c>
+      <c r="M101">
+        <v>0.1</v>
+      </c>
+      <c r="N101">
+        <v>2263.3636799999999</v>
+      </c>
+      <c r="O101">
+        <v>2220.0508544732638</v>
+      </c>
+      <c r="V101">
+        <v>4.2</v>
+      </c>
+      <c r="W101">
+        <v>0.15</v>
+      </c>
+      <c r="X101">
+        <v>635.27032527900269</v>
+      </c>
+      <c r="Z101">
+        <v>2047.03035328488</v>
+      </c>
+    </row>
+    <row r="102" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" t="s">
+        <v>152</v>
+      </c>
+      <c r="D102" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>129</v>
+      </c>
+      <c r="J102">
+        <v>25.1</v>
+      </c>
+      <c r="K102">
+        <v>169.95</v>
+      </c>
+      <c r="L102">
+        <v>30</v>
+      </c>
+      <c r="M102">
+        <v>0.1</v>
+      </c>
+      <c r="N102">
+        <v>2272.4258</v>
+      </c>
+      <c r="O102">
+        <v>2228.8742857737011</v>
+      </c>
+      <c r="P102">
+        <v>1659.191118674499</v>
+      </c>
+      <c r="Q102">
+        <v>0.5</v>
+      </c>
+      <c r="V102">
+        <v>4.2</v>
+      </c>
+      <c r="W102">
+        <v>0.15</v>
+      </c>
+      <c r="X102">
+        <v>632.49750054604363</v>
+      </c>
+      <c r="Z102">
+        <v>2305.368240667201</v>
+      </c>
+      <c r="AF102">
+        <v>1691.6112000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" t="s">
+        <v>152</v>
+      </c>
+      <c r="D103" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>130</v>
+      </c>
+      <c r="J103">
+        <v>25</v>
+      </c>
+      <c r="K103">
+        <v>169.45</v>
+      </c>
+      <c r="L103">
+        <v>30</v>
+      </c>
+      <c r="M103">
+        <v>0.1</v>
+      </c>
+      <c r="N103">
+        <v>2272.4258</v>
+      </c>
+      <c r="O103">
+        <v>2228.809192191331</v>
+      </c>
+      <c r="P103">
+        <v>2064.013358805114</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>1.2</v>
+      </c>
+      <c r="W103">
+        <v>0.15</v>
+      </c>
+      <c r="X103">
+        <v>463.21557846807599</v>
+      </c>
+      <c r="Z103">
+        <v>305.65336747424737</v>
+      </c>
+      <c r="AF103">
+        <v>2104.4050000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" t="s">
+        <v>152</v>
+      </c>
+      <c r="D104" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <v>131</v>
+      </c>
+      <c r="J104">
+        <v>24.9</v>
+      </c>
+      <c r="K104">
+        <v>169.45</v>
+      </c>
+      <c r="L104">
+        <v>30</v>
+      </c>
+      <c r="M104">
+        <v>0.1</v>
+      </c>
+      <c r="N104">
+        <v>2272.4258</v>
+      </c>
+      <c r="O104">
+        <v>2228.7442768378341</v>
+      </c>
+      <c r="P104">
+        <v>2018.2685254714979</v>
+      </c>
+      <c r="Q104">
+        <v>2</v>
+      </c>
+      <c r="V104">
+        <v>1.2</v>
+      </c>
+      <c r="W104">
+        <v>0.15</v>
+      </c>
+      <c r="X104">
+        <v>463.00861628805848</v>
+      </c>
+      <c r="Z104">
+        <v>307.60406616957653</v>
+      </c>
+      <c r="AF104">
+        <v>2057.8249000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>155</v>
+      </c>
+      <c r="C105" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="G105">
+        <v>132</v>
+      </c>
+      <c r="J105">
+        <v>25</v>
+      </c>
+      <c r="K105">
+        <v>169.15</v>
+      </c>
+      <c r="L105">
+        <v>30</v>
+      </c>
+      <c r="M105">
+        <v>0.1</v>
+      </c>
+      <c r="N105">
+        <v>2272.4258</v>
+      </c>
+      <c r="O105">
+        <v>2228.809192191331</v>
+      </c>
+      <c r="P105">
+        <v>2036.1965195219229</v>
+      </c>
+      <c r="Q105">
+        <v>2</v>
+      </c>
+      <c r="V105">
+        <v>1.2</v>
+      </c>
+      <c r="W105">
+        <v>0.15</v>
+      </c>
+      <c r="X105">
+        <v>460.5867507620892</v>
+      </c>
+      <c r="Z105">
+        <v>297.73683125993739</v>
+      </c>
+      <c r="AF105">
+        <v>2076.0437999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>156</v>
+      </c>
+      <c r="C106" t="s">
+        <v>152</v>
+      </c>
+      <c r="D106" t="s">
+        <v>34</v>
+      </c>
+      <c r="E106">
+        <v>5</v>
+      </c>
+      <c r="G106">
+        <v>133</v>
+      </c>
+      <c r="J106">
+        <v>25.1</v>
+      </c>
+      <c r="K106">
+        <v>169.15</v>
+      </c>
+      <c r="L106">
+        <v>30</v>
+      </c>
+      <c r="M106">
+        <v>0.1</v>
+      </c>
+      <c r="N106">
+        <v>2272.4258</v>
+      </c>
+      <c r="O106">
+        <v>2228.8742857737011</v>
+      </c>
+      <c r="P106">
+        <v>1956.3486523672229</v>
+      </c>
+      <c r="Q106">
+        <v>5</v>
+      </c>
+      <c r="V106">
+        <v>1.2</v>
+      </c>
+      <c r="W106">
+        <v>0.15</v>
+      </c>
+      <c r="X106">
+        <v>460.83598213290179</v>
+      </c>
+      <c r="Z106">
+        <v>301.36665441340273</v>
+      </c>
+      <c r="AF106">
+        <v>1994.5751</v>
+      </c>
+    </row>
+    <row r="107" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" t="s">
+        <v>152</v>
+      </c>
+      <c r="D107" t="s">
+        <v>34</v>
+      </c>
+      <c r="E107">
+        <v>6</v>
+      </c>
+      <c r="G107">
+        <v>135</v>
+      </c>
+      <c r="J107">
+        <v>25.1</v>
+      </c>
+      <c r="K107">
+        <v>169.05</v>
+      </c>
+      <c r="L107">
+        <v>30</v>
+      </c>
+      <c r="M107">
+        <v>0.1</v>
+      </c>
+      <c r="N107">
+        <v>2272.4258</v>
+      </c>
+      <c r="O107">
+        <v>2228.8742857737011</v>
+      </c>
+      <c r="P107">
+        <v>1199.187251965875</v>
+      </c>
+      <c r="Q107">
+        <v>80</v>
+      </c>
+      <c r="V107">
+        <v>1.2</v>
+      </c>
+      <c r="W107">
+        <v>0.15</v>
+      </c>
+      <c r="X107">
+        <v>460.60666615808418</v>
+      </c>
+      <c r="Z107">
+        <v>297.77996147192471</v>
+      </c>
+      <c r="AF107">
+        <v>1222.6189999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" t="s">
+        <v>152</v>
+      </c>
+      <c r="D108" t="s">
+        <v>34</v>
+      </c>
+      <c r="E108">
+        <v>7</v>
+      </c>
+      <c r="G108">
+        <v>137</v>
+      </c>
+      <c r="J108">
+        <v>25.2</v>
+      </c>
+      <c r="K108">
+        <v>168.4</v>
+      </c>
+      <c r="L108">
+        <v>30</v>
+      </c>
+      <c r="M108">
+        <v>0.1</v>
+      </c>
+      <c r="N108">
+        <v>2272.4258</v>
+      </c>
+      <c r="O108">
+        <v>2228.9395573481552</v>
+      </c>
+      <c r="P108">
+        <v>1657.2997554756939</v>
+      </c>
+      <c r="Q108">
+        <v>20</v>
+      </c>
+      <c r="V108">
+        <v>1.2</v>
+      </c>
+      <c r="W108">
+        <v>0.15</v>
+      </c>
+      <c r="X108">
+        <v>460.47353794478772</v>
+      </c>
+      <c r="Z108">
+        <v>302.73725794587642</v>
+      </c>
+      <c r="AF108">
+        <v>1689.6333999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>159</v>
+      </c>
+      <c r="C109" t="s">
+        <v>152</v>
+      </c>
+      <c r="D109" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109">
+        <v>8</v>
+      </c>
+      <c r="G109">
+        <v>139</v>
+      </c>
+      <c r="J109">
+        <v>25.2</v>
+      </c>
+      <c r="K109">
+        <v>168.3</v>
+      </c>
+      <c r="L109">
+        <v>30</v>
+      </c>
+      <c r="M109">
+        <v>0.1</v>
+      </c>
+      <c r="N109">
+        <v>2272.4258</v>
+      </c>
+      <c r="O109">
+        <v>2228.9395573481552</v>
+      </c>
+      <c r="P109">
+        <v>1342.003728883004</v>
+      </c>
+      <c r="Q109">
+        <v>50</v>
+      </c>
+      <c r="V109">
+        <v>1.2</v>
+      </c>
+      <c r="W109">
+        <v>0.15</v>
+      </c>
+      <c r="X109">
+        <v>460.69763055396612</v>
+      </c>
+      <c r="Z109">
+        <v>301.58498949483879</v>
+      </c>
+      <c r="AF109">
+        <v>1368.1859999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" t="s">
+        <v>152</v>
+      </c>
+      <c r="D110" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110">
+        <v>9</v>
+      </c>
+      <c r="G110">
+        <v>140</v>
+      </c>
+      <c r="J110">
+        <v>25.2</v>
+      </c>
+      <c r="K110">
+        <v>168.1</v>
+      </c>
+      <c r="L110">
+        <v>30</v>
+      </c>
+      <c r="M110">
+        <v>0.1</v>
+      </c>
+      <c r="N110">
+        <v>2272.4258</v>
+      </c>
+      <c r="O110">
+        <v>2228.9395573481552</v>
+      </c>
+      <c r="P110">
+        <v>1376.1412122209269</v>
+      </c>
+      <c r="Q110">
+        <v>45</v>
+      </c>
+      <c r="V110">
+        <v>1.2</v>
+      </c>
+      <c r="W110">
+        <v>0.15</v>
+      </c>
+      <c r="X110">
+        <v>460.37541973103788</v>
+      </c>
+      <c r="Z110">
+        <v>299.44422733541597</v>
+      </c>
+      <c r="AF110">
+        <v>1402.9894999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111" t="s">
+        <v>152</v>
+      </c>
+      <c r="D111" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111">
+        <v>10</v>
+      </c>
+      <c r="G111">
+        <v>141</v>
+      </c>
+      <c r="J111">
+        <v>25.2</v>
+      </c>
+      <c r="K111">
+        <v>167.95</v>
+      </c>
+      <c r="L111">
+        <v>30</v>
+      </c>
+      <c r="M111">
+        <v>0.1</v>
+      </c>
+      <c r="N111">
+        <v>2272.4258</v>
+      </c>
+      <c r="O111">
+        <v>2228.9395573481552</v>
+      </c>
+      <c r="P111">
+        <v>1842.654907079527</v>
+      </c>
+      <c r="Q111">
+        <v>10</v>
+      </c>
+      <c r="V111">
+        <v>1.2</v>
+      </c>
+      <c r="W111">
+        <v>0.15</v>
+      </c>
+      <c r="X111">
+        <v>460.37955125006522</v>
+      </c>
+      <c r="Z111">
+        <v>300.96592786994512</v>
+      </c>
+      <c r="AF111">
+        <v>1878.6048000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>162</v>
+      </c>
+      <c r="C112" t="s">
+        <v>152</v>
+      </c>
+      <c r="D112" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112">
+        <v>11</v>
+      </c>
+      <c r="J112">
+        <v>25.2</v>
+      </c>
+      <c r="K112">
+        <v>168.75</v>
+      </c>
+      <c r="L112">
+        <v>30</v>
+      </c>
+      <c r="M112">
+        <v>0.1</v>
+      </c>
+      <c r="N112">
+        <v>2272.4258</v>
+      </c>
+      <c r="O112">
+        <v>2228.9395573481552</v>
+      </c>
+      <c r="V112">
+        <v>4.2</v>
+      </c>
+      <c r="W112">
+        <v>0.15</v>
+      </c>
+      <c r="X112">
+        <v>632.47290451957087</v>
+      </c>
+      <c r="Z112">
+        <v>2311.2488891435719</v>
+      </c>
+    </row>
+    <row r="113" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113" t="s">
+        <v>164</v>
+      </c>
+      <c r="D113" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>25</v>
+      </c>
+      <c r="K113">
+        <v>170</v>
+      </c>
+      <c r="L113">
+        <v>30</v>
+      </c>
+      <c r="M113">
+        <v>0.1</v>
+      </c>
+      <c r="N113">
+        <v>2271.12</v>
+      </c>
+      <c r="O113">
+        <v>2227.528455525181</v>
+      </c>
+      <c r="V113">
+        <v>4.2</v>
+      </c>
+      <c r="W113">
+        <v>0.15</v>
+      </c>
+      <c r="X113">
+        <v>632.3115314616856</v>
+      </c>
+      <c r="Z113">
+        <v>2308.6382917449209</v>
+      </c>
+    </row>
+    <row r="114" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114" t="s">
+        <v>164</v>
+      </c>
+      <c r="D114" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>145</v>
+      </c>
+      <c r="I114" t="s">
+        <v>36</v>
+      </c>
+      <c r="J114">
+        <v>25</v>
+      </c>
+      <c r="K114">
+        <v>168.4</v>
+      </c>
+      <c r="L114">
+        <v>30</v>
+      </c>
+      <c r="M114">
+        <v>0.1</v>
+      </c>
+      <c r="N114">
+        <v>2271.12</v>
+      </c>
+      <c r="O114">
+        <v>2227.528455525181</v>
+      </c>
+      <c r="P114">
+        <v>2158.5445340951992</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>0.6</v>
+      </c>
+      <c r="W114">
+        <v>0.15</v>
+      </c>
+      <c r="X114">
+        <v>447.71067816320698</v>
+      </c>
+      <c r="Z114">
+        <v>146.76335104913341</v>
+      </c>
+      <c r="AF114">
+        <v>2200.7860999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>166</v>
+      </c>
+      <c r="C115" t="s">
+        <v>164</v>
+      </c>
+      <c r="D115" t="s">
+        <v>34</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+      <c r="G115">
+        <v>146</v>
+      </c>
+      <c r="J115">
+        <v>25</v>
+      </c>
+      <c r="K115">
+        <v>168.45</v>
+      </c>
+      <c r="L115">
+        <v>30</v>
+      </c>
+      <c r="M115">
+        <v>0.1</v>
+      </c>
+      <c r="N115">
+        <v>2271.12</v>
+      </c>
+      <c r="O115">
+        <v>2227.528455525181</v>
+      </c>
+      <c r="P115">
+        <v>2076.0793341004378</v>
+      </c>
+      <c r="Q115">
+        <v>5</v>
+      </c>
+      <c r="V115">
+        <v>0.6</v>
+      </c>
+      <c r="W115">
+        <v>0.15</v>
+      </c>
+      <c r="X115">
+        <v>448.03987250432311</v>
+      </c>
+      <c r="Z115">
+        <v>145.87110600429841</v>
+      </c>
+      <c r="AF115">
+        <v>2116.7071000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>167</v>
+      </c>
+      <c r="C116" t="s">
+        <v>164</v>
+      </c>
+      <c r="D116" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="G116">
+        <v>147</v>
+      </c>
+      <c r="J116">
+        <v>25.1</v>
+      </c>
+      <c r="K116">
+        <v>168.45</v>
+      </c>
+      <c r="L116">
+        <v>30</v>
+      </c>
+      <c r="M116">
+        <v>0.1</v>
+      </c>
+      <c r="N116">
+        <v>2271.12</v>
+      </c>
+      <c r="O116">
+        <v>2227.5935117029421</v>
+      </c>
+      <c r="P116">
+        <v>2095.9063383438552</v>
+      </c>
+      <c r="Q116">
+        <v>5</v>
+      </c>
+      <c r="V116">
+        <v>0.6</v>
+      </c>
+      <c r="W116">
+        <v>0.15</v>
+      </c>
+      <c r="X116">
+        <v>448.43717058217402</v>
+      </c>
+      <c r="Z116">
+        <v>148.4996967752794</v>
+      </c>
+      <c r="AF116">
+        <v>2136.8597</v>
+      </c>
+    </row>
+    <row r="117" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>168</v>
+      </c>
+      <c r="C117" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="G117">
+        <v>148</v>
+      </c>
+      <c r="J117">
+        <v>25.1</v>
+      </c>
+      <c r="K117">
+        <v>168.35</v>
+      </c>
+      <c r="L117">
+        <v>30</v>
+      </c>
+      <c r="M117">
+        <v>0.1</v>
+      </c>
+      <c r="N117">
+        <v>2271.12</v>
+      </c>
+      <c r="O117">
+        <v>2227.5935117029421</v>
+      </c>
+      <c r="P117">
+        <v>2036.525324980377</v>
+      </c>
+      <c r="Q117">
+        <v>10</v>
+      </c>
+      <c r="V117">
+        <v>0.6</v>
+      </c>
+      <c r="W117">
+        <v>0.15</v>
+      </c>
+      <c r="X117">
+        <v>447.81143366363659</v>
+      </c>
+      <c r="Z117">
+        <v>143.1278520493978</v>
+      </c>
+      <c r="AF117">
+        <v>2076.3184000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" t="s">
+        <v>164</v>
+      </c>
+      <c r="D118" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118">
+        <v>6</v>
+      </c>
+      <c r="G118">
+        <v>150</v>
+      </c>
+      <c r="J118">
+        <v>25.2</v>
+      </c>
+      <c r="K118">
+        <v>168.45</v>
+      </c>
+      <c r="L118">
+        <v>30</v>
+      </c>
+      <c r="M118">
+        <v>0.1</v>
+      </c>
+      <c r="N118">
+        <v>2271.12</v>
+      </c>
+      <c r="O118">
+        <v>2227.6587457705068</v>
+      </c>
+      <c r="P118">
+        <v>1747.940077757336</v>
+      </c>
+      <c r="Q118">
+        <v>70</v>
+      </c>
+      <c r="V118">
+        <v>0.6</v>
+      </c>
+      <c r="W118">
+        <v>0.15</v>
+      </c>
+      <c r="X118">
+        <v>448.44299368496092</v>
+      </c>
+      <c r="Z118">
+        <v>149.3448584580641</v>
+      </c>
+      <c r="AF118">
+        <v>1782.0420999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C119" t="s">
+        <v>164</v>
+      </c>
+      <c r="D119" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119">
+        <v>7</v>
+      </c>
+      <c r="G119">
+        <v>151</v>
+      </c>
+      <c r="J119">
+        <v>25.2</v>
+      </c>
+      <c r="K119">
+        <v>168.15</v>
+      </c>
+      <c r="L119">
+        <v>30</v>
+      </c>
+      <c r="M119">
+        <v>0.1</v>
+      </c>
+      <c r="N119">
+        <v>2271.12</v>
+      </c>
+      <c r="O119">
+        <v>2227.6587457705068</v>
+      </c>
+      <c r="P119">
+        <v>1944.504145263088</v>
+      </c>
+      <c r="Q119">
+        <v>21</v>
+      </c>
+      <c r="V119">
+        <v>0.6</v>
+      </c>
+      <c r="W119">
+        <v>0.15</v>
+      </c>
+      <c r="X119">
+        <v>448.33291748071139</v>
+      </c>
+      <c r="Z119">
+        <v>151.08752192556099</v>
+      </c>
+      <c r="AF119">
+        <v>1982.4411</v>
+      </c>
+    </row>
+    <row r="120" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>171</v>
+      </c>
+      <c r="C120" t="s">
+        <v>164</v>
+      </c>
+      <c r="D120" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120">
+        <v>8</v>
+      </c>
+      <c r="G120">
+        <v>153</v>
+      </c>
+      <c r="J120">
+        <v>25.2</v>
+      </c>
+      <c r="K120">
+        <v>167.9</v>
+      </c>
+      <c r="L120">
+        <v>30</v>
+      </c>
+      <c r="M120">
+        <v>0.1</v>
+      </c>
+      <c r="N120">
+        <v>2271.12</v>
+      </c>
+      <c r="O120">
+        <v>2227.6587457705068</v>
+      </c>
+      <c r="P120">
+        <v>1886.7613967502889</v>
+      </c>
+      <c r="Q120">
+        <v>30</v>
+      </c>
+      <c r="V120">
+        <v>0.6</v>
+      </c>
+      <c r="W120">
+        <v>0.15</v>
+      </c>
+      <c r="X120">
+        <v>448.38292156864583</v>
+      </c>
+      <c r="Z120">
+        <v>151.0875301235285</v>
+      </c>
+      <c r="AF120">
+        <v>1923.5717999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>172</v>
+      </c>
+      <c r="C121" t="s">
+        <v>164</v>
+      </c>
+      <c r="D121" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121">
+        <v>9</v>
+      </c>
+      <c r="G121">
+        <v>154</v>
+      </c>
+      <c r="J121">
+        <v>25.2</v>
+      </c>
+      <c r="K121">
+        <v>167.25</v>
+      </c>
+      <c r="L121">
+        <v>30</v>
+      </c>
+      <c r="M121">
+        <v>0.1</v>
+      </c>
+      <c r="N121">
+        <v>2271.12</v>
+      </c>
+      <c r="O121">
+        <v>2227.6587457705068</v>
+      </c>
+      <c r="P121">
+        <v>2137.7628988966112</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+      <c r="V121">
+        <v>0.6</v>
+      </c>
+      <c r="W121">
+        <v>0.15</v>
+      </c>
+      <c r="X121">
+        <v>448.46034459178338</v>
+      </c>
+      <c r="Z121">
+        <v>154.51670003425971</v>
+      </c>
+      <c r="AF121">
+        <v>2179.4703</v>
+      </c>
+    </row>
+    <row r="122" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" t="s">
+        <v>164</v>
+      </c>
+      <c r="D122" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122">
+        <v>10</v>
+      </c>
+      <c r="G122">
+        <v>155</v>
+      </c>
+      <c r="J122">
+        <v>25.1</v>
+      </c>
+      <c r="K122">
+        <v>167.05</v>
+      </c>
+      <c r="L122">
+        <v>30</v>
+      </c>
+      <c r="M122">
+        <v>0.1</v>
+      </c>
+      <c r="N122">
+        <v>2271.12</v>
+      </c>
+      <c r="O122">
+        <v>2227.5935117029421</v>
+      </c>
+      <c r="P122">
+        <v>2124.5246454732501</v>
+      </c>
+      <c r="Q122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>0.6</v>
+      </c>
+      <c r="W122">
+        <v>0.15</v>
+      </c>
+      <c r="X122">
+        <v>448.20545799967181</v>
+      </c>
+      <c r="Z122">
+        <v>153.69672660503471</v>
+      </c>
+      <c r="AF122">
+        <v>2166.0372000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>174</v>
+      </c>
+      <c r="C123" t="s">
+        <v>164</v>
+      </c>
+      <c r="D123" t="s">
+        <v>34</v>
+      </c>
+      <c r="E123">
+        <v>11</v>
+      </c>
+      <c r="G123">
+        <v>156</v>
+      </c>
+      <c r="J123">
+        <v>25.2</v>
+      </c>
+      <c r="K123">
+        <v>167</v>
+      </c>
+      <c r="L123">
+        <v>30</v>
+      </c>
+      <c r="M123">
+        <v>0.1</v>
+      </c>
+      <c r="N123">
+        <v>2271.12</v>
+      </c>
+      <c r="O123">
+        <v>2227.6587457705068</v>
+      </c>
+      <c r="P123">
+        <v>2141.095284601849</v>
+      </c>
+      <c r="Q123">
+        <v>0.75</v>
+      </c>
+      <c r="V123">
+        <v>0.6</v>
+      </c>
+      <c r="W123">
+        <v>0.15</v>
+      </c>
+      <c r="X123">
+        <v>448.37919893320031</v>
+      </c>
+      <c r="Z123">
+        <v>155.3625555120351</v>
+      </c>
+      <c r="AF123">
+        <v>2182.8676999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>175</v>
+      </c>
+      <c r="C124" t="s">
+        <v>164</v>
+      </c>
+      <c r="D124" t="s">
+        <v>34</v>
+      </c>
+      <c r="E124">
+        <v>12</v>
+      </c>
+      <c r="G124">
+        <v>157</v>
+      </c>
+      <c r="J124">
+        <v>25.2</v>
+      </c>
+      <c r="K124">
+        <v>166.9</v>
+      </c>
+      <c r="L124">
+        <v>30</v>
+      </c>
+      <c r="M124">
+        <v>0.1</v>
+      </c>
+      <c r="N124">
+        <v>2271.12</v>
+      </c>
+      <c r="O124">
+        <v>2227.6587457705068</v>
+      </c>
+      <c r="P124">
+        <v>2112.2721197872029</v>
+      </c>
+      <c r="Q124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>0.6</v>
+      </c>
+      <c r="W124">
+        <v>0.15</v>
+      </c>
+      <c r="X124">
+        <v>448.31034249639458</v>
+      </c>
+      <c r="Z124">
+        <v>154.51669574843089</v>
+      </c>
+      <c r="AF124">
+        <v>2153.4821999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>176</v>
+      </c>
+      <c r="C125" t="s">
+        <v>164</v>
+      </c>
+      <c r="D125" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125">
+        <v>13</v>
+      </c>
+      <c r="G125">
+        <v>158</v>
+      </c>
+      <c r="J125">
+        <v>25.2</v>
+      </c>
+      <c r="K125">
+        <v>166.4</v>
+      </c>
+      <c r="L125">
+        <v>30</v>
+      </c>
+      <c r="M125">
+        <v>0.1</v>
+      </c>
+      <c r="N125">
+        <v>2271.12</v>
+      </c>
+      <c r="O125">
+        <v>2227.6587457705068</v>
+      </c>
+      <c r="P125">
+        <v>1793.2179146374931</v>
+      </c>
+      <c r="Q125">
+        <v>52</v>
+      </c>
+      <c r="V125">
+        <v>0.6</v>
+      </c>
+      <c r="W125">
+        <v>0.15</v>
+      </c>
+      <c r="X125">
+        <v>448.2163486368064</v>
+      </c>
+      <c r="Z125">
+        <v>157.04092686258599</v>
+      </c>
+      <c r="AF125">
+        <v>1828.2032999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>177</v>
+      </c>
+      <c r="C126" t="s">
+        <v>164</v>
+      </c>
+      <c r="D126" t="s">
+        <v>34</v>
+      </c>
+      <c r="E126">
+        <v>14</v>
+      </c>
+      <c r="G126">
+        <v>159</v>
+      </c>
+      <c r="J126">
+        <v>25.1</v>
+      </c>
+      <c r="K126">
+        <v>165.6</v>
+      </c>
+      <c r="L126">
+        <v>30</v>
+      </c>
+      <c r="M126">
+        <v>0.1</v>
+      </c>
+      <c r="N126">
+        <v>2271.12</v>
+      </c>
+      <c r="O126">
+        <v>2227.5935117029421</v>
+      </c>
+      <c r="P126">
+        <v>2145.530791869186</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0.6</v>
+      </c>
+      <c r="W126">
+        <v>0.15</v>
+      </c>
+      <c r="X126">
+        <v>448.13786870683077</v>
+      </c>
+      <c r="Z126">
+        <v>164.40571574514291</v>
+      </c>
+      <c r="AF126">
+        <v>2187.4537999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>178</v>
+      </c>
+      <c r="C127" t="s">
+        <v>179</v>
+      </c>
+      <c r="D127" t="s">
+        <v>147</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>165</v>
+      </c>
+      <c r="J127">
+        <v>25.2</v>
+      </c>
+      <c r="K127">
+        <v>182.45</v>
+      </c>
+      <c r="L127">
+        <v>30</v>
+      </c>
+      <c r="M127">
+        <v>0.1</v>
+      </c>
+      <c r="N127">
+        <v>2325.0453400000001</v>
+      </c>
+      <c r="O127">
+        <v>2280.5521443005932</v>
+      </c>
+      <c r="P127">
+        <v>1683.629761408379</v>
+      </c>
+      <c r="Q127">
+        <v>0.5</v>
+      </c>
+      <c r="V127">
+        <v>4.2</v>
+      </c>
+      <c r="W127">
+        <v>0.15</v>
+      </c>
+      <c r="X127">
+        <v>635.55522096202856</v>
+      </c>
+      <c r="Z127">
+        <v>2299.2498208591669</v>
+      </c>
+      <c r="AF127">
+        <v>1716.4771000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" t="s">
+        <v>179</v>
+      </c>
+      <c r="D128" t="s">
+        <v>147</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>166</v>
+      </c>
+      <c r="J128">
+        <v>25.2</v>
+      </c>
+      <c r="K128">
+        <v>181.75</v>
+      </c>
+      <c r="L128">
+        <v>30</v>
+      </c>
+      <c r="M128">
+        <v>0.1</v>
+      </c>
+      <c r="N128">
+        <v>2325.0453400000001</v>
+      </c>
+      <c r="O128">
+        <v>2280.5521443005932</v>
+      </c>
+      <c r="P128">
+        <v>1679.1615357529829</v>
+      </c>
+      <c r="Q128">
+        <v>0.5</v>
+      </c>
+      <c r="V128">
+        <v>4.2</v>
+      </c>
+      <c r="W128">
+        <v>0.15</v>
+      </c>
+      <c r="X128">
+        <v>635.38471827157366</v>
+      </c>
+      <c r="Z128">
+        <v>2300.708163034843</v>
+      </c>
+      <c r="AF128">
+        <v>1711.9217000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>181</v>
+      </c>
+      <c r="C129" t="s">
+        <v>179</v>
+      </c>
+      <c r="D129" t="s">
+        <v>147</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="J129">
+        <v>25.2</v>
+      </c>
+      <c r="K129">
+        <v>181.55</v>
+      </c>
+      <c r="L129">
+        <v>30</v>
+      </c>
+      <c r="M129">
+        <v>0.1</v>
+      </c>
+      <c r="N129">
+        <v>2325.0453400000001</v>
+      </c>
+      <c r="O129">
+        <v>2280.5521443005932</v>
+      </c>
+      <c r="V129">
+        <v>4.2</v>
+      </c>
+      <c r="W129">
+        <v>0.15</v>
+      </c>
+      <c r="X129">
+        <v>635.21907432834291</v>
+      </c>
+      <c r="Z129">
+        <v>2301.305266916841</v>
+      </c>
+    </row>
+    <row r="130" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>182</v>
+      </c>
+      <c r="C130" t="s">
+        <v>179</v>
+      </c>
+      <c r="D130" t="s">
+        <v>147</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+      <c r="G130">
+        <v>170</v>
+      </c>
+      <c r="J130">
+        <v>25.2</v>
+      </c>
+      <c r="K130">
+        <v>180.7</v>
+      </c>
+      <c r="L130">
+        <v>30</v>
+      </c>
+      <c r="M130">
+        <v>0.1</v>
+      </c>
+      <c r="N130">
+        <v>2325.0453400000001</v>
+      </c>
+      <c r="O130">
+        <v>2280.5521443005932</v>
+      </c>
+      <c r="P130">
+        <v>1721.4546049575531</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>4.2</v>
+      </c>
+      <c r="W130">
+        <v>0.15</v>
+      </c>
+      <c r="X130">
+        <v>634.39642553494673</v>
+      </c>
+      <c r="Z130">
+        <v>2308.7619675248839</v>
+      </c>
+      <c r="AF130">
+        <v>1755.0399</v>
       </c>
     </row>
   </sheetData>

--- a/Logbook_automated_by_python_testing.xlsx
+++ b/Logbook_automated_by_python_testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e67038fc02b579b/Documenten/GitHub/tidegas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_0319ED24126AC40F62355476585DCE3A87459430" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_48E939DDD451CE0F62355476585DCE3A87446097" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{372AD253-00D3-480E-9175-FAA81A7AC985}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="218">
   <si>
     <t>Description</t>
   </si>
@@ -569,6 +569,111 @@
   </si>
   <si>
     <t>0-0  0  (0)nose-251017-04-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251021-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>21-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>22-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-02-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-03-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-04-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-05-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-06-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-07-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-08-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-09-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-10-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-11-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-12-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-13-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-14-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251022-15-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)junk-251023-01-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>23-Oct</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-02-4_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-03-3_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-04-3_0mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-05-2_4mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-06-2_1mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-07-1_8mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-08-1_5mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-09-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-10-1_2mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-11-0_6mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-12-0_15mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-13-0_0mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-14-0_15mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-15-0_15mL-0_15incrmL.dat</t>
+  </si>
+  <si>
+    <t>0-0  0  (0)nose-251023-16-0_0mL-0_15incrmL.dat</t>
   </si>
 </sst>
 </file>
@@ -931,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF130"/>
+  <dimension ref="A1:AF162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="P126" sqref="P126"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="F159" sqref="F159:F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1739,7 +1844,7 @@
         <v>2379.7790873880422</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>54</v>
       </c>
@@ -1786,7 +1891,7 @@
         <v>2380.427060397808</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>55</v>
       </c>
@@ -1833,7 +1938,7 @@
         <v>2383.1221525679371</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -1880,7 +1985,7 @@
         <v>2382.290757545321</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>57</v>
       </c>
@@ -1927,7 +2032,7 @@
         <v>2382.0903488719409</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>58</v>
       </c>
@@ -1974,7 +2079,7 @@
         <v>2385.7030338880641</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>59</v>
       </c>
@@ -2024,7 +2129,7 @@
         <v>2381.3069655385671</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>60</v>
       </c>
@@ -2055,9 +2160,6 @@
       <c r="O23">
         <v>2255.986084078414</v>
       </c>
-      <c r="Q23">
-        <v>2068.891307858692</v>
-      </c>
       <c r="V23">
         <v>4.2</v>
       </c>
@@ -2074,7 +2176,7 @@
         <v>2380.499045287635</v>
       </c>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>61</v>
       </c>
@@ -2121,7 +2223,7 @@
         <v>2383.0631379730412</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>62</v>
       </c>
@@ -2152,6 +2254,9 @@
       <c r="O25">
         <v>2255.986084078414</v>
       </c>
+      <c r="V25">
+        <v>4.2</v>
+      </c>
       <c r="W25">
         <v>0.15</v>
       </c>
@@ -2165,7 +2270,7 @@
         <v>2365.5849331188451</v>
       </c>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>64</v>
       </c>
@@ -2196,6 +2301,9 @@
       <c r="O26">
         <v>2255.986084078414</v>
       </c>
+      <c r="V26">
+        <v>4.2</v>
+      </c>
       <c r="W26">
         <v>0.15</v>
       </c>
@@ -2209,7 +2317,7 @@
         <v>2335.973572859863</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>65</v>
       </c>
@@ -2240,6 +2348,9 @@
       <c r="O27">
         <v>2255.986084078414</v>
       </c>
+      <c r="V27">
+        <v>4.2</v>
+      </c>
       <c r="W27">
         <v>0.15</v>
       </c>
@@ -2253,7 +2364,7 @@
         <v>2351.1448877322518</v>
       </c>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>66</v>
       </c>
@@ -2300,7 +2411,7 @@
         <v>2353.526902313195</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>68</v>
       </c>
@@ -2313,6 +2424,9 @@
       <c r="E29">
         <v>3</v>
       </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
       <c r="J29">
         <v>25</v>
       </c>
@@ -2331,6 +2445,12 @@
       <c r="O29">
         <v>2274.242388753104</v>
       </c>
+      <c r="P29">
+        <v>1650.4814576741401</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
       <c r="V29">
         <v>4.2</v>
       </c>
@@ -2346,8 +2466,11 @@
       <c r="AA29">
         <v>2346.5180077152991</v>
       </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AF29">
+        <v>1682.7805000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>69</v>
       </c>
@@ -2360,6 +2483,9 @@
       <c r="E30">
         <v>4</v>
       </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
       <c r="J30">
         <v>25</v>
       </c>
@@ -2378,14 +2504,23 @@
       <c r="O30">
         <v>2274.242388753104</v>
       </c>
+      <c r="P30">
+        <v>1867.2677651954241</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
       <c r="V30">
         <v>2.25</v>
       </c>
       <c r="W30">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AF30">
+        <v>1903.8091999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>70</v>
       </c>
@@ -2398,6 +2533,9 @@
       <c r="E31">
         <v>5</v>
       </c>
+      <c r="G31">
+        <v>16</v>
+      </c>
       <c r="J31">
         <v>25</v>
       </c>
@@ -2416,6 +2554,12 @@
       <c r="O31">
         <v>2274.242388753104</v>
       </c>
+      <c r="P31">
+        <v>2086.960593651359</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
       <c r="V31">
         <v>1.2</v>
       </c>
@@ -2431,8 +2575,11 @@
       <c r="AA31">
         <v>293.50828195330507</v>
       </c>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AF31">
+        <v>2127.8013000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>71</v>
       </c>
@@ -2445,6 +2592,9 @@
       <c r="E32">
         <v>6</v>
       </c>
+      <c r="G32">
+        <v>17</v>
+      </c>
       <c r="J32">
         <v>25.1</v>
       </c>
@@ -2463,6 +2613,12 @@
       <c r="O32">
         <v>2274.308809236642</v>
       </c>
+      <c r="P32">
+        <v>1768.674938691129</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
       <c r="V32">
         <v>3.15</v>
       </c>
@@ -2477,6 +2633,9 @@
       </c>
       <c r="AA32">
         <v>2354.516151707568</v>
+      </c>
+      <c r="AF32">
+        <v>1803.2343000000001</v>
       </c>
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.3">
@@ -2492,6 +2651,9 @@
       <c r="E33">
         <v>7</v>
       </c>
+      <c r="G33">
+        <v>18</v>
+      </c>
       <c r="J33">
         <v>25.2</v>
       </c>
@@ -2510,6 +2672,12 @@
       <c r="O33">
         <v>2274.375411340548</v>
       </c>
+      <c r="P33">
+        <v>1684.514500298744</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
       <c r="V33">
         <v>3.6</v>
       </c>
@@ -2524,6 +2692,9 @@
       </c>
       <c r="AA33">
         <v>2350.0741610478558</v>
+      </c>
+      <c r="AF33">
+        <v>1717.3791000000001</v>
       </c>
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.3">
@@ -2539,6 +2710,9 @@
       <c r="E34">
         <v>8</v>
       </c>
+      <c r="G34">
+        <v>21</v>
+      </c>
       <c r="J34">
         <v>25.2</v>
       </c>
@@ -2557,6 +2731,12 @@
       <c r="O34">
         <v>2274.375411340548</v>
       </c>
+      <c r="P34">
+        <v>1566.6935672443669</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
       <c r="V34">
         <v>4.8</v>
       </c>
@@ -2571,6 +2751,9 @@
       </c>
       <c r="AA34">
         <v>2354.9775513610289</v>
+      </c>
+      <c r="AF34">
+        <v>1597.2594999999999</v>
       </c>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.3">
@@ -2633,6 +2816,9 @@
       <c r="E36">
         <v>1</v>
       </c>
+      <c r="G36">
+        <v>24</v>
+      </c>
       <c r="J36">
         <v>24.7</v>
       </c>
@@ -2651,18 +2837,18 @@
       <c r="O36">
         <v>2247.2038067669282</v>
       </c>
+      <c r="P36">
+        <v>1626.0041952186909</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
       <c r="R36">
         <v>821</v>
       </c>
       <c r="S36" t="s">
         <v>77</v>
       </c>
-      <c r="T36">
-        <v>4.2</v>
-      </c>
-      <c r="U36">
-        <v>0.15</v>
-      </c>
       <c r="V36">
         <v>4.2</v>
       </c>
@@ -2677,6 +2863,9 @@
       </c>
       <c r="AA36">
         <v>2353.8406690606562</v>
+      </c>
+      <c r="AF36">
+        <v>1657.9686999999999</v>
       </c>
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.3">
@@ -2692,6 +2881,9 @@
       <c r="E37">
         <v>2</v>
       </c>
+      <c r="G37">
+        <v>25</v>
+      </c>
       <c r="J37">
         <v>25</v>
       </c>
@@ -2710,18 +2902,18 @@
       <c r="O37">
         <v>2247.3996370943469</v>
       </c>
+      <c r="P37">
+        <v>1887.7676925448279</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
       <c r="R37">
         <v>555</v>
       </c>
       <c r="S37" t="s">
         <v>77</v>
       </c>
-      <c r="T37">
-        <v>2.25</v>
-      </c>
-      <c r="U37">
-        <v>0.15</v>
-      </c>
       <c r="V37">
         <v>2.25</v>
       </c>
@@ -2736,6 +2928,9 @@
       </c>
       <c r="AA37">
         <v>1473.9676953059411</v>
+      </c>
+      <c r="AF37">
+        <v>1924.7103</v>
       </c>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.3">
@@ -2751,6 +2946,9 @@
       <c r="E38">
         <v>3</v>
       </c>
+      <c r="G38">
+        <v>26</v>
+      </c>
       <c r="J38">
         <v>25</v>
       </c>
@@ -2769,11 +2967,11 @@
       <c r="O38">
         <v>2247.3996370943469</v>
       </c>
-      <c r="T38">
-        <v>1.2</v>
-      </c>
-      <c r="U38">
-        <v>0.15</v>
+      <c r="P38">
+        <v>2073.6655701738082</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
       </c>
       <c r="V38">
         <v>1.2</v>
@@ -2789,6 +2987,9 @@
       </c>
       <c r="AA38">
         <v>316.44527370375539</v>
+      </c>
+      <c r="AF38">
+        <v>2114.2460999999998</v>
       </c>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.3">
@@ -2804,6 +3005,9 @@
       <c r="E39">
         <v>4</v>
       </c>
+      <c r="G39">
+        <v>27</v>
+      </c>
       <c r="J39">
         <v>25.2</v>
       </c>
@@ -2822,11 +3026,11 @@
       <c r="O39">
         <v>2247.5310896238698</v>
       </c>
-      <c r="T39">
-        <v>1.2</v>
-      </c>
-      <c r="U39">
-        <v>0.15</v>
+      <c r="P39">
+        <v>2022.103396683485</v>
+      </c>
+      <c r="Q39">
+        <v>0.5</v>
       </c>
       <c r="V39">
         <v>1.2</v>
@@ -2842,6 +3046,9 @@
       </c>
       <c r="AA39">
         <v>321.92057616761798</v>
+      </c>
+      <c r="AF39">
+        <v>2061.5542999999998</v>
       </c>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.3">
@@ -2857,6 +3064,9 @@
       <c r="E40">
         <v>5</v>
       </c>
+      <c r="G40">
+        <v>28</v>
+      </c>
       <c r="J40">
         <v>25.2</v>
       </c>
@@ -2875,11 +3085,11 @@
       <c r="O40">
         <v>2247.5310896238698</v>
       </c>
-      <c r="T40">
-        <v>1.2</v>
-      </c>
-      <c r="U40">
-        <v>0.15</v>
+      <c r="P40">
+        <v>2071.4397525288991</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
       </c>
       <c r="V40">
         <v>1.2</v>
@@ -2895,6 +3105,9 @@
       </c>
       <c r="AA40">
         <v>322.35424204536741</v>
+      </c>
+      <c r="AF40">
+        <v>2111.8532</v>
       </c>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.3">
@@ -2910,6 +3123,9 @@
       <c r="E41">
         <v>7</v>
       </c>
+      <c r="G41">
+        <v>29</v>
+      </c>
       <c r="J41">
         <v>25.2</v>
       </c>
@@ -2928,18 +3144,18 @@
       <c r="O41">
         <v>2247.5310896238698</v>
       </c>
+      <c r="P41">
+        <v>1906.5536530976669</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
       <c r="R41">
         <v>539</v>
       </c>
       <c r="S41" t="s">
         <v>77</v>
       </c>
-      <c r="T41">
-        <v>2.25</v>
-      </c>
-      <c r="U41">
-        <v>0.15</v>
-      </c>
       <c r="V41">
         <v>2.25</v>
       </c>
@@ -2954,6 +3170,9 @@
       </c>
       <c r="AA41">
         <v>1381.7065763197461</v>
+      </c>
+      <c r="AF41">
+        <v>1943.7501999999999</v>
       </c>
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.3">
@@ -2969,6 +3188,9 @@
       <c r="E42">
         <v>8</v>
       </c>
+      <c r="G42">
+        <v>30</v>
+      </c>
       <c r="J42">
         <v>25.21</v>
       </c>
@@ -2987,18 +3209,18 @@
       <c r="O42">
         <v>2247.5376810862308</v>
       </c>
+      <c r="P42">
+        <v>1897.699863135228</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
       <c r="R42">
         <v>548</v>
       </c>
       <c r="S42" t="s">
         <v>77</v>
       </c>
-      <c r="T42">
-        <v>2.25</v>
-      </c>
-      <c r="U42">
-        <v>0.15</v>
-      </c>
       <c r="V42">
         <v>2.25</v>
       </c>
@@ -3013,6 +3235,9 @@
       </c>
       <c r="AA42">
         <v>1379.0636853083431</v>
+      </c>
+      <c r="AF42">
+        <v>1934.7180000000001</v>
       </c>
     </row>
     <row r="43" spans="2:32" x14ac:dyDescent="0.3">
@@ -3028,6 +3253,9 @@
       <c r="E43">
         <v>9</v>
       </c>
+      <c r="G43">
+        <v>31</v>
+      </c>
       <c r="J43">
         <v>25</v>
       </c>
@@ -3046,18 +3274,18 @@
       <c r="O43">
         <v>2247.3996370943469</v>
       </c>
+      <c r="P43">
+        <v>1892.8755347947681</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
       <c r="R43">
         <v>561</v>
       </c>
       <c r="S43" t="s">
         <v>77</v>
       </c>
-      <c r="T43">
-        <v>2.25</v>
-      </c>
-      <c r="U43">
-        <v>0.15</v>
-      </c>
       <c r="V43">
         <v>2.25</v>
       </c>
@@ -3072,6 +3300,9 @@
       </c>
       <c r="AA43">
         <v>1376.2698085921641</v>
+      </c>
+      <c r="AF43">
+        <v>1929.9181000000001</v>
       </c>
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.3">
@@ -3087,6 +3318,9 @@
       <c r="E44">
         <v>10</v>
       </c>
+      <c r="G44">
+        <v>32</v>
+      </c>
       <c r="J44">
         <v>25</v>
       </c>
@@ -3105,15 +3339,15 @@
       <c r="O44">
         <v>2247.3996370943469</v>
       </c>
+      <c r="P44">
+        <v>1761.999410777345</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
       <c r="R44">
         <v>697</v>
       </c>
-      <c r="T44">
-        <v>3.15</v>
-      </c>
-      <c r="U44">
-        <v>0.15</v>
-      </c>
       <c r="V44">
         <v>3.15</v>
       </c>
@@ -3128,6 +3362,9 @@
       </c>
       <c r="AA44">
         <v>2372.2945507453628</v>
+      </c>
+      <c r="AF44">
+        <v>1796.4808</v>
       </c>
     </row>
     <row r="45" spans="2:32" x14ac:dyDescent="0.3">
@@ -3143,6 +3380,9 @@
       <c r="E45">
         <v>11</v>
       </c>
+      <c r="G45">
+        <v>33</v>
+      </c>
       <c r="J45">
         <v>25.1</v>
       </c>
@@ -3161,15 +3401,15 @@
       <c r="O45">
         <v>2247.4652736207522</v>
       </c>
+      <c r="P45">
+        <v>1776.503863913513</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
       <c r="R45">
         <v>690</v>
       </c>
-      <c r="T45">
-        <v>3.15</v>
-      </c>
-      <c r="U45">
-        <v>0.15</v>
-      </c>
       <c r="V45">
         <v>3.15</v>
       </c>
@@ -3184,6 +3424,9 @@
       </c>
       <c r="AA45">
         <v>2371.0065608492009</v>
+      </c>
+      <c r="AF45">
+        <v>1811.2162000000001</v>
       </c>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.3">
@@ -3199,6 +3442,9 @@
       <c r="E46">
         <v>12</v>
       </c>
+      <c r="G46">
+        <v>34</v>
+      </c>
       <c r="J46">
         <v>24.8</v>
       </c>
@@ -3217,15 +3463,15 @@
       <c r="O46">
         <v>2247.2689034275022</v>
       </c>
+      <c r="P46">
+        <v>1655.9529638285719</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
       <c r="R46">
         <v>803</v>
       </c>
-      <c r="T46">
-        <v>4.2</v>
-      </c>
-      <c r="U46">
-        <v>0.15</v>
-      </c>
       <c r="V46">
         <v>4.2</v>
       </c>
@@ -3240,6 +3486,9 @@
       </c>
       <c r="AA46">
         <v>2370.6613934554248</v>
+      </c>
+      <c r="AF46">
+        <v>1688.4573</v>
       </c>
     </row>
     <row r="47" spans="2:32" x14ac:dyDescent="0.3">
@@ -3255,6 +3504,9 @@
       <c r="E47">
         <v>13</v>
       </c>
+      <c r="G47">
+        <v>35</v>
+      </c>
       <c r="J47">
         <v>25</v>
       </c>
@@ -3273,11 +3525,11 @@
       <c r="O47">
         <v>2247.3996370943469</v>
       </c>
-      <c r="T47">
-        <v>4.2</v>
-      </c>
-      <c r="U47">
-        <v>0.15</v>
+      <c r="P47">
+        <v>1668.6995395236229</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
       </c>
       <c r="V47">
         <v>4.2</v>
@@ -3293,6 +3545,9 @@
       </c>
       <c r="AA47">
         <v>2372.7084622496941</v>
+      </c>
+      <c r="AF47">
+        <v>1701.3551</v>
       </c>
     </row>
     <row r="48" spans="2:32" x14ac:dyDescent="0.3">
@@ -7815,6 +8070,1789 @@
       </c>
       <c r="AF130">
         <v>1755.0399</v>
+      </c>
+    </row>
+    <row r="131" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>183</v>
+      </c>
+      <c r="C131" t="s">
+        <v>184</v>
+      </c>
+      <c r="D131" t="s">
+        <v>147</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>25</v>
+      </c>
+      <c r="K131">
+        <v>178.65</v>
+      </c>
+      <c r="L131">
+        <v>30</v>
+      </c>
+      <c r="M131">
+        <v>0.1</v>
+      </c>
+      <c r="V131">
+        <v>4.2</v>
+      </c>
+      <c r="W131">
+        <v>0.15</v>
+      </c>
+      <c r="X131">
+        <v>633.32404256933614</v>
+      </c>
+      <c r="Z131">
+        <v>2222.4181336354291</v>
+      </c>
+    </row>
+    <row r="132" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>185</v>
+      </c>
+      <c r="C132" t="s">
+        <v>186</v>
+      </c>
+      <c r="D132" t="s">
+        <v>147</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>179</v>
+      </c>
+      <c r="J132">
+        <v>24.9</v>
+      </c>
+      <c r="K132">
+        <v>175.95</v>
+      </c>
+      <c r="L132">
+        <v>30</v>
+      </c>
+      <c r="M132">
+        <v>0.1</v>
+      </c>
+      <c r="N132">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O132">
+        <v>2263.5673144353809</v>
+      </c>
+      <c r="P132">
+        <v>1672.276480089083</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>4.2</v>
+      </c>
+      <c r="W132">
+        <v>0.15</v>
+      </c>
+      <c r="X132">
+        <v>633.21787308521368</v>
+      </c>
+      <c r="Z132">
+        <v>2285.7394999962571</v>
+      </c>
+      <c r="AF132">
+        <v>1705.0517</v>
+      </c>
+    </row>
+    <row r="133" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>187</v>
+      </c>
+      <c r="C133" t="s">
+        <v>186</v>
+      </c>
+      <c r="D133" t="s">
+        <v>147</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>180</v>
+      </c>
+      <c r="J133">
+        <v>25.1</v>
+      </c>
+      <c r="K133">
+        <v>176.3</v>
+      </c>
+      <c r="L133">
+        <v>30</v>
+      </c>
+      <c r="M133">
+        <v>0.1</v>
+      </c>
+      <c r="N133">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O133">
+        <v>2263.699354697188</v>
+      </c>
+      <c r="P133">
+        <v>1961.925875158729</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>2.1</v>
+      </c>
+      <c r="W133">
+        <v>0.15</v>
+      </c>
+      <c r="X133">
+        <v>504.45439009690591</v>
+      </c>
+      <c r="Z133">
+        <v>1073.982738855552</v>
+      </c>
+      <c r="AF133">
+        <v>2000.2612999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>188</v>
+      </c>
+      <c r="C134" t="s">
+        <v>186</v>
+      </c>
+      <c r="D134" t="s">
+        <v>147</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>181</v>
+      </c>
+      <c r="J134">
+        <v>25.1</v>
+      </c>
+      <c r="K134">
+        <v>176.5</v>
+      </c>
+      <c r="L134">
+        <v>30</v>
+      </c>
+      <c r="M134">
+        <v>0.1</v>
+      </c>
+      <c r="N134">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O134">
+        <v>2263.699354697188</v>
+      </c>
+      <c r="P134">
+        <v>1976.8547691864439</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>2.1</v>
+      </c>
+      <c r="W134">
+        <v>0.15</v>
+      </c>
+      <c r="X134">
+        <v>503.94041125568037</v>
+      </c>
+      <c r="Z134">
+        <v>1070.706084467477</v>
+      </c>
+      <c r="AF134">
+        <v>2015.4819</v>
+      </c>
+    </row>
+    <row r="135" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>189</v>
+      </c>
+      <c r="C135" t="s">
+        <v>186</v>
+      </c>
+      <c r="D135" t="s">
+        <v>147</v>
+      </c>
+      <c r="E135">
+        <v>4</v>
+      </c>
+      <c r="G135">
+        <v>182</v>
+      </c>
+      <c r="J135">
+        <v>25.1</v>
+      </c>
+      <c r="K135">
+        <v>176.6</v>
+      </c>
+      <c r="L135">
+        <v>30</v>
+      </c>
+      <c r="M135">
+        <v>0.1</v>
+      </c>
+      <c r="N135">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O135">
+        <v>2263.699354697188</v>
+      </c>
+      <c r="P135">
+        <v>1923.9591335479349</v>
+      </c>
+      <c r="Q135">
+        <v>1</v>
+      </c>
+      <c r="V135">
+        <v>2.1</v>
+      </c>
+      <c r="W135">
+        <v>0.15</v>
+      </c>
+      <c r="X135">
+        <v>500.7942265723575</v>
+      </c>
+      <c r="Z135">
+        <v>986.11553317651192</v>
+      </c>
+      <c r="AF135">
+        <v>1961.5527</v>
+      </c>
+    </row>
+    <row r="136" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>190</v>
+      </c>
+      <c r="C136" t="s">
+        <v>186</v>
+      </c>
+      <c r="D136" t="s">
+        <v>147</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+      <c r="G136">
+        <v>183</v>
+      </c>
+      <c r="J136">
+        <v>25.2</v>
+      </c>
+      <c r="K136">
+        <v>177.2</v>
+      </c>
+      <c r="L136">
+        <v>30</v>
+      </c>
+      <c r="M136">
+        <v>0.1</v>
+      </c>
+      <c r="N136">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O136">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="P136">
+        <v>1933.0683556301919</v>
+      </c>
+      <c r="Q136">
+        <v>1</v>
+      </c>
+      <c r="V136">
+        <v>2.1</v>
+      </c>
+      <c r="W136">
+        <v>0.15</v>
+      </c>
+      <c r="X136">
+        <v>500.80730341006921</v>
+      </c>
+      <c r="Z136">
+        <v>985.99723635226871</v>
+      </c>
+      <c r="AF136">
+        <v>1970.7822000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>191</v>
+      </c>
+      <c r="C137" t="s">
+        <v>186</v>
+      </c>
+      <c r="D137" t="s">
+        <v>147</v>
+      </c>
+      <c r="E137">
+        <v>6</v>
+      </c>
+      <c r="G137">
+        <v>185</v>
+      </c>
+      <c r="J137">
+        <v>25.1</v>
+      </c>
+      <c r="K137">
+        <v>176.95</v>
+      </c>
+      <c r="L137">
+        <v>30</v>
+      </c>
+      <c r="M137">
+        <v>0.1</v>
+      </c>
+      <c r="N137">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O137">
+        <v>2263.699354697188</v>
+      </c>
+      <c r="P137">
+        <v>1890.943645964704</v>
+      </c>
+      <c r="Q137">
+        <v>2</v>
+      </c>
+      <c r="V137">
+        <v>2.1</v>
+      </c>
+      <c r="W137">
+        <v>0.15</v>
+      </c>
+      <c r="X137">
+        <v>500.71956891049069</v>
+      </c>
+      <c r="Z137">
+        <v>985.04539221408947</v>
+      </c>
+      <c r="AF137">
+        <v>1927.8921</v>
+      </c>
+    </row>
+    <row r="138" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>192</v>
+      </c>
+      <c r="C138" t="s">
+        <v>186</v>
+      </c>
+      <c r="D138" t="s">
+        <v>147</v>
+      </c>
+      <c r="E138">
+        <v>7</v>
+      </c>
+      <c r="G138">
+        <v>186</v>
+      </c>
+      <c r="J138">
+        <v>25.2</v>
+      </c>
+      <c r="K138">
+        <v>177.15</v>
+      </c>
+      <c r="L138">
+        <v>30</v>
+      </c>
+      <c r="M138">
+        <v>0.1</v>
+      </c>
+      <c r="N138">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O138">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="P138">
+        <v>1882.5215161211429</v>
+      </c>
+      <c r="Q138">
+        <v>2</v>
+      </c>
+      <c r="V138">
+        <v>2.1</v>
+      </c>
+      <c r="W138">
+        <v>0.15</v>
+      </c>
+      <c r="X138">
+        <v>500.55024892716472</v>
+      </c>
+      <c r="Z138">
+        <v>982.96093400037421</v>
+      </c>
+      <c r="AF138">
+        <v>1919.2492</v>
+      </c>
+    </row>
+    <row r="139" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>193</v>
+      </c>
+      <c r="C139" t="s">
+        <v>186</v>
+      </c>
+      <c r="D139" t="s">
+        <v>147</v>
+      </c>
+      <c r="E139">
+        <v>8</v>
+      </c>
+      <c r="G139">
+        <v>187</v>
+      </c>
+      <c r="J139">
+        <v>25.2</v>
+      </c>
+      <c r="K139">
+        <v>177.2</v>
+      </c>
+      <c r="L139">
+        <v>30</v>
+      </c>
+      <c r="M139">
+        <v>0.1</v>
+      </c>
+      <c r="N139">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O139">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="P139">
+        <v>925.53143456426778</v>
+      </c>
+      <c r="Q139">
+        <v>30</v>
+      </c>
+      <c r="V139">
+        <v>2.1</v>
+      </c>
+      <c r="W139">
+        <v>0.15</v>
+      </c>
+      <c r="X139">
+        <v>500.7261398392983</v>
+      </c>
+      <c r="Z139">
+        <v>984.36008409501812</v>
+      </c>
+      <c r="AF139">
+        <v>943.58839999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>194</v>
+      </c>
+      <c r="C140" t="s">
+        <v>186</v>
+      </c>
+      <c r="D140" t="s">
+        <v>147</v>
+      </c>
+      <c r="E140">
+        <v>9</v>
+      </c>
+      <c r="G140">
+        <v>190</v>
+      </c>
+      <c r="J140">
+        <v>25.2</v>
+      </c>
+      <c r="K140">
+        <v>177</v>
+      </c>
+      <c r="L140">
+        <v>30</v>
+      </c>
+      <c r="M140">
+        <v>0.1</v>
+      </c>
+      <c r="N140">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O140">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="P140">
+        <v>911.74785002230612</v>
+      </c>
+      <c r="Q140">
+        <v>30</v>
+      </c>
+      <c r="V140">
+        <v>2.1</v>
+      </c>
+      <c r="W140">
+        <v>0.15</v>
+      </c>
+      <c r="X140">
+        <v>500.80974090115302</v>
+      </c>
+      <c r="Z140">
+        <v>986.01687134694134</v>
+      </c>
+      <c r="AF140">
+        <v>929.53589999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>195</v>
+      </c>
+      <c r="C141" t="s">
+        <v>186</v>
+      </c>
+      <c r="D141" t="s">
+        <v>147</v>
+      </c>
+      <c r="E141">
+        <v>10</v>
+      </c>
+      <c r="G141">
+        <v>191</v>
+      </c>
+      <c r="J141">
+        <v>25.1</v>
+      </c>
+      <c r="K141">
+        <v>176.8</v>
+      </c>
+      <c r="L141">
+        <v>30</v>
+      </c>
+      <c r="M141">
+        <v>0.1</v>
+      </c>
+      <c r="N141">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O141">
+        <v>2263.699354697188</v>
+      </c>
+      <c r="P141">
+        <v>1721.3885991418081</v>
+      </c>
+      <c r="Q141">
+        <v>5</v>
+      </c>
+      <c r="V141">
+        <v>2.1</v>
+      </c>
+      <c r="W141">
+        <v>0.15</v>
+      </c>
+      <c r="X141">
+        <v>500.2175481479556</v>
+      </c>
+      <c r="Z141">
+        <v>982.70424120226198</v>
+      </c>
+      <c r="AF141">
+        <v>1755.0239999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>196</v>
+      </c>
+      <c r="C142" t="s">
+        <v>186</v>
+      </c>
+      <c r="D142" t="s">
+        <v>147</v>
+      </c>
+      <c r="E142">
+        <v>11</v>
+      </c>
+      <c r="J142">
+        <v>25.2</v>
+      </c>
+      <c r="K142">
+        <v>177.15</v>
+      </c>
+      <c r="L142">
+        <v>30</v>
+      </c>
+      <c r="M142">
+        <v>0.1</v>
+      </c>
+      <c r="N142">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O142">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="V142">
+        <v>2.1</v>
+      </c>
+      <c r="W142">
+        <v>0.15</v>
+      </c>
+      <c r="X142">
+        <v>500.79482180302568</v>
+      </c>
+      <c r="Z142">
+        <v>985.106314317017</v>
+      </c>
+    </row>
+    <row r="143" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>197</v>
+      </c>
+      <c r="C143" t="s">
+        <v>186</v>
+      </c>
+      <c r="D143" t="s">
+        <v>147</v>
+      </c>
+      <c r="E143">
+        <v>12</v>
+      </c>
+      <c r="G143">
+        <v>193</v>
+      </c>
+      <c r="J143">
+        <v>25.2</v>
+      </c>
+      <c r="K143">
+        <v>176.95</v>
+      </c>
+      <c r="L143">
+        <v>30</v>
+      </c>
+      <c r="M143">
+        <v>0.1</v>
+      </c>
+      <c r="N143">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O143">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="P143">
+        <v>1503.981371820101</v>
+      </c>
+      <c r="Q143">
+        <v>10</v>
+      </c>
+      <c r="V143">
+        <v>2.1</v>
+      </c>
+      <c r="W143">
+        <v>0.15</v>
+      </c>
+      <c r="X143">
+        <v>500.51038723866111</v>
+      </c>
+      <c r="Z143">
+        <v>983.24735600993574</v>
+      </c>
+      <c r="AF143">
+        <v>1533.3237999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>198</v>
+      </c>
+      <c r="C144" t="s">
+        <v>186</v>
+      </c>
+      <c r="D144" t="s">
+        <v>147</v>
+      </c>
+      <c r="E144">
+        <v>13</v>
+      </c>
+      <c r="G144">
+        <v>195</v>
+      </c>
+      <c r="J144">
+        <v>25.2</v>
+      </c>
+      <c r="K144">
+        <v>176.75</v>
+      </c>
+      <c r="L144">
+        <v>30</v>
+      </c>
+      <c r="M144">
+        <v>0.1</v>
+      </c>
+      <c r="N144">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O144">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="P144">
+        <v>377.26306000475017</v>
+      </c>
+      <c r="Q144">
+        <v>79</v>
+      </c>
+      <c r="V144">
+        <v>2.1</v>
+      </c>
+      <c r="W144">
+        <v>0.15</v>
+      </c>
+      <c r="X144">
+        <v>500.45234459652909</v>
+      </c>
+      <c r="Z144">
+        <v>983.05881868558151</v>
+      </c>
+      <c r="AF144">
+        <v>384.6234</v>
+      </c>
+    </row>
+    <row r="145" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>199</v>
+      </c>
+      <c r="C145" t="s">
+        <v>186</v>
+      </c>
+      <c r="D145" t="s">
+        <v>147</v>
+      </c>
+      <c r="E145">
+        <v>14</v>
+      </c>
+      <c r="G145">
+        <v>196</v>
+      </c>
+      <c r="J145">
+        <v>25.2</v>
+      </c>
+      <c r="K145">
+        <v>176.55</v>
+      </c>
+      <c r="L145">
+        <v>30</v>
+      </c>
+      <c r="M145">
+        <v>0.1</v>
+      </c>
+      <c r="N145">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O145">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="P145">
+        <v>1708.438055684177</v>
+      </c>
+      <c r="Q145">
+        <v>5</v>
+      </c>
+      <c r="V145">
+        <v>2.1</v>
+      </c>
+      <c r="W145">
+        <v>0.15</v>
+      </c>
+      <c r="X145">
+        <v>499.84272738336091</v>
+      </c>
+      <c r="Z145">
+        <v>979.85753478911897</v>
+      </c>
+      <c r="AF145">
+        <v>1741.7693999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>200</v>
+      </c>
+      <c r="C146" t="s">
+        <v>186</v>
+      </c>
+      <c r="D146" t="s">
+        <v>147</v>
+      </c>
+      <c r="E146">
+        <v>15</v>
+      </c>
+      <c r="J146">
+        <v>25.2</v>
+      </c>
+      <c r="K146">
+        <v>177.15</v>
+      </c>
+      <c r="L146">
+        <v>30</v>
+      </c>
+      <c r="M146">
+        <v>0.1</v>
+      </c>
+      <c r="N146">
+        <v>2307.9313400000001</v>
+      </c>
+      <c r="O146">
+        <v>2263.7656461080201</v>
+      </c>
+      <c r="V146">
+        <v>4.2</v>
+      </c>
+      <c r="W146">
+        <v>0.15</v>
+      </c>
+      <c r="X146">
+        <v>632.84611027076664</v>
+      </c>
+      <c r="Z146">
+        <v>2328.747203034643</v>
+      </c>
+    </row>
+    <row r="147" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>201</v>
+      </c>
+      <c r="C147" t="s">
+        <v>202</v>
+      </c>
+      <c r="D147" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>198</v>
+      </c>
+      <c r="J147">
+        <v>24.8</v>
+      </c>
+      <c r="K147">
+        <v>166.9</v>
+      </c>
+      <c r="L147">
+        <v>30</v>
+      </c>
+      <c r="M147">
+        <v>0.1</v>
+      </c>
+      <c r="N147">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O147">
+        <v>2247.4488218484271</v>
+      </c>
+      <c r="P147">
+        <v>1657.47881326588</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>625</v>
+      </c>
+      <c r="V147">
+        <v>4.2</v>
+      </c>
+      <c r="W147">
+        <v>0.15</v>
+      </c>
+      <c r="X147">
+        <v>633.20503092788692</v>
+      </c>
+      <c r="Z147">
+        <v>2365.0107161387109</v>
+      </c>
+      <c r="AF147">
+        <v>1690.0130999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>203</v>
+      </c>
+      <c r="C148" t="s">
+        <v>202</v>
+      </c>
+      <c r="D148" t="s">
+        <v>147</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>199</v>
+      </c>
+      <c r="J148">
+        <v>25</v>
+      </c>
+      <c r="K148">
+        <v>177.35</v>
+      </c>
+      <c r="L148">
+        <v>30</v>
+      </c>
+      <c r="M148">
+        <v>0.1</v>
+      </c>
+      <c r="N148">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O148">
+        <v>2247.57956598193</v>
+      </c>
+      <c r="P148">
+        <v>1688.8106753165389</v>
+      </c>
+      <c r="Q148">
+        <v>8.3330000000000001E-2</v>
+      </c>
+      <c r="R148">
+        <v>599</v>
+      </c>
+      <c r="V148">
+        <v>4.2</v>
+      </c>
+      <c r="W148">
+        <v>0.15</v>
+      </c>
+      <c r="X148">
+        <v>633.45747696612329</v>
+      </c>
+      <c r="Z148">
+        <v>2326.9495634776731</v>
+      </c>
+      <c r="AF148">
+        <v>1721.8598</v>
+      </c>
+    </row>
+    <row r="149" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>204</v>
+      </c>
+      <c r="C149" t="s">
+        <v>202</v>
+      </c>
+      <c r="D149" t="s">
+        <v>147</v>
+      </c>
+      <c r="E149">
+        <v>3</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>200</v>
+      </c>
+      <c r="J149">
+        <v>25</v>
+      </c>
+      <c r="K149">
+        <v>177.65</v>
+      </c>
+      <c r="L149">
+        <v>30</v>
+      </c>
+      <c r="M149">
+        <v>0.1</v>
+      </c>
+      <c r="N149">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O149">
+        <v>2247.57956598193</v>
+      </c>
+      <c r="P149">
+        <v>1795.9627660196591</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>3.6</v>
+      </c>
+      <c r="W149">
+        <v>0.15</v>
+      </c>
+      <c r="X149">
+        <v>634.00787348895449</v>
+      </c>
+      <c r="Z149">
+        <v>2330.7948183077378</v>
+      </c>
+      <c r="AF149">
+        <v>1831.1088</v>
+      </c>
+    </row>
+    <row r="150" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>205</v>
+      </c>
+      <c r="C150" t="s">
+        <v>202</v>
+      </c>
+      <c r="D150" t="s">
+        <v>147</v>
+      </c>
+      <c r="E150">
+        <v>4</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>201</v>
+      </c>
+      <c r="J150">
+        <v>25.1</v>
+      </c>
+      <c r="K150">
+        <v>177.95</v>
+      </c>
+      <c r="L150">
+        <v>30</v>
+      </c>
+      <c r="M150">
+        <v>0.1</v>
+      </c>
+      <c r="N150">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O150">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P150">
+        <v>1847.5906500963131</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>3</v>
+      </c>
+      <c r="W150">
+        <v>0.15</v>
+      </c>
+      <c r="X150">
+        <v>634.45775278600865</v>
+      </c>
+      <c r="Z150">
+        <v>2328.7730451283269</v>
+      </c>
+      <c r="AF150">
+        <v>1883.692</v>
+      </c>
+    </row>
+    <row r="151" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>206</v>
+      </c>
+      <c r="C151" t="s">
+        <v>202</v>
+      </c>
+      <c r="D151" t="s">
+        <v>147</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>202</v>
+      </c>
+      <c r="J151">
+        <v>25.1</v>
+      </c>
+      <c r="K151">
+        <v>177.7</v>
+      </c>
+      <c r="L151">
+        <v>30</v>
+      </c>
+      <c r="M151">
+        <v>0.1</v>
+      </c>
+      <c r="N151">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O151">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P151">
+        <v>1923.4982392794029</v>
+      </c>
+      <c r="Q151">
+        <v>8.3333000000000004E-2</v>
+      </c>
+      <c r="V151">
+        <v>2.4</v>
+      </c>
+      <c r="W151">
+        <v>0.15</v>
+      </c>
+      <c r="AF151">
+        <v>1961.0827999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>207</v>
+      </c>
+      <c r="C152" t="s">
+        <v>202</v>
+      </c>
+      <c r="D152" t="s">
+        <v>147</v>
+      </c>
+      <c r="E152">
+        <v>6</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>203</v>
+      </c>
+      <c r="J152">
+        <v>25.2</v>
+      </c>
+      <c r="K152">
+        <v>177.75</v>
+      </c>
+      <c r="L152">
+        <v>30</v>
+      </c>
+      <c r="M152">
+        <v>0.1</v>
+      </c>
+      <c r="N152">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O152">
+        <v>2247.7110290356632</v>
+      </c>
+      <c r="P152">
+        <v>1990.07555459323</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="V152">
+        <v>2.1</v>
+      </c>
+      <c r="W152">
+        <v>0.15</v>
+      </c>
+      <c r="X152">
+        <v>501.76745350947863</v>
+      </c>
+      <c r="Z152">
+        <v>983.11498351008049</v>
+      </c>
+      <c r="AF152">
+        <v>2028.9015999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>208</v>
+      </c>
+      <c r="C153" t="s">
+        <v>202</v>
+      </c>
+      <c r="D153" t="s">
+        <v>147</v>
+      </c>
+      <c r="E153">
+        <v>7</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>204</v>
+      </c>
+      <c r="J153">
+        <v>25.1</v>
+      </c>
+      <c r="K153">
+        <v>177.5</v>
+      </c>
+      <c r="L153">
+        <v>30</v>
+      </c>
+      <c r="M153">
+        <v>0.1</v>
+      </c>
+      <c r="N153">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O153">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P153">
+        <v>2046.183997506331</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>292</v>
+      </c>
+      <c r="V153">
+        <v>1.8</v>
+      </c>
+      <c r="W153">
+        <v>0.15</v>
+      </c>
+      <c r="X153">
+        <v>473.93480487280817</v>
+      </c>
+      <c r="Z153">
+        <v>453.56917604809689</v>
+      </c>
+      <c r="AF153">
+        <v>2086.1658000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>209</v>
+      </c>
+      <c r="C154" t="s">
+        <v>202</v>
+      </c>
+      <c r="D154" t="s">
+        <v>147</v>
+      </c>
+      <c r="E154">
+        <v>8</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>205</v>
+      </c>
+      <c r="J154">
+        <v>25.1</v>
+      </c>
+      <c r="K154">
+        <v>177.3</v>
+      </c>
+      <c r="L154">
+        <v>30</v>
+      </c>
+      <c r="M154">
+        <v>0.1</v>
+      </c>
+      <c r="N154">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O154">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P154">
+        <v>2074.647136571708</v>
+      </c>
+      <c r="Q154">
+        <v>0.16666600000000001</v>
+      </c>
+      <c r="R154">
+        <v>270</v>
+      </c>
+      <c r="V154">
+        <v>1.5</v>
+      </c>
+      <c r="W154">
+        <v>0.15</v>
+      </c>
+      <c r="X154">
+        <v>469.4633541918829</v>
+      </c>
+      <c r="Z154">
+        <v>386.19905496188608</v>
+      </c>
+      <c r="AF154">
+        <v>2115.1851000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>210</v>
+      </c>
+      <c r="C155" t="s">
+        <v>202</v>
+      </c>
+      <c r="D155" t="s">
+        <v>147</v>
+      </c>
+      <c r="E155">
+        <v>9</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>206</v>
+      </c>
+      <c r="J155">
+        <v>25.1</v>
+      </c>
+      <c r="K155">
+        <v>177.15</v>
+      </c>
+      <c r="L155">
+        <v>30</v>
+      </c>
+      <c r="M155">
+        <v>0.1</v>
+      </c>
+      <c r="N155">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O155">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P155">
+        <v>2088.176085101496</v>
+      </c>
+      <c r="Q155">
+        <v>1.166666</v>
+      </c>
+      <c r="R155">
+        <v>219</v>
+      </c>
+      <c r="V155">
+        <v>1.2</v>
+      </c>
+      <c r="W155">
+        <v>0.15</v>
+      </c>
+      <c r="X155">
+        <v>460.53497175822503</v>
+      </c>
+      <c r="Z155">
+        <v>233.1054578909156</v>
+      </c>
+      <c r="AF155">
+        <v>2128.9784</v>
+      </c>
+    </row>
+    <row r="156" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>211</v>
+      </c>
+      <c r="C156" t="s">
+        <v>202</v>
+      </c>
+      <c r="D156" t="s">
+        <v>147</v>
+      </c>
+      <c r="E156">
+        <v>10</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>207</v>
+      </c>
+      <c r="J156">
+        <v>25.1</v>
+      </c>
+      <c r="K156">
+        <v>177.1</v>
+      </c>
+      <c r="L156">
+        <v>30</v>
+      </c>
+      <c r="M156">
+        <v>0.1</v>
+      </c>
+      <c r="N156">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O156">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P156">
+        <v>2110.2330978930599</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>219</v>
+      </c>
+      <c r="V156">
+        <v>1.2</v>
+      </c>
+      <c r="W156">
+        <v>0.15</v>
+      </c>
+      <c r="X156">
+        <v>460.28603855912212</v>
+      </c>
+      <c r="Z156">
+        <v>232.18811934360519</v>
+      </c>
+      <c r="AF156">
+        <v>2151.4663999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>212</v>
+      </c>
+      <c r="C157" t="s">
+        <v>202</v>
+      </c>
+      <c r="D157" t="s">
+        <v>147</v>
+      </c>
+      <c r="E157">
+        <v>11</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>208</v>
+      </c>
+      <c r="J157">
+        <v>25.1</v>
+      </c>
+      <c r="K157">
+        <v>175.6</v>
+      </c>
+      <c r="L157">
+        <v>30</v>
+      </c>
+      <c r="M157">
+        <v>0.1</v>
+      </c>
+      <c r="N157">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O157">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P157">
+        <v>2181.8628742164419</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>114</v>
+      </c>
+      <c r="V157">
+        <v>0.6</v>
+      </c>
+      <c r="W157">
+        <v>0.15</v>
+      </c>
+      <c r="X157">
+        <v>450.01328287875742</v>
+      </c>
+      <c r="Z157">
+        <v>120.93377186325451</v>
+      </c>
+      <c r="AF157">
+        <v>2224.4958000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>213</v>
+      </c>
+      <c r="C158" t="s">
+        <v>202</v>
+      </c>
+      <c r="D158" t="s">
+        <v>147</v>
+      </c>
+      <c r="E158">
+        <v>12</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>209</v>
+      </c>
+      <c r="J158">
+        <v>25.1</v>
+      </c>
+      <c r="L158">
+        <v>30</v>
+      </c>
+      <c r="M158">
+        <v>0.1</v>
+      </c>
+      <c r="N158">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O158">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P158">
+        <v>2236.5688366296481</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <v>0.15</v>
+      </c>
+      <c r="W158">
+        <v>0.15</v>
+      </c>
+      <c r="AF158">
+        <v>2280.2707</v>
+      </c>
+    </row>
+    <row r="159" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>214</v>
+      </c>
+      <c r="C159" t="s">
+        <v>202</v>
+      </c>
+      <c r="D159" t="s">
+        <v>147</v>
+      </c>
+      <c r="E159">
+        <v>13</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <v>211</v>
+      </c>
+      <c r="J159">
+        <v>25.1</v>
+      </c>
+      <c r="L159">
+        <v>30</v>
+      </c>
+      <c r="M159">
+        <v>0.1</v>
+      </c>
+      <c r="N159">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O159">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P159">
+        <v>2225.4638251201281</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="V159">
+        <v>0</v>
+      </c>
+      <c r="W159">
+        <v>0.15</v>
+      </c>
+      <c r="AF159">
+        <v>2268.9486999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>215</v>
+      </c>
+      <c r="C160" t="s">
+        <v>202</v>
+      </c>
+      <c r="D160" t="s">
+        <v>147</v>
+      </c>
+      <c r="E160">
+        <v>14</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>213</v>
+      </c>
+      <c r="J160">
+        <v>25.1</v>
+      </c>
+      <c r="L160">
+        <v>30</v>
+      </c>
+      <c r="M160">
+        <v>0.1</v>
+      </c>
+      <c r="N160">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O160">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P160">
+        <v>2100.823263153713</v>
+      </c>
+      <c r="Q160">
+        <v>86</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="V160">
+        <v>0.15</v>
+      </c>
+      <c r="W160">
+        <v>0.15</v>
+      </c>
+      <c r="AF160">
+        <v>2141.8726999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>216</v>
+      </c>
+      <c r="C161" t="s">
+        <v>202</v>
+      </c>
+      <c r="D161" t="s">
+        <v>147</v>
+      </c>
+      <c r="E161">
+        <v>15</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <v>214</v>
+      </c>
+      <c r="J161">
+        <v>25.1</v>
+      </c>
+      <c r="L161">
+        <v>30</v>
+      </c>
+      <c r="M161">
+        <v>0.1</v>
+      </c>
+      <c r="N161">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O161">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P161">
+        <v>2232.4895447317422</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>0</v>
+      </c>
+      <c r="V161">
+        <v>0.15</v>
+      </c>
+      <c r="W161">
+        <v>0.15</v>
+      </c>
+      <c r="AF161">
+        <v>2276.1116999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>217</v>
+      </c>
+      <c r="C162" t="s">
+        <v>202</v>
+      </c>
+      <c r="D162" t="s">
+        <v>147</v>
+      </c>
+      <c r="E162">
+        <v>16</v>
+      </c>
+      <c r="F162">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>215</v>
+      </c>
+      <c r="J162">
+        <v>25.1</v>
+      </c>
+      <c r="L162">
+        <v>30</v>
+      </c>
+      <c r="M162">
+        <v>0.1</v>
+      </c>
+      <c r="N162">
+        <v>2291.5635000000002</v>
+      </c>
+      <c r="O162">
+        <v>2247.6452077632562</v>
+      </c>
+      <c r="P162">
+        <v>2242.0296343314012</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>0</v>
+      </c>
+      <c r="V162">
+        <v>0</v>
+      </c>
+      <c r="W162">
+        <v>0.15</v>
+      </c>
+      <c r="AF162">
+        <v>2285.8382000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Logbook_automated_by_python_testing.xlsx
+++ b/Logbook_automated_by_python_testing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF222"/>
+  <dimension ref="A1:AF299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,8 +639,12 @@
       <c r="M2" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
@@ -703,8 +707,12 @@
       <c r="M3" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -716,11 +724,11 @@
         <v>0.15</v>
       </c>
       <c r="V3" t="n">
-        <v>634.1257635413475</v>
+        <v>634.4566133293154</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="n">
-        <v>2480.717974468064</v>
+        <v>2495.159911361349</v>
       </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -773,8 +781,12 @@
       <c r="M4" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -786,11 +798,11 @@
         <v>0.15</v>
       </c>
       <c r="V4" t="n">
-        <v>633.6911221847979</v>
+        <v>633.9304315824165</v>
       </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
-        <v>2468.096772482338</v>
+        <v>2480.512126788392</v>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -843,8 +855,12 @@
       <c r="M5" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -856,11 +872,11 @@
         <v>0.15</v>
       </c>
       <c r="V5" t="n">
-        <v>633.1981543357463</v>
+        <v>633.4826807009779</v>
       </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>2464.168337565546</v>
+        <v>2477.535356274628</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -913,8 +929,12 @@
       <c r="M6" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -926,11 +946,11 @@
         <v>0.15</v>
       </c>
       <c r="V6" t="n">
-        <v>633.3865474077448</v>
+        <v>633.6220783637183</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>2466.409038819705</v>
+        <v>2478.724842406389</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
@@ -983,8 +1003,12 @@
       <c r="M7" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
@@ -996,11 +1020,11 @@
         <v>0.15</v>
       </c>
       <c r="V7" t="n">
-        <v>632.7638864450529</v>
+        <v>633.4306838543482</v>
       </c>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="n">
-        <v>2460.639070246709</v>
+        <v>2484.915718836589</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -1053,8 +1077,12 @@
       <c r="M8" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -1066,11 +1094,11 @@
         <v>0.15</v>
       </c>
       <c r="V8" t="n">
-        <v>633.3795422987486</v>
+        <v>633.6314475549832</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="n">
-        <v>2474.322308686651</v>
+        <v>2487.073663166796</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -1131,8 +1159,12 @@
       <c r="M9" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1191,8 +1223,12 @@
       <c r="M10" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1204,11 +1240,11 @@
         <v>0.15</v>
       </c>
       <c r="V10" t="n">
-        <v>633.4091309239531</v>
+        <v>633.636238047284</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="n">
-        <v>2464.532441600195</v>
+        <v>2476.646569390355</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -1261,8 +1297,12 @@
       <c r="M11" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1274,11 +1314,11 @@
         <v>0.15</v>
       </c>
       <c r="V11" t="n">
-        <v>633.3647183854212</v>
+        <v>633.7590943577716</v>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="n">
-        <v>2448.563820664148</v>
+        <v>2466.672365056078</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
@@ -1331,8 +1371,12 @@
       <c r="M12" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
@@ -1344,11 +1388,11 @@
         <v>0.15</v>
       </c>
       <c r="V12" t="n">
-        <v>633.5348857109609</v>
+        <v>633.9622162128776</v>
       </c>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="n">
-        <v>2447.716365104884</v>
+        <v>2466.351357482432</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
@@ -1401,8 +1445,12 @@
       <c r="M13" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -1414,11 +1462,11 @@
         <v>0.15</v>
       </c>
       <c r="V13" t="n">
-        <v>635.1837654378677</v>
+        <v>635.452693956644</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="n">
-        <v>2370.22445419492</v>
+        <v>2383.878881836467</v>
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
@@ -1471,8 +1519,12 @@
       <c r="M14" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
@@ -1484,11 +1536,11 @@
         <v>0.15</v>
       </c>
       <c r="V14" t="n">
-        <v>634.4332352093957</v>
+        <v>634.7138373613418</v>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="n">
-        <v>2379.371851760811</v>
+        <v>2393.415164370321</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
@@ -1541,8 +1593,12 @@
       <c r="M15" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -1554,11 +1610,11 @@
         <v>0.15</v>
       </c>
       <c r="V15" t="n">
-        <v>635.340365923449</v>
+        <v>635.6215329926274</v>
       </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="n">
-        <v>2379.430015160082</v>
+        <v>2393.497832683814</v>
       </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
@@ -1611,8 +1667,12 @@
       <c r="M16" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
@@ -1624,11 +1684,11 @@
         <v>0.15</v>
       </c>
       <c r="V16" t="n">
-        <v>634.7657844867285</v>
+        <v>635.0496530184774</v>
       </c>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="n">
-        <v>2380.153563323973</v>
+        <v>2394.320480810928</v>
       </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
@@ -1681,8 +1741,12 @@
       <c r="M17" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1694,11 +1758,11 @@
         <v>0.15</v>
       </c>
       <c r="V17" t="n">
-        <v>634.538177449299</v>
+        <v>634.821798990797</v>
       </c>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="n">
-        <v>2380.816559350114</v>
+        <v>2394.973083886904</v>
       </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
@@ -1751,8 +1815,12 @@
       <c r="M18" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1764,11 +1832,11 @@
         <v>0.15</v>
       </c>
       <c r="V18" t="n">
-        <v>633.6678180126517</v>
+        <v>633.9465804774914</v>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="n">
-        <v>2383.628535263889</v>
+        <v>2397.676817629119</v>
       </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
@@ -1821,8 +1889,12 @@
       <c r="M19" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
@@ -1834,11 +1906,11 @@
         <v>0.15</v>
       </c>
       <c r="V19" t="n">
-        <v>633.3678714489758</v>
+        <v>633.6544330703319</v>
       </c>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="n">
-        <v>2382.592302460034</v>
+        <v>2396.8436985836</v>
       </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
@@ -1891,8 +1963,12 @@
       <c r="M20" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -1904,11 +1980,11 @@
         <v>0.15</v>
       </c>
       <c r="V20" t="n">
-        <v>633.1470724161247</v>
+        <v>633.4327420520525</v>
       </c>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="n">
-        <v>2382.422175307485</v>
+        <v>2396.643627177641</v>
       </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
@@ -1961,8 +2037,12 @@
       <c r="M21" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
@@ -1974,11 +2054,11 @@
         <v>0.15</v>
       </c>
       <c r="V21" t="n">
-        <v>632.9053887614334</v>
+        <v>633.196336414444</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="n">
-        <v>2385.878419766239</v>
+        <v>2400.270289248982</v>
       </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -2035,8 +2115,12 @@
       <c r="M22" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -2048,11 +2132,11 @@
         <v>0.15</v>
       </c>
       <c r="V22" t="n">
-        <v>632.754077621296</v>
+        <v>633.0387087540299</v>
       </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="n">
-        <v>2381.668711676887</v>
+        <v>2395.857014184693</v>
       </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -2105,8 +2189,12 @@
       <c r="M23" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
@@ -2118,11 +2206,11 @@
         <v>0.15</v>
       </c>
       <c r="V23" t="n">
-        <v>632.6377160115826</v>
+        <v>632.9207628409927</v>
       </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="n">
-        <v>2380.911586451202</v>
+        <v>2395.046771956662</v>
       </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
@@ -2175,8 +2263,12 @@
       <c r="M24" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
@@ -2188,11 +2280,11 @@
         <v>0.15</v>
       </c>
       <c r="V24" t="n">
-        <v>632.5001724619711</v>
+        <v>632.7880960613921</v>
       </c>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="n">
-        <v>2383.322836183129</v>
+        <v>2397.618640354794</v>
       </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
@@ -8369,8 +8461,12 @@
       <c r="M99" t="n">
         <v>0.10064399</v>
       </c>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
+      <c r="N99" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O99" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="inlineStr"/>
@@ -8382,11 +8478,11 @@
         <v>0.15</v>
       </c>
       <c r="V99" t="n">
-        <v>645.0237798656349</v>
+        <v>645.2521958965946</v>
       </c>
       <c r="W99" t="inlineStr"/>
       <c r="X99" t="n">
-        <v>1391.484033619721</v>
+        <v>1403.376775216131</v>
       </c>
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
@@ -10963,7 +11059,7 @@
         <v>30</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1</v>
+        <v>0.10064399</v>
       </c>
       <c r="N130" t="n">
         <v>2298.4282</v>
@@ -10986,11 +11082,11 @@
         <v>0.15</v>
       </c>
       <c r="V130" t="n">
-        <v>634.3937278726986</v>
+        <v>634.2246841833756</v>
       </c>
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="n">
-        <v>2308.612427826132</v>
+        <v>2323.315750763967</v>
       </c>
       <c r="Y130" t="inlineStr">
         <is>
@@ -11035,7 +11131,11 @@
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Changed acid</t>
+        </is>
+      </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
         <v>25</v>
@@ -11047,7 +11147,7 @@
         <v>30</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N131" t="n">
         <v>2307.93134</v>
@@ -11066,11 +11166,11 @@
         <v>0.15</v>
       </c>
       <c r="V131" t="n">
-        <v>633.6210236035552</v>
+        <v>633.7770332864578</v>
       </c>
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="n">
-        <v>2236.973746918099</v>
+        <v>2224.019575309139</v>
       </c>
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr"/>
@@ -11123,7 +11223,7 @@
         <v>30</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N132" t="n">
         <v>2307.93134</v>
@@ -11146,11 +11246,11 @@
         <v>0.15</v>
       </c>
       <c r="V132" t="n">
-        <v>633.2174511296024</v>
+        <v>633.3744428106687</v>
       </c>
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="n">
-        <v>2285.720629155527</v>
+        <v>2272.512640315796</v>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
@@ -11209,7 +11309,7 @@
         <v>30</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N133" t="n">
         <v>2307.93134</v>
@@ -11232,11 +11332,11 @@
         <v>0.15</v>
       </c>
       <c r="V133" t="n">
-        <v>504.4537443571658</v>
+        <v>504.6129339234047</v>
       </c>
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="n">
-        <v>1073.959843373148</v>
+        <v>1067.898910274114</v>
       </c>
       <c r="Y133" t="inlineStr">
         <is>
@@ -11295,7 +11395,7 @@
         <v>30</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N134" t="n">
         <v>2307.93134</v>
@@ -11318,11 +11418,11 @@
         <v>0.15</v>
       </c>
       <c r="V134" t="n">
-        <v>503.9397735994521</v>
+        <v>504.0988791431593</v>
       </c>
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="n">
-        <v>1070.683347744557</v>
+        <v>1064.640038275165</v>
       </c>
       <c r="Y134" t="inlineStr">
         <is>
@@ -11381,7 +11481,7 @@
         <v>30</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N135" t="n">
         <v>2307.93134</v>
@@ -11404,11 +11504,11 @@
         <v>0.15</v>
       </c>
       <c r="V135" t="n">
-        <v>500.7935617642161</v>
+        <v>500.9529984021178</v>
       </c>
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="n">
-        <v>986.0913414838294</v>
+        <v>980.5603482394339</v>
       </c>
       <c r="Y135" t="inlineStr">
         <is>
@@ -11467,7 +11567,7 @@
         <v>30</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N136" t="n">
         <v>2307.93134</v>
@@ -11490,11 +11590,11 @@
         <v>0.15</v>
       </c>
       <c r="V136" t="n">
-        <v>500.8066221105654</v>
+        <v>500.9661058909217</v>
       </c>
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="n">
-        <v>985.972429877562</v>
+        <v>980.442051914487</v>
       </c>
       <c r="Y136" t="inlineStr">
         <is>
@@ -11553,7 +11653,7 @@
         <v>30</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N137" t="n">
         <v>2307.93134</v>
@@ -11576,11 +11676,11 @@
         <v>0.15</v>
       </c>
       <c r="V137" t="n">
-        <v>500.7189067300052</v>
+        <v>500.8783156571219</v>
       </c>
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="n">
-        <v>985.0212539126101</v>
+        <v>979.4959936801073</v>
       </c>
       <c r="Y137" t="inlineStr">
         <is>
@@ -11639,7 +11739,7 @@
         <v>30</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N138" t="n">
         <v>2307.93134</v>
@@ -11662,11 +11762,11 @@
         <v>0.15</v>
       </c>
       <c r="V138" t="n">
-        <v>500.5495763027372</v>
+        <v>500.7089739883689</v>
       </c>
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="n">
-        <v>982.9363256871889</v>
+        <v>977.4218377391977</v>
       </c>
       <c r="Y138" t="inlineStr">
         <is>
@@ -11725,7 +11825,7 @@
         <v>30</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N139" t="n">
         <v>2307.93134</v>
@@ -11748,11 +11848,11 @@
         <v>0.15</v>
       </c>
       <c r="V139" t="n">
-        <v>500.7254625911967</v>
+        <v>500.8849059659497</v>
       </c>
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="n">
-        <v>984.3353601636021</v>
+        <v>978.8137887708989</v>
       </c>
       <c r="Y139" t="inlineStr">
         <is>
@@ -11811,7 +11911,7 @@
         <v>30</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N140" t="n">
         <v>2307.93134</v>
@@ -11834,11 +11934,11 @@
         <v>0.15</v>
       </c>
       <c r="V140" t="n">
-        <v>500.8090574224468</v>
+        <v>500.9685627279631</v>
       </c>
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="n">
-        <v>985.9920074658587</v>
+        <v>980.4620803023258</v>
       </c>
       <c r="Y140" t="inlineStr">
         <is>
@@ -11897,7 +11997,7 @@
         <v>30</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N141" t="n">
         <v>2307.93134</v>
@@ -11920,11 +12020,11 @@
         <v>0.15</v>
       </c>
       <c r="V141" t="n">
-        <v>500.2168951883842</v>
+        <v>500.3762104535761</v>
       </c>
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="n">
-        <v>982.6803258489186</v>
+        <v>977.1665698339727</v>
       </c>
       <c r="Y141" t="inlineStr">
         <is>
@@ -11981,7 +12081,7 @@
         <v>30</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N142" t="n">
         <v>2307.93134</v>
@@ -12000,11 +12100,11 @@
         <v>0.15</v>
       </c>
       <c r="V142" t="n">
-        <v>500.7941415907201</v>
+        <v>500.9536143540992</v>
       </c>
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="n">
-        <v>985.0815228219559</v>
+        <v>979.5562310987581</v>
       </c>
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr"/>
@@ -12057,7 +12157,7 @@
         <v>30</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N143" t="n">
         <v>2307.93134</v>
@@ -12080,11 +12180,11 @@
         <v>0.15</v>
       </c>
       <c r="V143" t="n">
-        <v>500.509711752948</v>
+        <v>500.6691367526624</v>
       </c>
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="n">
-        <v>983.2226623632982</v>
+        <v>977.7073182453634</v>
       </c>
       <c r="Y143" t="inlineStr">
         <is>
@@ -12143,7 +12243,7 @@
         <v>30</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N144" t="n">
         <v>2307.93134</v>
@@ -12166,11 +12266,11 @@
         <v>0.15</v>
       </c>
       <c r="V144" t="n">
-        <v>500.4516706102745</v>
+        <v>500.6110809850979</v>
       </c>
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="n">
-        <v>983.0341628185079</v>
+        <v>977.5195590166869</v>
       </c>
       <c r="Y144" t="inlineStr">
         <is>
@@ -12229,7 +12329,7 @@
         <v>30</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N145" t="n">
         <v>2307.93134</v>
@@ -12252,11 +12352,11 @@
         <v>0.15</v>
       </c>
       <c r="V145" t="n">
-        <v>499.8420633268855</v>
+        <v>500.0013748479373</v>
       </c>
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="n">
-        <v>979.8331139951964</v>
+        <v>974.3349959046471</v>
       </c>
       <c r="Y145" t="inlineStr">
         <is>
@@ -12313,7 +12413,7 @@
         <v>30</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N146" t="n">
         <v>2291.5635</v>
@@ -12332,11 +12432,11 @@
         <v>0.15</v>
       </c>
       <c r="V146" t="n">
-        <v>632.8442001621556</v>
+        <v>632.9995294461995</v>
       </c>
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="n">
-        <v>2328.644669632294</v>
+        <v>2315.126080597622</v>
       </c>
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr"/>
@@ -12391,10 +12491,14 @@
         <v>30</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2300</v>
+      </c>
+      <c r="O147" t="n">
+        <v>2253.369376876533</v>
+      </c>
       <c r="P147" t="n">
         <v>1657.47881326588</v>
       </c>
@@ -12412,11 +12516,11 @@
         <v>0.15</v>
       </c>
       <c r="V147" t="n">
-        <v>632.9400574343822</v>
+        <v>633.3612780816218</v>
       </c>
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="n">
-        <v>2351.531150610976</v>
+        <v>2351.328264374004</v>
       </c>
       <c r="Y147" t="inlineStr">
         <is>
@@ -12477,7 +12581,7 @@
         <v>30</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N148" t="n">
         <v>2291.5635</v>
@@ -12502,11 +12606,11 @@
         <v>0.15</v>
       </c>
       <c r="V148" t="n">
-        <v>633.4572274939849</v>
+        <v>633.6124079751733</v>
       </c>
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="n">
-        <v>2326.936084589804</v>
+        <v>2313.426213785394</v>
       </c>
       <c r="Y148" t="inlineStr">
         <is>
@@ -12567,7 +12671,7 @@
         <v>30</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N149" t="n">
         <v>2291.5635</v>
@@ -12590,11 +12694,11 @@
         <v>0.15</v>
       </c>
       <c r="V149" t="n">
-        <v>634.0075762655831</v>
+        <v>634.1632029628281</v>
       </c>
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="n">
-        <v>2330.78031149364</v>
+        <v>2317.25743131946</v>
       </c>
       <c r="Y149" t="inlineStr">
         <is>
@@ -12655,7 +12759,7 @@
         <v>30</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N150" t="n">
         <v>2291.5635</v>
@@ -12678,11 +12782,11 @@
         <v>0.15</v>
       </c>
       <c r="V150" t="n">
-        <v>634.4570230717148</v>
+        <v>634.6168070204634</v>
       </c>
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="n">
-        <v>2328.751590586625</v>
+        <v>2315.303526982693</v>
       </c>
       <c r="Y150" t="inlineStr">
         <is>
@@ -12743,7 +12847,7 @@
         <v>30</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N151" t="n">
         <v>2291.5635</v>
@@ -12821,7 +12925,7 @@
         <v>30</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N152" t="n">
         <v>2291.5635</v>
@@ -12844,11 +12948,11 @@
         <v>0.15</v>
       </c>
       <c r="V152" t="n">
-        <v>501.7667854313758</v>
+        <v>501.9261350205527</v>
       </c>
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="n">
-        <v>983.090529082288</v>
+        <v>977.5735392304515</v>
       </c>
       <c r="Y152" t="inlineStr">
         <is>
@@ -12909,7 +13013,7 @@
         <v>30</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N153" t="n">
         <v>2291.5635</v>
@@ -12934,11 +13038,11 @@
         <v>0.15</v>
       </c>
       <c r="V153" t="n">
-        <v>473.9342643880318</v>
+        <v>476.1890427146625</v>
       </c>
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="n">
-        <v>453.5475547498963</v>
+        <v>514.4517365512932</v>
       </c>
       <c r="Y153" t="inlineStr">
         <is>
@@ -12999,7 +13103,7 @@
         <v>30</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N154" t="n">
         <v>2291.5635</v>
@@ -13024,11 +13128,11 @@
         <v>0.15</v>
       </c>
       <c r="V154" t="n">
-        <v>469.4628417475272</v>
+        <v>469.6206489295196</v>
       </c>
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="n">
-        <v>386.1788984525936</v>
+        <v>384.1290907305287</v>
       </c>
       <c r="Y154" t="inlineStr">
         <is>
@@ -13089,7 +13193,7 @@
         <v>30</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N155" t="n">
         <v>2291.5635</v>
@@ -13114,11 +13218,11 @@
         <v>0.15</v>
       </c>
       <c r="V155" t="n">
-        <v>460.5342373189995</v>
+        <v>460.6942366928713</v>
       </c>
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="n">
-        <v>233.0809691335462</v>
+        <v>231.9729455617691</v>
       </c>
       <c r="Y155" t="inlineStr">
         <is>
@@ -13179,7 +13283,7 @@
         <v>30</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N156" t="n">
         <v>2291.5635</v>
@@ -13204,11 +13308,11 @@
         <v>0.15</v>
       </c>
       <c r="V156" t="n">
-        <v>460.2853085054574</v>
+        <v>460.4452626176602</v>
       </c>
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="n">
-        <v>232.163723657151</v>
+        <v>231.0601329741264</v>
       </c>
       <c r="Y156" t="inlineStr">
         <is>
@@ -13269,7 +13373,7 @@
         <v>30</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N157" t="n">
         <v>2291.5635</v>
@@ -13294,11 +13398,11 @@
         <v>0.15</v>
       </c>
       <c r="V157" t="n">
-        <v>450.0118623614568</v>
+        <v>450.1786795766778</v>
       </c>
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="n">
-        <v>120.9041894982412</v>
+        <v>120.5042488561443</v>
       </c>
       <c r="Y157" t="inlineStr">
         <is>
@@ -13357,7 +13461,7 @@
         <v>30</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N158" t="n">
         <v>2291.5635</v>
@@ -13435,7 +13539,7 @@
         <v>30</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N159" t="n">
         <v>2291.5635</v>
@@ -13513,7 +13617,7 @@
         <v>30</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N160" t="n">
         <v>2291.5635</v>
@@ -13591,7 +13695,7 @@
         <v>30</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N161" t="n">
         <v>2291.5635</v>
@@ -13669,7 +13773,7 @@
         <v>30</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N162" t="n">
         <v>2288.21053</v>
@@ -13749,7 +13853,7 @@
         <v>30</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N163" t="n">
         <v>2288.21053</v>
@@ -13774,11 +13878,11 @@
         <v>0.15</v>
       </c>
       <c r="V163" t="n">
-        <v>632.869451356663</v>
+        <v>633.0246487091835</v>
       </c>
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="n">
-        <v>2322.916213909007</v>
+        <v>2309.428434169681</v>
       </c>
       <c r="Y163" t="inlineStr">
         <is>
@@ -13839,7 +13943,7 @@
         <v>30</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N164" t="n">
         <v>2288.21053</v>
@@ -13864,11 +13968,11 @@
         <v>0.15</v>
       </c>
       <c r="V164" t="n">
-        <v>632.6999261838428</v>
+        <v>632.855116505439</v>
       </c>
       <c r="W164" t="inlineStr"/>
       <c r="X164" t="n">
-        <v>2326.773847016402</v>
+        <v>2313.26494676189</v>
       </c>
       <c r="Y164" t="inlineStr">
         <is>
@@ -13929,7 +14033,7 @@
         <v>30</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N165" t="n">
         <v>2288.21053</v>
@@ -13954,11 +14058,11 @@
         <v>0.15</v>
       </c>
       <c r="V165" t="n">
-        <v>632.8327287090474</v>
+        <v>632.9896487084786</v>
       </c>
       <c r="W165" t="inlineStr"/>
       <c r="X165" t="n">
-        <v>2330.436533120588</v>
+        <v>2316.93856189907</v>
       </c>
       <c r="Y165" t="inlineStr">
         <is>
@@ -14019,7 +14123,7 @@
         <v>30</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N166" t="n">
         <v>2288.21053</v>
@@ -14042,11 +14146,11 @@
         <v>0.15</v>
       </c>
       <c r="V166" t="n">
-        <v>632.9545315650854</v>
+        <v>633.1167631126845</v>
       </c>
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="n">
-        <v>2329.929586462611</v>
+        <v>2316.50764939153</v>
       </c>
       <c r="Y166" t="inlineStr">
         <is>
@@ -14107,7 +14211,7 @@
         <v>30</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N167" t="n">
         <v>2288.21053</v>
@@ -14132,11 +14236,11 @@
         <v>0.15</v>
       </c>
       <c r="V167" t="n">
-        <v>632.7946626173489</v>
+        <v>632.9574253431342</v>
       </c>
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="n">
-        <v>2331.307921034786</v>
+        <v>2317.879819030617</v>
       </c>
       <c r="Y167" t="inlineStr">
         <is>
@@ -14197,7 +14301,7 @@
         <v>30</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N168" t="n">
         <v>2288.21053</v>
@@ -14277,7 +14381,7 @@
         <v>30</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N169" t="n">
         <v>2288.21053</v>
@@ -14302,11 +14406,11 @@
         <v>0.15</v>
       </c>
       <c r="V169" t="n">
-        <v>480.0838106903681</v>
+        <v>480.241590700791</v>
       </c>
       <c r="W169" t="inlineStr"/>
       <c r="X169" t="n">
-        <v>607.4821648510912</v>
+        <v>604.1385957315364</v>
       </c>
       <c r="Y169" t="inlineStr">
         <is>
@@ -14367,7 +14471,7 @@
         <v>30</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N170" t="n">
         <v>2288.21053</v>
@@ -14392,11 +14496,11 @@
         <v>0.15</v>
       </c>
       <c r="V170" t="n">
-        <v>468.4695602366198</v>
+        <v>468.6276335656235</v>
       </c>
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="n">
-        <v>396.4359335301526</v>
+        <v>394.3337312951194</v>
       </c>
       <c r="Y170" t="inlineStr">
         <is>
@@ -14457,7 +14561,7 @@
         <v>30</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N171" t="n">
         <v>2288.21053</v>
@@ -14482,11 +14586,11 @@
         <v>0.15</v>
       </c>
       <c r="V171" t="n">
-        <v>456.3797036736362</v>
+        <v>456.5408935692999</v>
       </c>
       <c r="W171" t="inlineStr"/>
       <c r="X171" t="n">
-        <v>207.7406271352196</v>
+        <v>206.7936700669532</v>
       </c>
       <c r="Y171" t="inlineStr">
         <is>
@@ -14547,7 +14651,7 @@
         <v>30</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N172" t="n">
         <v>2288.21053</v>
@@ -14572,11 +14676,11 @@
         <v>0.15</v>
       </c>
       <c r="V172" t="n">
-        <v>448.9600911573725</v>
+        <v>449.1276645869</v>
       </c>
       <c r="W172" t="inlineStr"/>
       <c r="X172" t="n">
-        <v>128.0750374466482</v>
+        <v>127.6417258849402</v>
       </c>
       <c r="Y172" t="inlineStr">
         <is>
@@ -14635,7 +14739,7 @@
         <v>30</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N173" t="n">
         <v>2288.21053</v>
@@ -14715,7 +14819,7 @@
         <v>30</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N174" t="n">
         <v>2288.48195</v>
@@ -14740,11 +14844,11 @@
         <v>0.15</v>
       </c>
       <c r="V174" t="n">
-        <v>632.7726155289313</v>
+        <v>632.9278206925246</v>
       </c>
       <c r="W174" t="inlineStr"/>
       <c r="X174" t="n">
-        <v>2329.034508571605</v>
+        <v>2315.51306534936</v>
       </c>
       <c r="Y174" t="inlineStr">
         <is>
@@ -14803,7 +14907,7 @@
         <v>30</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N175" t="n">
         <v>2288.48195</v>
@@ -14824,11 +14928,11 @@
         <v>0.15</v>
       </c>
       <c r="V175" t="n">
-        <v>632.6192088800406</v>
+        <v>632.7742013786296</v>
       </c>
       <c r="W175" t="inlineStr"/>
       <c r="X175" t="n">
-        <v>2325.938836142803</v>
+        <v>2312.433446610356</v>
       </c>
       <c r="Y175" t="inlineStr"/>
       <c r="Z175" t="inlineStr"/>
@@ -14883,7 +14987,7 @@
         <v>30</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N176" t="n">
         <v>2288.48195</v>
@@ -14908,11 +15012,11 @@
         <v>0.15</v>
       </c>
       <c r="V176" t="n">
-        <v>632.4989535560109</v>
+        <v>632.6542016750431</v>
       </c>
       <c r="W176" t="inlineStr"/>
       <c r="X176" t="n">
-        <v>2343.772374122413</v>
+        <v>2330.168975410972</v>
       </c>
       <c r="Y176" t="inlineStr">
         <is>
@@ -14973,7 +15077,7 @@
         <v>30</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N177" t="n">
         <v>2288.48195</v>
@@ -14998,11 +15102,11 @@
         <v>0.15</v>
       </c>
       <c r="V177" t="n">
-        <v>632.7877427093869</v>
+        <v>632.9429950339257</v>
       </c>
       <c r="W177" t="inlineStr"/>
       <c r="X177" t="n">
-        <v>2333.077389263123</v>
+        <v>2319.533571208465</v>
       </c>
       <c r="Y177" t="inlineStr">
         <is>
@@ -15063,7 +15167,7 @@
         <v>30</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N178" t="n">
         <v>2288.48195</v>
@@ -15088,11 +15192,11 @@
         <v>0.15</v>
       </c>
       <c r="V178" t="n">
-        <v>632.8018304433588</v>
+        <v>632.9574066137372</v>
       </c>
       <c r="W178" t="inlineStr"/>
       <c r="X178" t="n">
-        <v>2327.714090324474</v>
+        <v>2314.207890897164</v>
       </c>
       <c r="Y178" t="inlineStr">
         <is>
@@ -15153,7 +15257,7 @@
         <v>30</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N179" t="n">
         <v>2288.48195</v>
@@ -15178,11 +15282,11 @@
         <v>0.15</v>
       </c>
       <c r="V179" t="n">
-        <v>632.9339853834207</v>
+        <v>633.0921327834087</v>
       </c>
       <c r="W179" t="inlineStr"/>
       <c r="X179" t="n">
-        <v>2334.394990372165</v>
+        <v>2320.893049972128</v>
       </c>
       <c r="Y179" t="inlineStr">
         <is>
@@ -15243,7 +15347,7 @@
         <v>30</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N180" t="n">
         <v>2288.48195</v>
@@ -15268,11 +15372,11 @@
         <v>0.15</v>
       </c>
       <c r="V180" t="n">
-        <v>632.6313946941973</v>
+        <v>632.8239484202029</v>
       </c>
       <c r="W180" t="inlineStr"/>
       <c r="X180" t="n">
-        <v>2328.226854951474</v>
+        <v>2315.110209619299</v>
       </c>
       <c r="Y180" t="inlineStr">
         <is>
@@ -15333,7 +15437,7 @@
         <v>30</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N181" t="n">
         <v>2288.48195</v>
@@ -15413,7 +15517,7 @@
         <v>30</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N182" t="n">
         <v>2288.48195</v>
@@ -15438,11 +15542,11 @@
         <v>0.15</v>
       </c>
       <c r="V182" t="n">
-        <v>479.7227923388006</v>
+        <v>479.8805466750134</v>
       </c>
       <c r="W182" t="inlineStr"/>
       <c r="X182" t="n">
-        <v>608.7629273437472</v>
+        <v>605.4124652970717</v>
       </c>
       <c r="Y182" t="inlineStr">
         <is>
@@ -15503,7 +15607,7 @@
         <v>30</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N183" t="n">
         <v>2288.48195</v>
@@ -15528,11 +15632,11 @@
         <v>0.15</v>
       </c>
       <c r="V183" t="n">
-        <v>468.1848892251865</v>
+        <v>468.3430004014894</v>
       </c>
       <c r="W183" t="inlineStr"/>
       <c r="X183" t="n">
-        <v>397.5382149539446</v>
+        <v>395.430472344779</v>
       </c>
       <c r="Y183" t="inlineStr">
         <is>
@@ -15593,7 +15697,7 @@
         <v>30</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N184" t="n">
         <v>2288.48195</v>
@@ -15618,11 +15722,11 @@
         <v>0.15</v>
       </c>
       <c r="V184" t="n">
-        <v>464.3376768626982</v>
+        <v>464.495655024399</v>
       </c>
       <c r="W184" t="inlineStr"/>
       <c r="X184" t="n">
-        <v>339.4230453666229</v>
+        <v>337.6458267163661</v>
       </c>
       <c r="Y184" t="inlineStr">
         <is>
@@ -15683,7 +15787,7 @@
         <v>30</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N185" t="n">
         <v>2288.48195</v>
@@ -15708,11 +15812,11 @@
         <v>0.15</v>
       </c>
       <c r="V185" t="n">
-        <v>453.7504484176098</v>
+        <v>453.9132329059105</v>
       </c>
       <c r="W185" t="inlineStr"/>
       <c r="X185" t="n">
-        <v>181.6129806776368</v>
+        <v>180.8322431224535</v>
       </c>
       <c r="Y185" t="inlineStr">
         <is>
@@ -15771,7 +15875,7 @@
         <v>30</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N186" t="n">
         <v>2275.0762</v>
@@ -15794,11 +15898,11 @@
         <v>0.15</v>
       </c>
       <c r="V186" t="n">
-        <v>451.0935871581739</v>
+        <v>451.2584130880655</v>
       </c>
       <c r="W186" t="inlineStr"/>
       <c r="X186" t="n">
-        <v>157.6064167575039</v>
+        <v>156.9810041802711</v>
       </c>
       <c r="Y186" t="inlineStr"/>
       <c r="Z186" t="inlineStr"/>
@@ -15846,16 +15950,16 @@
         <v>170.4</v>
       </c>
       <c r="L187" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N187" t="n">
         <v>2277.91893</v>
       </c>
       <c r="O187" t="n">
-        <v>2231.735982551896</v>
+        <v>2221.803241187168</v>
       </c>
       <c r="P187" t="inlineStr"/>
       <c r="Q187" t="inlineStr"/>
@@ -15870,11 +15974,11 @@
         <v>0.15</v>
       </c>
       <c r="V187" t="n">
-        <v>632.484121320433</v>
+        <v>633.2280956385748</v>
       </c>
       <c r="W187" t="inlineStr"/>
       <c r="X187" t="n">
-        <v>2326.384020196097</v>
+        <v>2303.405340130683</v>
       </c>
       <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="inlineStr"/>
@@ -15922,16 +16026,16 @@
         <v>170.1</v>
       </c>
       <c r="L188" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N188" t="n">
         <v>2277.91893</v>
       </c>
       <c r="O188" t="n">
-        <v>2231.735982551896</v>
+        <v>2221.803241187168</v>
       </c>
       <c r="P188" t="inlineStr"/>
       <c r="Q188" t="inlineStr"/>
@@ -15946,11 +16050,11 @@
         <v>0.15</v>
       </c>
       <c r="V188" t="n">
-        <v>632.6491060690516</v>
+        <v>633.4000177679509</v>
       </c>
       <c r="W188" t="inlineStr"/>
       <c r="X188" t="n">
-        <v>2340.491555876876</v>
+        <v>2317.412901638651</v>
       </c>
       <c r="Y188" t="inlineStr"/>
       <c r="Z188" t="inlineStr"/>
@@ -16000,19 +16104,19 @@
         <v>170.1</v>
       </c>
       <c r="L189" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N189" t="n">
         <v>2277.91893</v>
       </c>
       <c r="O189" t="n">
-        <v>2231.735982551896</v>
+        <v>2221.803241187168</v>
       </c>
       <c r="P189" t="n">
-        <v>1634.477349539237</v>
+        <v>1627.248074974648</v>
       </c>
       <c r="Q189" t="n">
         <v>0</v>
@@ -16028,11 +16132,11 @@
         <v>0.15</v>
       </c>
       <c r="V189" t="n">
-        <v>632.6526469006324</v>
+        <v>633.4036175241314</v>
       </c>
       <c r="W189" t="inlineStr"/>
       <c r="X189" t="n">
-        <v>2341.31186181526</v>
+        <v>2318.226291624173</v>
       </c>
       <c r="Y189" t="inlineStr">
         <is>
@@ -16088,19 +16192,19 @@
         <v>169.8</v>
       </c>
       <c r="L190" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N190" t="n">
         <v>2277.91893</v>
       </c>
       <c r="O190" t="n">
-        <v>2231.735982551896</v>
+        <v>2221.803241187168</v>
       </c>
       <c r="P190" t="n">
-        <v>1649.867401229847</v>
+        <v>1642.571102457194</v>
       </c>
       <c r="Q190" t="n">
         <v>0</v>
@@ -16116,11 +16220,11 @@
         <v>0.15</v>
       </c>
       <c r="V190" t="n">
-        <v>632.6972900554819</v>
+        <v>633.450227929196</v>
       </c>
       <c r="W190" t="inlineStr"/>
       <c r="X190" t="n">
-        <v>2340.927069273149</v>
+        <v>2317.848013256718</v>
       </c>
       <c r="Y190" t="inlineStr">
         <is>
@@ -16176,19 +16280,19 @@
         <v>169.8</v>
       </c>
       <c r="L191" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N191" t="n">
         <v>2277.91893</v>
       </c>
       <c r="O191" t="n">
-        <v>2231.735982551896</v>
+        <v>2221.803241187168</v>
       </c>
       <c r="P191" t="n">
-        <v>428.3260416140587</v>
+        <v>426.4318319524855</v>
       </c>
       <c r="Q191" t="n">
         <v>45</v>
@@ -16202,11 +16306,11 @@
         <v>0.15</v>
       </c>
       <c r="V191" t="n">
-        <v>632.6440677677887</v>
+        <v>633.3971080471537</v>
       </c>
       <c r="W191" t="inlineStr"/>
       <c r="X191" t="n">
-        <v>2342.230478967424</v>
+        <v>2319.141535342247</v>
       </c>
       <c r="Y191" t="inlineStr">
         <is>
@@ -16262,19 +16366,19 @@
         <v>169.4</v>
       </c>
       <c r="L192" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N192" t="n">
         <v>2277.91893</v>
       </c>
       <c r="O192" t="n">
-        <v>2231.735982551896</v>
+        <v>2221.803241187168</v>
       </c>
       <c r="P192" t="n">
-        <v>1207.966802268195</v>
+        <v>1202.624744663914</v>
       </c>
       <c r="Q192" t="n">
         <v>10</v>
@@ -16290,11 +16394,11 @@
         <v>0.15</v>
       </c>
       <c r="V192" t="n">
-        <v>632.5095757165162</v>
+        <v>633.2628887943808</v>
       </c>
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="n">
-        <v>2345.873760949725</v>
+        <v>2322.757174987525</v>
       </c>
       <c r="Y192" t="inlineStr">
         <is>
@@ -16355,7 +16459,7 @@
         <v>30</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N193" t="n">
         <v>2275.0762</v>
@@ -16380,11 +16484,11 @@
         <v>0.15</v>
       </c>
       <c r="V193" t="n">
-        <v>632.3712489969566</v>
+        <v>632.5265008835449</v>
       </c>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="n">
-        <v>2329.830600823336</v>
+        <v>2316.303983870215</v>
       </c>
       <c r="Y193" t="inlineStr">
         <is>
@@ -16445,7 +16549,7 @@
         <v>30</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N194" t="n">
         <v>2275.0762</v>
@@ -16470,11 +16574,11 @@
         <v>0.15</v>
       </c>
       <c r="V194" t="n">
-        <v>450.8565174637555</v>
+        <v>451.021297061698</v>
       </c>
       <c r="W194" t="inlineStr"/>
       <c r="X194" t="n">
-        <v>156.2477491560901</v>
+        <v>155.6291687983923</v>
       </c>
       <c r="Y194" t="inlineStr">
         <is>
@@ -16533,7 +16637,7 @@
         <v>30</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N195" t="n">
         <v>2275.0762</v>
@@ -16613,7 +16717,7 @@
         <v>30</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N196" t="n">
         <v>2136.5814</v>
@@ -16638,11 +16742,11 @@
         <v>0.15</v>
       </c>
       <c r="V196" t="n">
-        <v>632.9365412561773</v>
+        <v>633.0915772993334</v>
       </c>
       <c r="W196" t="inlineStr"/>
       <c r="X196" t="n">
-        <v>2323.077101485004</v>
+        <v>2309.579395712658</v>
       </c>
       <c r="Y196" t="inlineStr">
         <is>
@@ -16699,7 +16803,7 @@
         <v>30</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N197" t="n">
         <v>2136.5814</v>
@@ -16720,11 +16824,11 @@
         <v>0.15</v>
       </c>
       <c r="V197" t="n">
-        <v>632.894176628424</v>
+        <v>633.0492126029492</v>
       </c>
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="n">
-        <v>2322.763541739836</v>
+        <v>2309.267685024699</v>
       </c>
       <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="inlineStr"/>
@@ -16777,7 +16881,7 @@
         <v>30</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N198" t="n">
         <v>2136.5814</v>
@@ -16802,11 +16906,11 @@
         <v>0.15</v>
       </c>
       <c r="V198" t="n">
-        <v>632.8549168976172</v>
+        <v>633.009955909552</v>
       </c>
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="n">
-        <v>2323.519930857054</v>
+        <v>2310.0197912519</v>
       </c>
       <c r="Y198" t="inlineStr">
         <is>
@@ -16860,16 +16964,16 @@
         <v>169.05</v>
       </c>
       <c r="L199" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N199" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O199" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P199" t="inlineStr"/>
       <c r="Q199" t="inlineStr"/>
@@ -16884,11 +16988,11 @@
         <v>0.15</v>
       </c>
       <c r="V199" t="n">
-        <v>632.1257866101417</v>
+        <v>632.8788419811023</v>
       </c>
       <c r="W199" t="inlineStr"/>
       <c r="X199" t="n">
-        <v>2341.790269265923</v>
+        <v>2318.70635693424</v>
       </c>
       <c r="Y199" t="inlineStr"/>
       <c r="Z199" t="inlineStr"/>
@@ -16936,16 +17040,16 @@
         <v>168.6</v>
       </c>
       <c r="L200" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N200" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O200" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P200" t="inlineStr"/>
       <c r="Q200" t="inlineStr"/>
@@ -16960,11 +17064,11 @@
         <v>0.15</v>
       </c>
       <c r="V200" t="n">
-        <v>631.8276763247973</v>
+        <v>632.5743495093798</v>
       </c>
       <c r="W200" t="inlineStr"/>
       <c r="X200" t="n">
-        <v>2337.294328082904</v>
+        <v>2314.232952273087</v>
       </c>
       <c r="Y200" t="inlineStr"/>
       <c r="Z200" t="inlineStr"/>
@@ -17016,19 +17120,19 @@
         <v>169.2</v>
       </c>
       <c r="L201" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N201" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O201" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P201" t="n">
-        <v>1643.422395996719</v>
+        <v>1636.15251142389</v>
       </c>
       <c r="Q201" t="n">
         <v>0</v>
@@ -17044,11 +17148,11 @@
         <v>0.15</v>
       </c>
       <c r="V201" t="n">
-        <v>631.9868130171122</v>
+        <v>632.7357964374866</v>
       </c>
       <c r="W201" t="inlineStr"/>
       <c r="X201" t="n">
-        <v>2341.239470945173</v>
+        <v>2318.151785014603</v>
       </c>
       <c r="Y201" t="inlineStr">
         <is>
@@ -17106,19 +17210,19 @@
         <v>169</v>
       </c>
       <c r="L202" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N202" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O202" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P202" t="n">
-        <v>1649.53095843753</v>
+        <v>1642.235101933495</v>
       </c>
       <c r="Q202" t="n">
         <v>0</v>
@@ -17134,11 +17238,11 @@
         <v>0.15</v>
       </c>
       <c r="V202" t="n">
-        <v>632.0108020853971</v>
+        <v>632.7617916329809</v>
       </c>
       <c r="W202" t="inlineStr"/>
       <c r="X202" t="n">
-        <v>2341.570695544227</v>
+        <v>2318.483451817269</v>
       </c>
       <c r="Y202" t="inlineStr">
         <is>
@@ -17196,19 +17300,19 @@
         <v>169.05</v>
       </c>
       <c r="L203" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N203" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O203" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P203" t="n">
-        <v>1912.246861385278</v>
+        <v>1903.7877981579</v>
       </c>
       <c r="Q203" t="n">
         <v>0</v>
@@ -17276,19 +17380,19 @@
         <v>169.05</v>
       </c>
       <c r="L204" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N204" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O204" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P204" t="n">
-        <v>1734.676113147092</v>
+        <v>1727.00366060065</v>
       </c>
       <c r="Q204" t="n">
         <v>0</v>
@@ -17304,11 +17408,11 @@
         <v>0.15</v>
       </c>
       <c r="V204" t="n">
-        <v>632.0887250094315</v>
+        <v>632.8431791558456</v>
       </c>
       <c r="W204" t="inlineStr"/>
       <c r="X204" t="n">
-        <v>2343.625560328844</v>
+        <v>2320.589143559756</v>
       </c>
       <c r="Y204" t="inlineStr">
         <is>
@@ -17366,19 +17470,19 @@
         <v>169.05</v>
       </c>
       <c r="L205" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N205" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O205" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P205" t="n">
-        <v>1816.91553156692</v>
+        <v>1808.879335016343</v>
       </c>
       <c r="Q205" t="n">
         <v>0</v>
@@ -17394,11 +17498,11 @@
         <v>0.15</v>
       </c>
       <c r="V205" t="n">
-        <v>632.2028917893332</v>
+        <v>632.9878935588798</v>
       </c>
       <c r="W205" t="inlineStr"/>
       <c r="X205" t="n">
-        <v>2345.086002420275</v>
+        <v>2322.489904366414</v>
       </c>
       <c r="Y205" t="inlineStr">
         <is>
@@ -17456,19 +17560,19 @@
         <v>169.05</v>
       </c>
       <c r="L206" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N206" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O206" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P206" t="n">
-        <v>1900.929816789523</v>
+        <v>1892.522026019306</v>
       </c>
       <c r="Q206" t="n">
         <v>0</v>
@@ -17536,19 +17640,19 @@
         <v>169.1</v>
       </c>
       <c r="L207" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N207" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O207" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P207" t="n">
-        <v>1978.841646223614</v>
+        <v>1970.090506669093</v>
       </c>
       <c r="Q207" t="n">
         <v>0</v>
@@ -17564,11 +17668,11 @@
         <v>0.15</v>
       </c>
       <c r="V207" t="n">
-        <v>478.295626652078</v>
+        <v>479.0724798270609</v>
       </c>
       <c r="W207" t="inlineStr"/>
       <c r="X207" t="n">
-        <v>604.6759790337227</v>
+        <v>599.8503584279074</v>
       </c>
       <c r="Y207" t="inlineStr">
         <is>
@@ -17624,19 +17728,19 @@
       </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N208" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O208" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P208" t="n">
-        <v>2218.540896994665</v>
+        <v>2208.729722344049</v>
       </c>
       <c r="Q208" t="n">
         <v>0</v>
@@ -17704,19 +17808,19 @@
         <v>169</v>
       </c>
       <c r="L209" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N209" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O209" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P209" t="n">
-        <v>2023.384885111508</v>
+        <v>2014.436759557394</v>
       </c>
       <c r="Q209" t="n">
         <v>0</v>
@@ -17732,11 +17836,11 @@
         <v>0.15</v>
       </c>
       <c r="V209" t="n">
-        <v>466.7479691542345</v>
+        <v>467.5284392690511</v>
       </c>
       <c r="W209" t="inlineStr"/>
       <c r="X209" t="n">
-        <v>397.2851324111811</v>
+        <v>394.6165401621311</v>
       </c>
       <c r="Y209" t="inlineStr">
         <is>
@@ -17794,19 +17898,19 @@
         <v>168.9</v>
       </c>
       <c r="L210" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N210" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O210" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P210" t="n">
-        <v>2093.282899526992</v>
+        <v>2084.025660163847</v>
       </c>
       <c r="Q210" t="n">
         <v>0</v>
@@ -17822,11 +17926,11 @@
         <v>0.15</v>
       </c>
       <c r="V210" t="n">
-        <v>460.0424194628239</v>
+        <v>460.8251094604238</v>
       </c>
       <c r="W210" t="inlineStr"/>
       <c r="X210" t="n">
-        <v>298.2450592388547</v>
+        <v>296.5279594123064</v>
       </c>
       <c r="Y210" t="inlineStr">
         <is>
@@ -17884,19 +17988,19 @@
         <v>168.8</v>
       </c>
       <c r="L211" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N211" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O211" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P211" t="n">
-        <v>2092.80464448265</v>
+        <v>2083.549520132924</v>
       </c>
       <c r="Q211" t="n">
         <v>0</v>
@@ -17912,11 +18016,11 @@
         <v>0.15</v>
       </c>
       <c r="V211" t="n">
-        <v>460.0022667848129</v>
+        <v>460.7847450799599</v>
       </c>
       <c r="W211" t="inlineStr"/>
       <c r="X211" t="n">
-        <v>297.5773402014722</v>
+        <v>295.8624488289615</v>
       </c>
       <c r="Y211" t="inlineStr">
         <is>
@@ -17974,19 +18078,19 @@
         <v>168.8</v>
       </c>
       <c r="L212" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N212" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O212" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P212" t="n">
-        <v>1667.335088031917</v>
+        <v>1659.961540953321</v>
       </c>
       <c r="Q212" t="n">
         <v>0</v>
@@ -18002,11 +18106,11 @@
         <v>0.15</v>
       </c>
       <c r="V212" t="n">
-        <v>632.0229841733723</v>
+        <v>632.7761317803452</v>
       </c>
       <c r="W212" t="inlineStr"/>
       <c r="X212" t="n">
-        <v>2342.975672042624</v>
+        <v>2319.882785646972</v>
       </c>
       <c r="Y212" t="inlineStr">
         <is>
@@ -18064,19 +18168,19 @@
         <v>169.1</v>
       </c>
       <c r="L213" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N213" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O213" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P213" t="n">
-        <v>2034.038026032577</v>
+        <v>2025.04278851118</v>
       </c>
       <c r="Q213" t="n">
         <v>0</v>
@@ -18092,11 +18196,11 @@
         <v>0.15</v>
       </c>
       <c r="V213" t="n">
-        <v>466.9692318558173</v>
+        <v>467.75005159544</v>
       </c>
       <c r="W213" t="inlineStr"/>
       <c r="X213" t="n">
-        <v>398.6004217568531</v>
+        <v>395.9270798663622</v>
       </c>
       <c r="Y213" t="inlineStr">
         <is>
@@ -18154,19 +18258,19 @@
         <v>168.85</v>
       </c>
       <c r="L214" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N214" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O214" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P214" t="n">
-        <v>2120.77756231923</v>
+        <v>2111.398731806253</v>
       </c>
       <c r="Q214" t="n">
         <v>0</v>
@@ -18182,11 +18286,11 @@
         <v>0.15</v>
       </c>
       <c r="V214" t="n">
-        <v>457.6072355170838</v>
+        <v>458.3936547657337</v>
       </c>
       <c r="W214" t="inlineStr"/>
       <c r="X214" t="n">
-        <v>261.873987430661</v>
+        <v>260.5489528786791</v>
       </c>
       <c r="Y214" t="inlineStr">
         <is>
@@ -18244,19 +18348,19 @@
         <v>168.8</v>
       </c>
       <c r="L215" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N215" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O215" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P215" t="n">
-        <v>2135.587971504131</v>
+        <v>2126.143644109236</v>
       </c>
       <c r="Q215" t="n">
         <v>0</v>
@@ -18272,11 +18376,11 @@
         <v>0.15</v>
       </c>
       <c r="V215" t="n">
-        <v>452.8713867818221</v>
+        <v>453.6876134597562</v>
       </c>
       <c r="W215" t="inlineStr"/>
       <c r="X215" t="n">
-        <v>191.5025266160636</v>
+        <v>191.4016767854604</v>
       </c>
       <c r="Y215" t="inlineStr">
         <is>
@@ -18334,19 +18438,19 @@
         <v>168.85</v>
       </c>
       <c r="L216" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N216" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O216" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P216" t="n">
-        <v>2150.427903816256</v>
+        <v>2140.917948977705</v>
       </c>
       <c r="Q216" t="n">
         <v>0</v>
@@ -18362,11 +18466,11 @@
         <v>0.15</v>
       </c>
       <c r="V216" t="n">
-        <v>450.4401190479281</v>
+        <v>451.2712138003005</v>
       </c>
       <c r="W216" t="inlineStr"/>
       <c r="X216" t="n">
-        <v>166.2743557255961</v>
+        <v>166.5369005081286</v>
       </c>
       <c r="Y216" t="inlineStr">
         <is>
@@ -18424,19 +18528,19 @@
         <v>168.85</v>
       </c>
       <c r="L217" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N217" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O217" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P217" t="n">
-        <v>2167.386046944135</v>
+        <v>2157.801097182477</v>
       </c>
       <c r="Q217" t="n">
         <v>0</v>
@@ -18452,11 +18556,11 @@
         <v>0.15</v>
       </c>
       <c r="V217" t="n">
-        <v>448.1690152789324</v>
+        <v>449.0286141902951</v>
       </c>
       <c r="W217" t="inlineStr"/>
       <c r="X217" t="n">
-        <v>147.6597273693362</v>
+        <v>148.3307615178482</v>
       </c>
       <c r="Y217" t="inlineStr">
         <is>
@@ -18514,19 +18618,19 @@
         <v>168.95</v>
       </c>
       <c r="L218" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N218" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O218" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P218" t="n">
-        <v>2180.998717691579</v>
+        <v>2171.352185385914</v>
       </c>
       <c r="Q218" t="n">
         <v>0</v>
@@ -18542,11 +18646,11 @@
         <v>0.15</v>
       </c>
       <c r="V218" t="n">
-        <v>442.9953972357006</v>
+        <v>444.1356828095857</v>
       </c>
       <c r="W218" t="inlineStr"/>
       <c r="X218" t="n">
-        <v>104.0215357302699</v>
+        <v>107.4977841043642</v>
       </c>
       <c r="Y218" t="inlineStr">
         <is>
@@ -18604,19 +18708,19 @@
         <v>168.9</v>
       </c>
       <c r="L219" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N219" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O219" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P219" t="n">
-        <v>2194.021502825141</v>
+        <v>2184.320146465373</v>
       </c>
       <c r="Q219" t="n">
         <v>0</v>
@@ -18632,11 +18736,11 @@
         <v>0.15</v>
       </c>
       <c r="V219" t="n">
-        <v>409.8651309646623</v>
+        <v>410.1302282406378</v>
       </c>
       <c r="W219" t="inlineStr"/>
       <c r="X219" t="n">
-        <v>-143.0517175750369</v>
+        <v>-146.8005484800752</v>
       </c>
       <c r="Y219" t="inlineStr">
         <is>
@@ -18692,19 +18796,19 @@
       </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N220" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O220" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P220" t="n">
-        <v>2205.826139425312</v>
+        <v>2196.071193941949</v>
       </c>
       <c r="Q220" t="n">
         <v>0</v>
@@ -18770,19 +18874,19 @@
       </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N221" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O221" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P221" t="n">
-        <v>2212.972207465845</v>
+        <v>2203.185659535258</v>
       </c>
       <c r="Q221" t="n">
         <v>0</v>
@@ -18856,19 +18960,19 @@
         <v>168.9</v>
       </c>
       <c r="L222" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1</v>
+        <v>0.09941273106262059</v>
       </c>
       <c r="N222" t="n">
         <v>2277.01187</v>
       </c>
       <c r="O222" t="n">
-        <v>2230.847312453204</v>
+        <v>2220.918526274179</v>
       </c>
       <c r="P222" t="n">
-        <v>1692.346571382479</v>
+        <v>1684.8624146542</v>
       </c>
       <c r="Q222" t="n">
         <v>0</v>
@@ -18884,11 +18988,11 @@
         <v>0.15</v>
       </c>
       <c r="V222" t="n">
-        <v>632.380768668969</v>
+        <v>633.1339634075994</v>
       </c>
       <c r="W222" t="inlineStr"/>
       <c r="X222" t="n">
-        <v>2344.372387972845</v>
+        <v>2321.267139017995</v>
       </c>
       <c r="Y222" t="inlineStr">
         <is>
@@ -18911,6 +19015,5996 @@
         <v>2338.003306988373</v>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" t="inlineStr"/>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251103-01-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>1</v>
+      </c>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="K223" t="n">
+        <v>168.05</v>
+      </c>
+      <c r="L223" t="n">
+        <v>36</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N223" t="n">
+        <v>2263.9175</v>
+      </c>
+      <c r="O223" t="n">
+        <v>2208.146731227328</v>
+      </c>
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
+      <c r="R223" t="n">
+        <v>603</v>
+      </c>
+      <c r="S223" t="inlineStr"/>
+      <c r="T223" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U223" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V223" t="n">
+        <v>633.6307505138972</v>
+      </c>
+      <c r="W223" t="inlineStr"/>
+      <c r="X223" t="n">
+        <v>2259.934690655305</v>
+      </c>
+      <c r="Y223" t="inlineStr"/>
+      <c r="Z223" t="inlineStr"/>
+      <c r="AA223" t="inlineStr"/>
+      <c r="AB223" t="inlineStr"/>
+      <c r="AC223" t="inlineStr"/>
+      <c r="AD223" t="inlineStr"/>
+      <c r="AE223" t="inlineStr"/>
+      <c r="AF223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr"/>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251103-02-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>2</v>
+      </c>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="K224" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="L224" t="n">
+        <v>36</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N224" t="n">
+        <v>2263.9175</v>
+      </c>
+      <c r="O224" t="n">
+        <v>2208.146731227328</v>
+      </c>
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
+      <c r="T224" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U224" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V224" t="n">
+        <v>633.6216018817646</v>
+      </c>
+      <c r="W224" t="inlineStr"/>
+      <c r="X224" t="n">
+        <v>2302.106487749775</v>
+      </c>
+      <c r="Y224" t="inlineStr"/>
+      <c r="Z224" t="inlineStr"/>
+      <c r="AA224" t="inlineStr"/>
+      <c r="AB224" t="inlineStr"/>
+      <c r="AC224" t="inlineStr"/>
+      <c r="AD224" t="inlineStr"/>
+      <c r="AE224" t="inlineStr"/>
+      <c r="AF224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr"/>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251103-03-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>3</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" t="n">
+        <v>313</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K225" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="L225" t="n">
+        <v>36</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N225" t="n">
+        <v>2263.9175</v>
+      </c>
+      <c r="O225" t="n">
+        <v>2208.146731227328</v>
+      </c>
+      <c r="P225" t="n">
+        <v>1648.281071743037</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
+      <c r="R225" t="n">
+        <v>649</v>
+      </c>
+      <c r="S225" t="inlineStr"/>
+      <c r="T225" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U225" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V225" t="n">
+        <v>633.7193080909304</v>
+      </c>
+      <c r="W225" t="inlineStr"/>
+      <c r="X225" t="n">
+        <v>2315.187997427632</v>
+      </c>
+      <c r="Y225" t="inlineStr">
+        <is>
+          <t>co2data 03-11 (6).txt</t>
+        </is>
+      </c>
+      <c r="Z225" t="inlineStr"/>
+      <c r="AA225" t="inlineStr"/>
+      <c r="AB225" t="n">
+        <v>1687.9022</v>
+      </c>
+      <c r="AC225" t="inlineStr"/>
+      <c r="AD225" t="inlineStr"/>
+      <c r="AE225" t="inlineStr"/>
+      <c r="AF225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr"/>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251103-04-3_0mL-3_0incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>4</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>315</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>36</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N226" t="n">
+        <v>2263.9175</v>
+      </c>
+      <c r="O226" t="n">
+        <v>2208.146731227328</v>
+      </c>
+      <c r="P226" t="n">
+        <v>504.4258422866523</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>52</v>
+      </c>
+      <c r="R226" t="n">
+        <v>37</v>
+      </c>
+      <c r="S226" t="inlineStr"/>
+      <c r="T226" t="n">
+        <v>3</v>
+      </c>
+      <c r="U226" t="n">
+        <v>3</v>
+      </c>
+      <c r="V226" t="inlineStr"/>
+      <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
+      <c r="Y226" t="inlineStr">
+        <is>
+          <t>co2data 03-11 (8).txt</t>
+        </is>
+      </c>
+      <c r="Z226" t="inlineStr"/>
+      <c r="AA226" t="inlineStr"/>
+      <c r="AB226" t="n">
+        <v>516.5974</v>
+      </c>
+      <c r="AC226" t="inlineStr"/>
+      <c r="AD226" t="inlineStr"/>
+      <c r="AE226" t="inlineStr"/>
+      <c r="AF226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr"/>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251103-05-3_0mL-3_0incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>5</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="n">
+        <v>316</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>36</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N227" t="n">
+        <v>2263.9175</v>
+      </c>
+      <c r="O227" t="n">
+        <v>2208.146731227328</v>
+      </c>
+      <c r="P227" t="n">
+        <v>1997.804226085277</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
+      <c r="R227" t="n">
+        <v>37</v>
+      </c>
+      <c r="S227" t="inlineStr"/>
+      <c r="T227" t="n">
+        <v>3</v>
+      </c>
+      <c r="U227" t="n">
+        <v>3</v>
+      </c>
+      <c r="V227" t="inlineStr"/>
+      <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>co2data 03-11 (9).txt</t>
+        </is>
+      </c>
+      <c r="Z227" t="inlineStr"/>
+      <c r="AA227" t="inlineStr"/>
+      <c r="AB227" t="n">
+        <v>2046.0103</v>
+      </c>
+      <c r="AC227" t="inlineStr"/>
+      <c r="AD227" t="inlineStr"/>
+      <c r="AE227" t="inlineStr"/>
+      <c r="AF227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr"/>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251103-06-3_0mL-3_0incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>6</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1</v>
+      </c>
+      <c r="G228" t="n">
+        <v>317</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>36</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N228" t="n">
+        <v>2263.9175</v>
+      </c>
+      <c r="O228" t="n">
+        <v>2208.146731227328</v>
+      </c>
+      <c r="P228" t="n">
+        <v>1515.523629463284</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>10</v>
+      </c>
+      <c r="R228" t="n">
+        <v>37</v>
+      </c>
+      <c r="S228" t="inlineStr"/>
+      <c r="T228" t="n">
+        <v>3</v>
+      </c>
+      <c r="U228" t="n">
+        <v>3</v>
+      </c>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
+      <c r="Y228" t="inlineStr">
+        <is>
+          <t>co2data 03-11 (10).txt</t>
+        </is>
+      </c>
+      <c r="Z228" t="inlineStr"/>
+      <c r="AA228" t="inlineStr"/>
+      <c r="AB228" t="n">
+        <v>1552.0925</v>
+      </c>
+      <c r="AC228" t="inlineStr"/>
+      <c r="AD228" t="inlineStr"/>
+      <c r="AE228" t="inlineStr"/>
+      <c r="AF228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr"/>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251103-07-3_0mL-3_0incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>7</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1</v>
+      </c>
+      <c r="G229" t="n">
+        <v>318</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>25</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>36</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N229" t="n">
+        <v>2263.9175</v>
+      </c>
+      <c r="O229" t="n">
+        <v>2208.146731227328</v>
+      </c>
+      <c r="P229" t="n">
+        <v>1796.630031535462</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>4</v>
+      </c>
+      <c r="R229" t="n">
+        <v>37</v>
+      </c>
+      <c r="S229" t="inlineStr"/>
+      <c r="T229" t="n">
+        <v>3</v>
+      </c>
+      <c r="U229" t="n">
+        <v>3</v>
+      </c>
+      <c r="V229" t="inlineStr"/>
+      <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr"/>
+      <c r="Y229" t="inlineStr">
+        <is>
+          <t>co2data 03-11 (11).txt</t>
+        </is>
+      </c>
+      <c r="Z229" t="inlineStr"/>
+      <c r="AA229" t="inlineStr"/>
+      <c r="AB229" t="n">
+        <v>1839.9271</v>
+      </c>
+      <c r="AC229" t="inlineStr"/>
+      <c r="AD229" t="inlineStr"/>
+      <c r="AE229" t="inlineStr"/>
+      <c r="AF229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr"/>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251103-08-3_0mL-3_0incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>8</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1</v>
+      </c>
+      <c r="G230" t="n">
+        <v>319</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>25</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>36</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N230" t="n">
+        <v>2263.9175</v>
+      </c>
+      <c r="O230" t="n">
+        <v>2208.146731227328</v>
+      </c>
+      <c r="P230" t="n">
+        <v>1741.377367975907</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R230" t="n">
+        <v>37</v>
+      </c>
+      <c r="S230" t="inlineStr"/>
+      <c r="T230" t="n">
+        <v>3</v>
+      </c>
+      <c r="U230" t="n">
+        <v>3</v>
+      </c>
+      <c r="V230" t="inlineStr"/>
+      <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr"/>
+      <c r="Y230" t="inlineStr">
+        <is>
+          <t>co2data 03-11 (12).txt</t>
+        </is>
+      </c>
+      <c r="Z230" t="inlineStr"/>
+      <c r="AA230" t="inlineStr"/>
+      <c r="AB230" t="n">
+        <v>1783.3429</v>
+      </c>
+      <c r="AC230" t="inlineStr"/>
+      <c r="AD230" t="inlineStr"/>
+      <c r="AE230" t="inlineStr"/>
+      <c r="AF230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr"/>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251103-09-3_0mL-3_0incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>9</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
+      <c r="G231" t="n">
+        <v>320</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>36</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N231" t="n">
+        <v>2263.9175</v>
+      </c>
+      <c r="O231" t="n">
+        <v>2208.146731227328</v>
+      </c>
+      <c r="P231" t="n">
+        <v>811.1226576371089</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>32</v>
+      </c>
+      <c r="R231" t="n">
+        <v>37</v>
+      </c>
+      <c r="S231" t="inlineStr"/>
+      <c r="T231" t="n">
+        <v>3</v>
+      </c>
+      <c r="U231" t="n">
+        <v>3</v>
+      </c>
+      <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
+      <c r="Y231" t="inlineStr">
+        <is>
+          <t>co2data 03-11 (13).txt</t>
+        </is>
+      </c>
+      <c r="Z231" t="inlineStr"/>
+      <c r="AA231" t="inlineStr"/>
+      <c r="AB231" t="n">
+        <v>830.6203</v>
+      </c>
+      <c r="AC231" t="inlineStr"/>
+      <c r="AD231" t="inlineStr"/>
+      <c r="AE231" t="inlineStr"/>
+      <c r="AF231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr"/>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251103-10-3_0mL-3_0incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>10</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1</v>
+      </c>
+      <c r="G232" t="n">
+        <v>321</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>36</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N232" t="n">
+        <v>2263.9175</v>
+      </c>
+      <c r="O232" t="n">
+        <v>2208.146731227328</v>
+      </c>
+      <c r="P232" t="n">
+        <v>1137.758143788037</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>22</v>
+      </c>
+      <c r="R232" t="n">
+        <v>37</v>
+      </c>
+      <c r="S232" t="inlineStr"/>
+      <c r="T232" t="n">
+        <v>3</v>
+      </c>
+      <c r="U232" t="n">
+        <v>3</v>
+      </c>
+      <c r="V232" t="inlineStr"/>
+      <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr"/>
+      <c r="Y232" t="inlineStr">
+        <is>
+          <t>co2data 03-11 (14).txt</t>
+        </is>
+      </c>
+      <c r="Z232" t="inlineStr"/>
+      <c r="AA232" t="inlineStr"/>
+      <c r="AB232" t="n">
+        <v>1165.1074</v>
+      </c>
+      <c r="AC232" t="inlineStr"/>
+      <c r="AD232" t="inlineStr"/>
+      <c r="AE232" t="inlineStr"/>
+      <c r="AF232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr"/>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251103-11-3_0mL-3_0incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>11</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1</v>
+      </c>
+      <c r="G233" t="n">
+        <v>322</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>36</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N233" t="n">
+        <v>2263.9175</v>
+      </c>
+      <c r="O233" t="n">
+        <v>2208.146731227328</v>
+      </c>
+      <c r="P233" t="n">
+        <v>1955.651449619586</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>1</v>
+      </c>
+      <c r="R233" t="n">
+        <v>37</v>
+      </c>
+      <c r="S233" t="inlineStr"/>
+      <c r="T233" t="n">
+        <v>3</v>
+      </c>
+      <c r="U233" t="n">
+        <v>3</v>
+      </c>
+      <c r="V233" t="inlineStr"/>
+      <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
+      <c r="Y233" t="inlineStr">
+        <is>
+          <t>co2data 03-11 (15).txt</t>
+        </is>
+      </c>
+      <c r="Z233" t="inlineStr"/>
+      <c r="AA233" t="inlineStr"/>
+      <c r="AB233" t="n">
+        <v>2002.6611</v>
+      </c>
+      <c r="AC233" t="inlineStr"/>
+      <c r="AD233" t="inlineStr"/>
+      <c r="AE233" t="inlineStr"/>
+      <c r="AF233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr"/>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251103-12-3_0mL-3_0incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>12</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1</v>
+      </c>
+      <c r="G234" t="n">
+        <v>323</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>36</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N234" t="n">
+        <v>2263.9175</v>
+      </c>
+      <c r="O234" t="n">
+        <v>2208.146731227328</v>
+      </c>
+      <c r="P234" t="n">
+        <v>1904.828523346703</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>2</v>
+      </c>
+      <c r="R234" t="n">
+        <v>37</v>
+      </c>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="n">
+        <v>3</v>
+      </c>
+      <c r="U234" t="n">
+        <v>3</v>
+      </c>
+      <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
+      <c r="Y234" t="inlineStr">
+        <is>
+          <t>co2data 03-11 (16).txt</t>
+        </is>
+      </c>
+      <c r="Z234" t="inlineStr"/>
+      <c r="AA234" t="inlineStr"/>
+      <c r="AB234" t="n">
+        <v>1950.6165</v>
+      </c>
+      <c r="AC234" t="inlineStr"/>
+      <c r="AD234" t="inlineStr"/>
+      <c r="AE234" t="inlineStr"/>
+      <c r="AF234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr"/>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251103-13-3_0mL-3_0incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>13</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1</v>
+      </c>
+      <c r="G235" t="n">
+        <v>324</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>36</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N235" t="n">
+        <v>2263.9175</v>
+      </c>
+      <c r="O235" t="n">
+        <v>2208.146731227328</v>
+      </c>
+      <c r="P235" t="n">
+        <v>1931.553609806646</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R235" t="n">
+        <v>37</v>
+      </c>
+      <c r="S235" t="inlineStr"/>
+      <c r="T235" t="n">
+        <v>3</v>
+      </c>
+      <c r="U235" t="n">
+        <v>3</v>
+      </c>
+      <c r="V235" t="inlineStr"/>
+      <c r="W235" t="inlineStr"/>
+      <c r="X235" t="inlineStr"/>
+      <c r="Y235" t="inlineStr">
+        <is>
+          <t>co2data 03-11 (17).txt</t>
+        </is>
+      </c>
+      <c r="Z235" t="inlineStr"/>
+      <c r="AA235" t="inlineStr"/>
+      <c r="AB235" t="n">
+        <v>1977.984</v>
+      </c>
+      <c r="AC235" t="inlineStr"/>
+      <c r="AD235" t="inlineStr"/>
+      <c r="AE235" t="inlineStr"/>
+      <c r="AF235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr"/>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251103-14-3_0mL-3_0incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>14</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G236" t="n">
+        <v>325</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>36</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N236" t="n">
+        <v>2263.9175</v>
+      </c>
+      <c r="O236" t="n">
+        <v>2208.146731227328</v>
+      </c>
+      <c r="P236" t="n">
+        <v>2009.907842741585</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R236" t="n">
+        <v>37</v>
+      </c>
+      <c r="S236" t="inlineStr"/>
+      <c r="T236" t="n">
+        <v>3</v>
+      </c>
+      <c r="U236" t="n">
+        <v>3</v>
+      </c>
+      <c r="V236" t="inlineStr"/>
+      <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr"/>
+      <c r="Y236" t="inlineStr">
+        <is>
+          <t>co2data 03-11 (18).txt</t>
+        </is>
+      </c>
+      <c r="Z236" t="inlineStr"/>
+      <c r="AA236" t="inlineStr"/>
+      <c r="AB236" t="n">
+        <v>2058.2217</v>
+      </c>
+      <c r="AC236" t="inlineStr"/>
+      <c r="AD236" t="inlineStr"/>
+      <c r="AE236" t="inlineStr"/>
+      <c r="AF236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr"/>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251104-01-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>1</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K237" t="n">
+        <v>168.25</v>
+      </c>
+      <c r="L237" t="n">
+        <v>36</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N237" t="n">
+        <v>2249.61052</v>
+      </c>
+      <c r="O237" t="n">
+        <v>2194.192198378522</v>
+      </c>
+      <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr"/>
+      <c r="R237" t="n">
+        <v>610</v>
+      </c>
+      <c r="S237" t="inlineStr"/>
+      <c r="T237" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U237" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V237" t="n">
+        <v>634.0915756127856</v>
+      </c>
+      <c r="W237" t="inlineStr"/>
+      <c r="X237" t="n">
+        <v>2324.143787574412</v>
+      </c>
+      <c r="Y237" t="inlineStr"/>
+      <c r="Z237" t="inlineStr"/>
+      <c r="AA237" t="inlineStr"/>
+      <c r="AB237" t="inlineStr"/>
+      <c r="AC237" t="inlineStr"/>
+      <c r="AD237" t="inlineStr"/>
+      <c r="AE237" t="inlineStr"/>
+      <c r="AF237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr"/>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251104-02-1_65mL-1_65incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>2</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" t="n">
+        <v>331</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>36</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N238" t="n">
+        <v>2249.61052</v>
+      </c>
+      <c r="O238" t="n">
+        <v>2194.192198378522</v>
+      </c>
+      <c r="P238" t="n">
+        <v>891.4475208625811</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>65</v>
+      </c>
+      <c r="R238" t="n">
+        <v>20</v>
+      </c>
+      <c r="S238" t="inlineStr"/>
+      <c r="T238" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U238" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V238" t="inlineStr"/>
+      <c r="W238" t="inlineStr"/>
+      <c r="X238" t="inlineStr"/>
+      <c r="Y238" t="inlineStr">
+        <is>
+          <t>co2data 04-11 (6).txt</t>
+        </is>
+      </c>
+      <c r="Z238" t="inlineStr"/>
+      <c r="AA238" t="inlineStr"/>
+      <c r="AB238" t="n">
+        <v>912.876</v>
+      </c>
+      <c r="AC238" t="inlineStr"/>
+      <c r="AD238" t="inlineStr"/>
+      <c r="AE238" t="inlineStr"/>
+      <c r="AF238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr"/>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251104-03-1_65mL-1_65incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>3</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1</v>
+      </c>
+      <c r="G239" t="n">
+        <v>332</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>36</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N239" t="n">
+        <v>2249.61052</v>
+      </c>
+      <c r="O239" t="n">
+        <v>2194.192198378522</v>
+      </c>
+      <c r="P239" t="n">
+        <v>1147.096861129179</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>38</v>
+      </c>
+      <c r="R239" t="n">
+        <v>20</v>
+      </c>
+      <c r="S239" t="inlineStr"/>
+      <c r="T239" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U239" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V239" t="inlineStr"/>
+      <c r="W239" t="inlineStr"/>
+      <c r="X239" t="inlineStr"/>
+      <c r="Y239" t="inlineStr">
+        <is>
+          <t>co2data 04-11 (7).txt</t>
+        </is>
+      </c>
+      <c r="Z239" t="inlineStr"/>
+      <c r="AA239" t="inlineStr"/>
+      <c r="AB239" t="n">
+        <v>1174.6706</v>
+      </c>
+      <c r="AC239" t="inlineStr"/>
+      <c r="AD239" t="inlineStr"/>
+      <c r="AE239" t="inlineStr"/>
+      <c r="AF239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr"/>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251104-04-4_2mL-4_2incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>4</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1</v>
+      </c>
+      <c r="G240" t="n">
+        <v>333</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>36</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N240" t="n">
+        <v>2249.61052</v>
+      </c>
+      <c r="O240" t="n">
+        <v>2194.192198378522</v>
+      </c>
+      <c r="P240" t="n">
+        <v>271.1046284143728</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>76</v>
+      </c>
+      <c r="R240" t="n">
+        <v>50</v>
+      </c>
+      <c r="S240" t="inlineStr"/>
+      <c r="T240" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U240" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V240" t="inlineStr"/>
+      <c r="W240" t="inlineStr"/>
+      <c r="X240" t="inlineStr"/>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>co2data 04-11 (8).txt</t>
+        </is>
+      </c>
+      <c r="Z240" t="inlineStr"/>
+      <c r="AA240" t="inlineStr"/>
+      <c r="AB240" t="n">
+        <v>277.6214</v>
+      </c>
+      <c r="AC240" t="inlineStr"/>
+      <c r="AD240" t="inlineStr"/>
+      <c r="AE240" t="inlineStr"/>
+      <c r="AF240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr"/>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251104-05-1_65mL-1_65incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>5</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1</v>
+      </c>
+      <c r="G241" t="n">
+        <v>334</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>36</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N241" t="n">
+        <v>2249.61052</v>
+      </c>
+      <c r="O241" t="n">
+        <v>2194.192198378522</v>
+      </c>
+      <c r="P241" t="n">
+        <v>1544.634707198665</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>15</v>
+      </c>
+      <c r="R241" t="n">
+        <v>20</v>
+      </c>
+      <c r="S241" t="inlineStr"/>
+      <c r="T241" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U241" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V241" t="inlineStr"/>
+      <c r="W241" t="inlineStr"/>
+      <c r="X241" t="inlineStr"/>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>co2data 04-11 (9).txt</t>
+        </is>
+      </c>
+      <c r="Z241" t="inlineStr"/>
+      <c r="AA241" t="inlineStr"/>
+      <c r="AB241" t="n">
+        <v>1581.7644</v>
+      </c>
+      <c r="AC241" t="inlineStr"/>
+      <c r="AD241" t="inlineStr"/>
+      <c r="AE241" t="inlineStr"/>
+      <c r="AF241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr"/>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251104-06-1_65mL-1_65incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>6</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" t="n">
+        <v>335</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>36</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N242" t="n">
+        <v>2249.61052</v>
+      </c>
+      <c r="O242" t="n">
+        <v>2194.192198378522</v>
+      </c>
+      <c r="P242" t="n">
+        <v>2054.705160171011</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0.16666</v>
+      </c>
+      <c r="R242" t="n">
+        <v>20</v>
+      </c>
+      <c r="S242" t="inlineStr"/>
+      <c r="T242" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U242" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V242" t="inlineStr"/>
+      <c r="W242" t="inlineStr"/>
+      <c r="X242" t="inlineStr"/>
+      <c r="Y242" t="inlineStr">
+        <is>
+          <t>co2data 04-11 (10).txt</t>
+        </is>
+      </c>
+      <c r="Z242" t="inlineStr"/>
+      <c r="AA242" t="inlineStr"/>
+      <c r="AB242" t="n">
+        <v>2104.1588</v>
+      </c>
+      <c r="AC242" t="inlineStr"/>
+      <c r="AD242" t="inlineStr"/>
+      <c r="AE242" t="inlineStr"/>
+      <c r="AF242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr"/>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251104-07-1_65mL-1_65incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>7</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="n">
+        <v>336</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>25</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>36</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N243" t="n">
+        <v>2249.61052</v>
+      </c>
+      <c r="O243" t="n">
+        <v>2194.192198378522</v>
+      </c>
+      <c r="P243" t="n">
+        <v>2054.107275770486</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
+      <c r="R243" t="n">
+        <v>20</v>
+      </c>
+      <c r="S243" t="inlineStr"/>
+      <c r="T243" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U243" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V243" t="inlineStr"/>
+      <c r="W243" t="inlineStr"/>
+      <c r="X243" t="inlineStr"/>
+      <c r="Y243" t="inlineStr">
+        <is>
+          <t>co2data 04-11 (11).txt</t>
+        </is>
+      </c>
+      <c r="Z243" t="inlineStr"/>
+      <c r="AA243" t="inlineStr"/>
+      <c r="AB243" t="n">
+        <v>2103.6093</v>
+      </c>
+      <c r="AC243" t="inlineStr"/>
+      <c r="AD243" t="inlineStr"/>
+      <c r="AE243" t="inlineStr"/>
+      <c r="AF243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr"/>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251104-08-1_65mL-1_65incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>8</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" t="n">
+        <v>337</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>25</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>36</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N244" t="n">
+        <v>2249.61052</v>
+      </c>
+      <c r="O244" t="n">
+        <v>2194.192198378522</v>
+      </c>
+      <c r="P244" t="n">
+        <v>1973.36596429104</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>2</v>
+      </c>
+      <c r="R244" t="n">
+        <v>20</v>
+      </c>
+      <c r="S244" t="inlineStr"/>
+      <c r="T244" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U244" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V244" t="inlineStr"/>
+      <c r="W244" t="inlineStr"/>
+      <c r="X244" t="inlineStr"/>
+      <c r="Y244" t="inlineStr">
+        <is>
+          <t>co2data 04-11 (12).txt</t>
+        </is>
+      </c>
+      <c r="Z244" t="inlineStr"/>
+      <c r="AA244" t="inlineStr"/>
+      <c r="AB244" t="n">
+        <v>2020.9222</v>
+      </c>
+      <c r="AC244" t="inlineStr"/>
+      <c r="AD244" t="inlineStr"/>
+      <c r="AE244" t="inlineStr"/>
+      <c r="AF244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr"/>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251104-09-1_65mL-1_65incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>9</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G245" t="n">
+        <v>339</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>36</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N245" t="n">
+        <v>2249.61052</v>
+      </c>
+      <c r="O245" t="n">
+        <v>2194.192198378522</v>
+      </c>
+      <c r="P245" t="n">
+        <v>1878.822648585956</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>5</v>
+      </c>
+      <c r="R245" t="n">
+        <v>20</v>
+      </c>
+      <c r="S245" t="inlineStr"/>
+      <c r="T245" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U245" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V245" t="inlineStr"/>
+      <c r="W245" t="inlineStr"/>
+      <c r="X245" t="inlineStr"/>
+      <c r="Y245" t="inlineStr">
+        <is>
+          <t>co2data 04-11 (14).txt</t>
+        </is>
+      </c>
+      <c r="Z245" t="inlineStr"/>
+      <c r="AA245" t="inlineStr"/>
+      <c r="AB245" t="n">
+        <v>1923.9855</v>
+      </c>
+      <c r="AC245" t="inlineStr"/>
+      <c r="AD245" t="inlineStr"/>
+      <c r="AE245" t="inlineStr"/>
+      <c r="AF245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr"/>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251104-10-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>04/11/2025</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>10</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1</v>
+      </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K246" t="n">
+        <v>167.45</v>
+      </c>
+      <c r="L246" t="n">
+        <v>36</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N246" t="n">
+        <v>2249.61052</v>
+      </c>
+      <c r="O246" t="n">
+        <v>2194.192198378522</v>
+      </c>
+      <c r="P246" t="inlineStr"/>
+      <c r="Q246" t="inlineStr"/>
+      <c r="R246" t="n">
+        <v>615</v>
+      </c>
+      <c r="S246" t="inlineStr"/>
+      <c r="T246" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U246" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V246" t="n">
+        <v>634.5233445250219</v>
+      </c>
+      <c r="W246" t="inlineStr"/>
+      <c r="X246" t="n">
+        <v>2319.42677468292</v>
+      </c>
+      <c r="Y246" t="inlineStr"/>
+      <c r="Z246" t="inlineStr"/>
+      <c r="AA246" t="inlineStr"/>
+      <c r="AB246" t="inlineStr"/>
+      <c r="AC246" t="inlineStr"/>
+      <c r="AD246" t="inlineStr"/>
+      <c r="AE246" t="inlineStr"/>
+      <c r="AF246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr"/>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251105-01-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>1</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1</v>
+      </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K247" t="n">
+        <v>166.7</v>
+      </c>
+      <c r="L247" t="n">
+        <v>36</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N247" t="n">
+        <v>2245.0459</v>
+      </c>
+      <c r="O247" t="n">
+        <v>2189.740026100913</v>
+      </c>
+      <c r="P247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr"/>
+      <c r="R247" t="n">
+        <v>661</v>
+      </c>
+      <c r="S247" t="inlineStr"/>
+      <c r="T247" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U247" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V247" t="n">
+        <v>634.4040264319048</v>
+      </c>
+      <c r="W247" t="inlineStr"/>
+      <c r="X247" t="n">
+        <v>2315.677550863741</v>
+      </c>
+      <c r="Y247" t="inlineStr"/>
+      <c r="Z247" t="inlineStr"/>
+      <c r="AA247" t="inlineStr"/>
+      <c r="AB247" t="inlineStr"/>
+      <c r="AC247" t="inlineStr"/>
+      <c r="AD247" t="inlineStr"/>
+      <c r="AE247" t="inlineStr"/>
+      <c r="AF247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr"/>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251105-02-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>2</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G248" t="n">
+        <v>346</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K248" t="n">
+        <v>166.3</v>
+      </c>
+      <c r="L248" t="n">
+        <v>36</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N248" t="n">
+        <v>2245.0459</v>
+      </c>
+      <c r="O248" t="n">
+        <v>2189.740026100913</v>
+      </c>
+      <c r="P248" t="n">
+        <v>1634.056792784681</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
+      <c r="R248" t="n">
+        <v>626</v>
+      </c>
+      <c r="S248" t="inlineStr"/>
+      <c r="T248" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U248" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V248" t="n">
+        <v>634.3471921105692</v>
+      </c>
+      <c r="W248" t="inlineStr"/>
+      <c r="X248" t="n">
+        <v>2316.902999413762</v>
+      </c>
+      <c r="Y248" t="inlineStr">
+        <is>
+          <t>co2data 05-11 (5).txt</t>
+        </is>
+      </c>
+      <c r="Z248" t="inlineStr"/>
+      <c r="AA248" t="inlineStr"/>
+      <c r="AB248" t="n">
+        <v>1673.336</v>
+      </c>
+      <c r="AC248" t="inlineStr"/>
+      <c r="AD248" t="inlineStr"/>
+      <c r="AE248" t="inlineStr"/>
+      <c r="AF248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr"/>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251105-03-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>3</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1</v>
+      </c>
+      <c r="G249" t="n">
+        <v>348</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K249" t="n">
+        <v>166.2</v>
+      </c>
+      <c r="L249" t="n">
+        <v>36</v>
+      </c>
+      <c r="M249" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N249" t="n">
+        <v>2245.0459</v>
+      </c>
+      <c r="O249" t="n">
+        <v>2189.740026100913</v>
+      </c>
+      <c r="P249" t="n">
+        <v>1646.405652777245</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
+      <c r="R249" t="n">
+        <v>638</v>
+      </c>
+      <c r="S249" t="inlineStr"/>
+      <c r="T249" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U249" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V249" t="n">
+        <v>634.3264322962405</v>
+      </c>
+      <c r="W249" t="inlineStr"/>
+      <c r="X249" t="n">
+        <v>2317.655694950972</v>
+      </c>
+      <c r="Y249" t="inlineStr">
+        <is>
+          <t>co2data 05-11 (7).txt</t>
+        </is>
+      </c>
+      <c r="Z249" t="inlineStr"/>
+      <c r="AA249" t="inlineStr"/>
+      <c r="AB249" t="n">
+        <v>1685.9817</v>
+      </c>
+      <c r="AC249" t="inlineStr"/>
+      <c r="AD249" t="inlineStr"/>
+      <c r="AE249" t="inlineStr"/>
+      <c r="AF249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr"/>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251105-04-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>4</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1</v>
+      </c>
+      <c r="G250" t="n">
+        <v>350</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K250" t="n">
+        <v>165.95</v>
+      </c>
+      <c r="L250" t="n">
+        <v>36</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N250" t="n">
+        <v>2245.0459</v>
+      </c>
+      <c r="O250" t="n">
+        <v>2189.740026100913</v>
+      </c>
+      <c r="P250" t="n">
+        <v>937.5026546030072</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>22</v>
+      </c>
+      <c r="R250" t="inlineStr"/>
+      <c r="S250" t="inlineStr"/>
+      <c r="T250" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U250" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V250" t="n">
+        <v>634.3783817764527</v>
+      </c>
+      <c r="W250" t="inlineStr"/>
+      <c r="X250" t="n">
+        <v>2319.814003153688</v>
+      </c>
+      <c r="Y250" t="inlineStr">
+        <is>
+          <t>co2data 05-11 (9).txt</t>
+        </is>
+      </c>
+      <c r="Z250" t="inlineStr"/>
+      <c r="AA250" t="inlineStr"/>
+      <c r="AB250" t="n">
+        <v>960.0382</v>
+      </c>
+      <c r="AC250" t="inlineStr"/>
+      <c r="AD250" t="inlineStr"/>
+      <c r="AE250" t="inlineStr"/>
+      <c r="AF250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr"/>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251105-05-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>5</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1</v>
+      </c>
+      <c r="G251" t="n">
+        <v>351</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K251" t="n">
+        <v>165.8</v>
+      </c>
+      <c r="L251" t="n">
+        <v>36</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N251" t="n">
+        <v>2245.0459</v>
+      </c>
+      <c r="O251" t="n">
+        <v>2189.740026100913</v>
+      </c>
+      <c r="P251" t="n">
+        <v>1203.73500215931</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>11</v>
+      </c>
+      <c r="R251" t="inlineStr"/>
+      <c r="S251" t="inlineStr"/>
+      <c r="T251" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U251" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V251" t="n">
+        <v>634.2879876980423</v>
+      </c>
+      <c r="W251" t="inlineStr"/>
+      <c r="X251" t="n">
+        <v>2320.310367568018</v>
+      </c>
+      <c r="Y251" t="inlineStr">
+        <is>
+          <t>co2data 05-11 (10).txt</t>
+        </is>
+      </c>
+      <c r="Z251" t="inlineStr"/>
+      <c r="AA251" t="inlineStr"/>
+      <c r="AB251" t="n">
+        <v>1232.6702</v>
+      </c>
+      <c r="AC251" t="inlineStr"/>
+      <c r="AD251" t="inlineStr"/>
+      <c r="AE251" t="inlineStr"/>
+      <c r="AF251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr"/>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251105-06-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>6</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" t="n">
+        <v>353</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K252" t="n">
+        <v>165.55</v>
+      </c>
+      <c r="L252" t="n">
+        <v>36</v>
+      </c>
+      <c r="M252" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N252" t="n">
+        <v>2245.0459</v>
+      </c>
+      <c r="O252" t="n">
+        <v>2189.740026100913</v>
+      </c>
+      <c r="P252" t="n">
+        <v>1426.978606547685</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>5.33333</v>
+      </c>
+      <c r="R252" t="n">
+        <v>620</v>
+      </c>
+      <c r="S252" t="inlineStr"/>
+      <c r="T252" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U252" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V252" t="n">
+        <v>634.2733988291337</v>
+      </c>
+      <c r="W252" t="inlineStr"/>
+      <c r="X252" t="n">
+        <v>2319.055921476059</v>
+      </c>
+      <c r="Y252" t="inlineStr">
+        <is>
+          <t>co2data 05-11 (12).txt</t>
+        </is>
+      </c>
+      <c r="Z252" t="inlineStr"/>
+      <c r="AA252" t="inlineStr"/>
+      <c r="AB252" t="n">
+        <v>1461.2801</v>
+      </c>
+      <c r="AC252" t="inlineStr"/>
+      <c r="AD252" t="inlineStr"/>
+      <c r="AE252" t="inlineStr"/>
+      <c r="AF252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr"/>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old-251105-07-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Junk_old</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>7</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="n">
+        <v>354</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K253" t="n">
+        <v>165.1</v>
+      </c>
+      <c r="L253" t="n">
+        <v>36</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N253" t="n">
+        <v>2245.0459</v>
+      </c>
+      <c r="O253" t="n">
+        <v>2189.740026100913</v>
+      </c>
+      <c r="P253" t="n">
+        <v>1594.921422821136</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>2</v>
+      </c>
+      <c r="R253" t="inlineStr"/>
+      <c r="S253" t="inlineStr"/>
+      <c r="T253" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U253" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V253" t="n">
+        <v>634.2307504167972</v>
+      </c>
+      <c r="W253" t="inlineStr"/>
+      <c r="X253" t="n">
+        <v>2321.2948283703</v>
+      </c>
+      <c r="Y253" t="inlineStr">
+        <is>
+          <t>co2data 05-11 (13).txt</t>
+        </is>
+      </c>
+      <c r="Z253" t="inlineStr"/>
+      <c r="AA253" t="inlineStr"/>
+      <c r="AB253" t="n">
+        <v>1633.2599</v>
+      </c>
+      <c r="AC253" t="inlineStr"/>
+      <c r="AD253" t="inlineStr"/>
+      <c r="AE253" t="inlineStr"/>
+      <c r="AF253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr"/>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251107-01-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>1</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1</v>
+      </c>
+      <c r="G254" t="n">
+        <v>358</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K254" t="n">
+        <v>172.45</v>
+      </c>
+      <c r="L254" t="n">
+        <v>34</v>
+      </c>
+      <c r="M254" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N254" t="n">
+        <v>2273.1214</v>
+      </c>
+      <c r="O254" t="n">
+        <v>2220.421546431846</v>
+      </c>
+      <c r="P254" t="n">
+        <v>1664.720528456932</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
+      <c r="R254" t="n">
+        <v>602</v>
+      </c>
+      <c r="S254" t="inlineStr"/>
+      <c r="T254" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U254" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V254" t="n">
+        <v>635.2890136030201</v>
+      </c>
+      <c r="W254" t="inlineStr"/>
+      <c r="X254" t="n">
+        <v>2319.455258261773</v>
+      </c>
+      <c r="Y254" t="inlineStr">
+        <is>
+          <t>co2data 07-11 (4).txt</t>
+        </is>
+      </c>
+      <c r="Z254" t="inlineStr"/>
+      <c r="AA254" t="inlineStr"/>
+      <c r="AB254" t="n">
+        <v>1702.2214</v>
+      </c>
+      <c r="AC254" t="inlineStr"/>
+      <c r="AD254" t="inlineStr"/>
+      <c r="AE254" t="inlineStr"/>
+      <c r="AF254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr"/>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251107-02-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>2</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1</v>
+      </c>
+      <c r="G255" t="n">
+        <v>359</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K255" t="n">
+        <v>171.5</v>
+      </c>
+      <c r="L255" t="n">
+        <v>34</v>
+      </c>
+      <c r="M255" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N255" t="n">
+        <v>2273.1214</v>
+      </c>
+      <c r="O255" t="n">
+        <v>2220.421546431846</v>
+      </c>
+      <c r="P255" t="n">
+        <v>1651.516865098717</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
+      <c r="R255" t="n">
+        <v>603</v>
+      </c>
+      <c r="S255" t="inlineStr"/>
+      <c r="T255" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U255" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V255" t="n">
+        <v>636.9423987391191</v>
+      </c>
+      <c r="W255" t="inlineStr"/>
+      <c r="X255" t="n">
+        <v>2321.814136643638</v>
+      </c>
+      <c r="Y255" t="inlineStr">
+        <is>
+          <t>co2data 07-11 (5).txt</t>
+        </is>
+      </c>
+      <c r="Z255" t="inlineStr"/>
+      <c r="AA255" t="inlineStr"/>
+      <c r="AB255" t="n">
+        <v>1688.7203</v>
+      </c>
+      <c r="AC255" t="inlineStr"/>
+      <c r="AD255" t="inlineStr"/>
+      <c r="AE255" t="inlineStr"/>
+      <c r="AF255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr"/>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251107-03-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>3</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1</v>
+      </c>
+      <c r="G256" t="n">
+        <v>360</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K256" t="n">
+        <v>172.35</v>
+      </c>
+      <c r="L256" t="n">
+        <v>34</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N256" t="n">
+        <v>2273.1214</v>
+      </c>
+      <c r="O256" t="n">
+        <v>2220.421546431846</v>
+      </c>
+      <c r="P256" t="n">
+        <v>1086.059720438681</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>14</v>
+      </c>
+      <c r="R256" t="inlineStr"/>
+      <c r="S256" t="inlineStr"/>
+      <c r="T256" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U256" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V256" t="n">
+        <v>635.2780503276221</v>
+      </c>
+      <c r="W256" t="inlineStr"/>
+      <c r="X256" t="n">
+        <v>2315.726747033244</v>
+      </c>
+      <c r="Y256" t="inlineStr">
+        <is>
+          <t>co2data 07-11 (6).txt</t>
+        </is>
+      </c>
+      <c r="Z256" t="inlineStr"/>
+      <c r="AA256" t="inlineStr"/>
+      <c r="AB256" t="n">
+        <v>1110.5252</v>
+      </c>
+      <c r="AC256" t="inlineStr"/>
+      <c r="AD256" t="inlineStr"/>
+      <c r="AE256" t="inlineStr"/>
+      <c r="AF256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr"/>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251107-04-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>4</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1</v>
+      </c>
+      <c r="G257" t="n">
+        <v>361</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K257" t="n">
+        <v>172.15</v>
+      </c>
+      <c r="L257" t="n">
+        <v>34</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N257" t="n">
+        <v>2273.1214</v>
+      </c>
+      <c r="O257" t="n">
+        <v>2220.421546431846</v>
+      </c>
+      <c r="P257" t="n">
+        <v>1661.263308649833</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" t="n">
+        <v>609</v>
+      </c>
+      <c r="S257" t="inlineStr"/>
+      <c r="T257" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U257" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V257" t="n">
+        <v>635.3209046241709</v>
+      </c>
+      <c r="W257" t="inlineStr"/>
+      <c r="X257" t="n">
+        <v>2319.548555614286</v>
+      </c>
+      <c r="Y257" t="inlineStr">
+        <is>
+          <t>co2data 07-11 (7).txt</t>
+        </is>
+      </c>
+      <c r="Z257" t="inlineStr"/>
+      <c r="AA257" t="inlineStr"/>
+      <c r="AB257" t="n">
+        <v>1698.6863</v>
+      </c>
+      <c r="AC257" t="inlineStr"/>
+      <c r="AD257" t="inlineStr"/>
+      <c r="AE257" t="inlineStr"/>
+      <c r="AF257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr"/>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251107-05-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>5</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1</v>
+      </c>
+      <c r="G258" t="n">
+        <v>362</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K258" t="n">
+        <v>173.15</v>
+      </c>
+      <c r="L258" t="n">
+        <v>34</v>
+      </c>
+      <c r="M258" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N258" t="n">
+        <v>2273.1214</v>
+      </c>
+      <c r="O258" t="n">
+        <v>2220.421546431846</v>
+      </c>
+      <c r="P258" t="n">
+        <v>1654.533998652756</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>1</v>
+      </c>
+      <c r="R258" t="n">
+        <v>611</v>
+      </c>
+      <c r="S258" t="inlineStr"/>
+      <c r="T258" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U258" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V258" t="n">
+        <v>636.5839755019591</v>
+      </c>
+      <c r="W258" t="inlineStr"/>
+      <c r="X258" t="n">
+        <v>2319.660283645063</v>
+      </c>
+      <c r="Y258" t="inlineStr">
+        <is>
+          <t>co2data 07-11 (8).txt</t>
+        </is>
+      </c>
+      <c r="Z258" t="inlineStr"/>
+      <c r="AA258" t="inlineStr"/>
+      <c r="AB258" t="n">
+        <v>1691.8054</v>
+      </c>
+      <c r="AC258" t="inlineStr"/>
+      <c r="AD258" t="inlineStr"/>
+      <c r="AE258" t="inlineStr"/>
+      <c r="AF258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr"/>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251107-06-2_55mL0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>6</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1</v>
+      </c>
+      <c r="G259" t="n">
+        <v>363</v>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>messed up file name 0_15 ml incr not automatically imported</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>34</v>
+      </c>
+      <c r="M259" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N259" t="n">
+        <v>2273.1214</v>
+      </c>
+      <c r="O259" t="n">
+        <v>2220.421546431846</v>
+      </c>
+      <c r="P259" t="n">
+        <v>1859.404418131717</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
+      <c r="R259" t="n">
+        <v>394</v>
+      </c>
+      <c r="S259" t="inlineStr"/>
+      <c r="T259" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U259" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V259" t="n">
+        <v>611.8881436963933</v>
+      </c>
+      <c r="W259" t="inlineStr"/>
+      <c r="X259" t="n">
+        <v>2144.656048173905</v>
+      </c>
+      <c r="Y259" t="inlineStr">
+        <is>
+          <t>co2data 07-11 (9).txt</t>
+        </is>
+      </c>
+      <c r="Z259" t="inlineStr"/>
+      <c r="AA259" t="inlineStr"/>
+      <c r="AB259" t="n">
+        <v>1901.2909</v>
+      </c>
+      <c r="AC259" t="inlineStr"/>
+      <c r="AD259" t="inlineStr"/>
+      <c r="AE259" t="inlineStr"/>
+      <c r="AF259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr"/>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251107-07-2_7mL0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>7</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1</v>
+      </c>
+      <c r="G260" t="n">
+        <v>364</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>34</v>
+      </c>
+      <c r="M260" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N260" t="n">
+        <v>2273.1214</v>
+      </c>
+      <c r="O260" t="n">
+        <v>2220.421546431846</v>
+      </c>
+      <c r="P260" t="n">
+        <v>1836.790145931943</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0.16666</v>
+      </c>
+      <c r="R260" t="inlineStr"/>
+      <c r="S260" t="inlineStr"/>
+      <c r="T260" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U260" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V260" t="n">
+        <v>636.1490913993705</v>
+      </c>
+      <c r="W260" t="inlineStr"/>
+      <c r="X260" t="n">
+        <v>2323.000693514073</v>
+      </c>
+      <c r="Y260" t="inlineStr">
+        <is>
+          <t>co2data 07-11 (10).txt</t>
+        </is>
+      </c>
+      <c r="Z260" t="inlineStr"/>
+      <c r="AA260" t="inlineStr"/>
+      <c r="AB260" t="n">
+        <v>1878.1672</v>
+      </c>
+      <c r="AC260" t="inlineStr"/>
+      <c r="AD260" t="inlineStr"/>
+      <c r="AE260" t="inlineStr"/>
+      <c r="AF260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr"/>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251107-08-2_7mL0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>8</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1</v>
+      </c>
+      <c r="G261" t="n">
+        <v>366</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>34</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N261" t="n">
+        <v>2273.1214</v>
+      </c>
+      <c r="O261" t="n">
+        <v>2220.421546431846</v>
+      </c>
+      <c r="P261" t="n">
+        <v>1036.226504674888</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>18</v>
+      </c>
+      <c r="R261" t="n">
+        <v>417</v>
+      </c>
+      <c r="S261" t="inlineStr"/>
+      <c r="T261" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U261" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V261" t="n">
+        <v>635.8662672881558</v>
+      </c>
+      <c r="W261" t="inlineStr"/>
+      <c r="X261" t="n">
+        <v>2320.815216033977</v>
+      </c>
+      <c r="Y261" t="inlineStr">
+        <is>
+          <t>co2data 07-11 (12).txt</t>
+        </is>
+      </c>
+      <c r="Z261" t="inlineStr"/>
+      <c r="AA261" t="inlineStr"/>
+      <c r="AB261" t="n">
+        <v>1059.5694</v>
+      </c>
+      <c r="AC261" t="inlineStr"/>
+      <c r="AD261" t="inlineStr"/>
+      <c r="AE261" t="inlineStr"/>
+      <c r="AF261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr"/>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251107-09-2_7mL0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>9</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1</v>
+      </c>
+      <c r="G262" t="n">
+        <v>368</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>34</v>
+      </c>
+      <c r="M262" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N262" t="n">
+        <v>2273.1214</v>
+      </c>
+      <c r="O262" t="n">
+        <v>2220.421546431846</v>
+      </c>
+      <c r="P262" t="n">
+        <v>1846.472336890113</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
+      <c r="R262" t="n">
+        <v>421</v>
+      </c>
+      <c r="S262" t="inlineStr"/>
+      <c r="T262" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U262" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V262" t="n">
+        <v>635.6817066993566</v>
+      </c>
+      <c r="W262" t="inlineStr"/>
+      <c r="X262" t="n">
+        <v>2325.166905619729</v>
+      </c>
+      <c r="Y262" t="inlineStr">
+        <is>
+          <t>co2data 07-11 (14).txt</t>
+        </is>
+      </c>
+      <c r="Z262" t="inlineStr"/>
+      <c r="AA262" t="inlineStr"/>
+      <c r="AB262" t="n">
+        <v>1888.0675</v>
+      </c>
+      <c r="AC262" t="inlineStr"/>
+      <c r="AD262" t="inlineStr"/>
+      <c r="AE262" t="inlineStr"/>
+      <c r="AF262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr"/>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251107-10-4_2mL0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>10</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1</v>
+      </c>
+      <c r="G263" t="n">
+        <v>369</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>34</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N263" t="n">
+        <v>2273.1214</v>
+      </c>
+      <c r="O263" t="n">
+        <v>2220.421546431846</v>
+      </c>
+      <c r="P263" t="n">
+        <v>745.7988189414648</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>27</v>
+      </c>
+      <c r="R263" t="inlineStr"/>
+      <c r="S263" t="inlineStr"/>
+      <c r="T263" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U263" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V263" t="n">
+        <v>635.4284591070592</v>
+      </c>
+      <c r="W263" t="inlineStr"/>
+      <c r="X263" t="n">
+        <v>2321.79623254477</v>
+      </c>
+      <c r="Y263" t="inlineStr">
+        <is>
+          <t>co2data 07-11 (15).txt</t>
+        </is>
+      </c>
+      <c r="Z263" t="inlineStr"/>
+      <c r="AA263" t="inlineStr"/>
+      <c r="AB263" t="n">
+        <v>762.5993</v>
+      </c>
+      <c r="AC263" t="inlineStr"/>
+      <c r="AD263" t="inlineStr"/>
+      <c r="AE263" t="inlineStr"/>
+      <c r="AF263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr"/>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251110-01-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>1</v>
+      </c>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K264" t="n">
+        <v>171.8</v>
+      </c>
+      <c r="L264" t="n">
+        <v>34</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N264" t="inlineStr"/>
+      <c r="O264" t="inlineStr"/>
+      <c r="P264" t="inlineStr"/>
+      <c r="Q264" t="inlineStr"/>
+      <c r="R264" t="inlineStr"/>
+      <c r="S264" t="inlineStr"/>
+      <c r="T264" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U264" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V264" t="n">
+        <v>634.811184442268</v>
+      </c>
+      <c r="W264" t="inlineStr"/>
+      <c r="X264" t="n">
+        <v>2303.682265705157</v>
+      </c>
+      <c r="Y264" t="inlineStr"/>
+      <c r="Z264" t="inlineStr"/>
+      <c r="AA264" t="inlineStr"/>
+      <c r="AB264" t="inlineStr"/>
+      <c r="AC264" t="inlineStr"/>
+      <c r="AD264" t="inlineStr"/>
+      <c r="AE264" t="inlineStr"/>
+      <c r="AF264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr"/>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251110-02-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>2</v>
+      </c>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K265" t="n">
+        <v>171.3</v>
+      </c>
+      <c r="L265" t="n">
+        <v>34</v>
+      </c>
+      <c r="M265" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N265" t="inlineStr"/>
+      <c r="O265" t="inlineStr"/>
+      <c r="P265" t="inlineStr"/>
+      <c r="Q265" t="inlineStr"/>
+      <c r="R265" t="inlineStr"/>
+      <c r="S265" t="inlineStr"/>
+      <c r="T265" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U265" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V265" t="n">
+        <v>634.8907951386942</v>
+      </c>
+      <c r="W265" t="inlineStr"/>
+      <c r="X265" t="n">
+        <v>2306.498710139534</v>
+      </c>
+      <c r="Y265" t="inlineStr"/>
+      <c r="Z265" t="inlineStr"/>
+      <c r="AA265" t="inlineStr"/>
+      <c r="AB265" t="inlineStr"/>
+      <c r="AC265" t="inlineStr"/>
+      <c r="AD265" t="inlineStr"/>
+      <c r="AE265" t="inlineStr"/>
+      <c r="AF265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr"/>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251110-03-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>3</v>
+      </c>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K266" t="n">
+        <v>171.1</v>
+      </c>
+      <c r="L266" t="n">
+        <v>34</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N266" t="inlineStr"/>
+      <c r="O266" t="inlineStr"/>
+      <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr"/>
+      <c r="R266" t="inlineStr"/>
+      <c r="S266" t="inlineStr"/>
+      <c r="T266" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U266" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V266" t="n">
+        <v>634.8028659994001</v>
+      </c>
+      <c r="W266" t="inlineStr"/>
+      <c r="X266" t="n">
+        <v>2307.088582555958</v>
+      </c>
+      <c r="Y266" t="inlineStr"/>
+      <c r="Z266" t="inlineStr"/>
+      <c r="AA266" t="inlineStr"/>
+      <c r="AB266" t="inlineStr"/>
+      <c r="AC266" t="inlineStr"/>
+      <c r="AD266" t="inlineStr"/>
+      <c r="AE266" t="inlineStr"/>
+      <c r="AF266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr"/>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251110-04-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>4</v>
+      </c>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K267" t="n">
+        <v>171.1</v>
+      </c>
+      <c r="L267" t="n">
+        <v>34</v>
+      </c>
+      <c r="M267" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N267" t="inlineStr"/>
+      <c r="O267" t="inlineStr"/>
+      <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr"/>
+      <c r="R267" t="inlineStr"/>
+      <c r="S267" t="inlineStr"/>
+      <c r="T267" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U267" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V267" t="n">
+        <v>634.9054586174666</v>
+      </c>
+      <c r="W267" t="inlineStr"/>
+      <c r="X267" t="n">
+        <v>2306.709718131012</v>
+      </c>
+      <c r="Y267" t="inlineStr"/>
+      <c r="Z267" t="inlineStr"/>
+      <c r="AA267" t="inlineStr"/>
+      <c r="AB267" t="inlineStr"/>
+      <c r="AC267" t="inlineStr"/>
+      <c r="AD267" t="inlineStr"/>
+      <c r="AE267" t="inlineStr"/>
+      <c r="AF267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr"/>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251110-05-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>5</v>
+      </c>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K268" t="n">
+        <v>171.1</v>
+      </c>
+      <c r="L268" t="n">
+        <v>34</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N268" t="inlineStr"/>
+      <c r="O268" t="inlineStr"/>
+      <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr"/>
+      <c r="R268" t="inlineStr"/>
+      <c r="S268" t="inlineStr"/>
+      <c r="T268" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U268" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V268" t="n">
+        <v>634.8576405336931</v>
+      </c>
+      <c r="W268" t="inlineStr"/>
+      <c r="X268" t="n">
+        <v>2306.226142309558</v>
+      </c>
+      <c r="Y268" t="inlineStr"/>
+      <c r="Z268" t="inlineStr"/>
+      <c r="AA268" t="inlineStr"/>
+      <c r="AB268" t="inlineStr"/>
+      <c r="AC268" t="inlineStr"/>
+      <c r="AD268" t="inlineStr"/>
+      <c r="AE268" t="inlineStr"/>
+      <c r="AF268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr"/>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)CRM-251110-06-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Crm</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>6</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>Batch #219</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K269" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="L269" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="M269" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N269" t="inlineStr"/>
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr"/>
+      <c r="R269" t="inlineStr"/>
+      <c r="S269" t="inlineStr"/>
+      <c r="T269" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U269" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V269" t="n">
+        <v>635.0191231928417</v>
+      </c>
+      <c r="W269" t="inlineStr"/>
+      <c r="X269" t="n">
+        <v>2134.647616562721</v>
+      </c>
+      <c r="Y269" t="inlineStr"/>
+      <c r="Z269" t="inlineStr"/>
+      <c r="AA269" t="inlineStr"/>
+      <c r="AB269" t="inlineStr"/>
+      <c r="AC269" t="inlineStr"/>
+      <c r="AD269" t="inlineStr"/>
+      <c r="AE269" t="inlineStr"/>
+      <c r="AF269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr"/>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251110-07-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>7</v>
+      </c>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K270" t="n">
+        <v>171.2</v>
+      </c>
+      <c r="L270" t="n">
+        <v>34</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N270" t="inlineStr"/>
+      <c r="O270" t="inlineStr"/>
+      <c r="P270" t="inlineStr"/>
+      <c r="Q270" t="inlineStr"/>
+      <c r="R270" t="inlineStr"/>
+      <c r="S270" t="inlineStr"/>
+      <c r="T270" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U270" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V270" t="n">
+        <v>634.9284780087087</v>
+      </c>
+      <c r="W270" t="inlineStr"/>
+      <c r="X270" t="n">
+        <v>2307.8152703025</v>
+      </c>
+      <c r="Y270" t="inlineStr"/>
+      <c r="Z270" t="inlineStr"/>
+      <c r="AA270" t="inlineStr"/>
+      <c r="AB270" t="inlineStr"/>
+      <c r="AC270" t="inlineStr"/>
+      <c r="AD270" t="inlineStr"/>
+      <c r="AE270" t="inlineStr"/>
+      <c r="AF270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr"/>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251110-08-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>8</v>
+      </c>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K271" t="n">
+        <v>171.15</v>
+      </c>
+      <c r="L271" t="n">
+        <v>34</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N271" t="inlineStr"/>
+      <c r="O271" t="inlineStr"/>
+      <c r="P271" t="inlineStr"/>
+      <c r="Q271" t="inlineStr"/>
+      <c r="R271" t="inlineStr"/>
+      <c r="S271" t="inlineStr"/>
+      <c r="T271" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U271" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V271" t="n">
+        <v>634.9925612833734</v>
+      </c>
+      <c r="W271" t="inlineStr"/>
+      <c r="X271" t="n">
+        <v>2307.606192902603</v>
+      </c>
+      <c r="Y271" t="inlineStr"/>
+      <c r="Z271" t="inlineStr"/>
+      <c r="AA271" t="inlineStr"/>
+      <c r="AB271" t="inlineStr"/>
+      <c r="AC271" t="inlineStr"/>
+      <c r="AD271" t="inlineStr"/>
+      <c r="AE271" t="inlineStr"/>
+      <c r="AF271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr"/>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251110-09-4_05mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>9</v>
+      </c>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K272" t="n">
+        <v>171.15</v>
+      </c>
+      <c r="L272" t="n">
+        <v>34</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N272" t="inlineStr"/>
+      <c r="O272" t="inlineStr"/>
+      <c r="P272" t="inlineStr"/>
+      <c r="Q272" t="inlineStr"/>
+      <c r="R272" t="inlineStr"/>
+      <c r="S272" t="inlineStr"/>
+      <c r="T272" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U272" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V272" t="n">
+        <v>634.9609503187213</v>
+      </c>
+      <c r="W272" t="inlineStr"/>
+      <c r="X272" t="n">
+        <v>2309.502235069924</v>
+      </c>
+      <c r="Y272" t="inlineStr"/>
+      <c r="Z272" t="inlineStr"/>
+      <c r="AA272" t="inlineStr"/>
+      <c r="AB272" t="inlineStr"/>
+      <c r="AC272" t="inlineStr"/>
+      <c r="AD272" t="inlineStr"/>
+      <c r="AE272" t="inlineStr"/>
+      <c r="AF272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr"/>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251110-10-3_9mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>10</v>
+      </c>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K273" t="n">
+        <v>171.2</v>
+      </c>
+      <c r="L273" t="n">
+        <v>34</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N273" t="inlineStr"/>
+      <c r="O273" t="inlineStr"/>
+      <c r="P273" t="inlineStr"/>
+      <c r="Q273" t="inlineStr"/>
+      <c r="R273" t="inlineStr"/>
+      <c r="S273" t="inlineStr"/>
+      <c r="T273" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U273" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V273" t="n">
+        <v>634.9989941078071</v>
+      </c>
+      <c r="W273" t="inlineStr"/>
+      <c r="X273" t="n">
+        <v>2307.684772992895</v>
+      </c>
+      <c r="Y273" t="inlineStr"/>
+      <c r="Z273" t="inlineStr"/>
+      <c r="AA273" t="inlineStr"/>
+      <c r="AB273" t="inlineStr"/>
+      <c r="AC273" t="inlineStr"/>
+      <c r="AD273" t="inlineStr"/>
+      <c r="AE273" t="inlineStr"/>
+      <c r="AF273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr"/>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251110-11-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>11</v>
+      </c>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K274" t="n">
+        <v>171.15</v>
+      </c>
+      <c r="L274" t="n">
+        <v>34</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N274" t="inlineStr"/>
+      <c r="O274" t="inlineStr"/>
+      <c r="P274" t="inlineStr"/>
+      <c r="Q274" t="inlineStr"/>
+      <c r="R274" t="inlineStr"/>
+      <c r="S274" t="inlineStr"/>
+      <c r="T274" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U274" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V274" t="n">
+        <v>635.0923553973917</v>
+      </c>
+      <c r="W274" t="inlineStr"/>
+      <c r="X274" t="n">
+        <v>2311.27856239359</v>
+      </c>
+      <c r="Y274" t="inlineStr"/>
+      <c r="Z274" t="inlineStr"/>
+      <c r="AA274" t="inlineStr"/>
+      <c r="AB274" t="inlineStr"/>
+      <c r="AC274" t="inlineStr"/>
+      <c r="AD274" t="inlineStr"/>
+      <c r="AE274" t="inlineStr"/>
+      <c r="AF274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr"/>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251110-12-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>12</v>
+      </c>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K275" t="n">
+        <v>171.2</v>
+      </c>
+      <c r="L275" t="n">
+        <v>34</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N275" t="inlineStr"/>
+      <c r="O275" t="inlineStr"/>
+      <c r="P275" t="inlineStr"/>
+      <c r="Q275" t="inlineStr"/>
+      <c r="R275" t="inlineStr"/>
+      <c r="S275" t="inlineStr"/>
+      <c r="T275" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U275" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V275" t="n">
+        <v>635.0158409334364</v>
+      </c>
+      <c r="W275" t="inlineStr"/>
+      <c r="X275" t="n">
+        <v>2306.647545518684</v>
+      </c>
+      <c r="Y275" t="inlineStr"/>
+      <c r="Z275" t="inlineStr"/>
+      <c r="AA275" t="inlineStr"/>
+      <c r="AB275" t="inlineStr"/>
+      <c r="AC275" t="inlineStr"/>
+      <c r="AD275" t="inlineStr"/>
+      <c r="AE275" t="inlineStr"/>
+      <c r="AF275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr"/>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-01-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>1</v>
+      </c>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="K276" t="n">
+        <v>170.65</v>
+      </c>
+      <c r="L276" t="n">
+        <v>34</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N276" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O276" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P276" t="inlineStr"/>
+      <c r="Q276" t="inlineStr"/>
+      <c r="R276" t="inlineStr"/>
+      <c r="S276" t="inlineStr"/>
+      <c r="T276" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U276" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V276" t="n">
+        <v>635.3614971303502</v>
+      </c>
+      <c r="W276" t="inlineStr"/>
+      <c r="X276" t="n">
+        <v>2317.971380297128</v>
+      </c>
+      <c r="Y276" t="inlineStr"/>
+      <c r="Z276" t="inlineStr"/>
+      <c r="AA276" t="inlineStr"/>
+      <c r="AB276" t="inlineStr"/>
+      <c r="AC276" t="inlineStr"/>
+      <c r="AD276" t="inlineStr"/>
+      <c r="AE276" t="inlineStr"/>
+      <c r="AF276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr"/>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-02-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>2</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1</v>
+      </c>
+      <c r="G277" t="n">
+        <v>387</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K277" t="n">
+        <v>170.65</v>
+      </c>
+      <c r="L277" t="n">
+        <v>34</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N277" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O277" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P277" t="n">
+        <v>1624.483931324325</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R277" t="n">
+        <v>619</v>
+      </c>
+      <c r="S277" t="inlineStr"/>
+      <c r="T277" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U277" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V277" t="n">
+        <v>635.5389260046644</v>
+      </c>
+      <c r="W277" t="inlineStr"/>
+      <c r="X277" t="n">
+        <v>2318.992282281053</v>
+      </c>
+      <c r="Y277" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (3).txt</t>
+        </is>
+      </c>
+      <c r="Z277" t="inlineStr"/>
+      <c r="AA277" t="inlineStr"/>
+      <c r="AB277" t="n">
+        <v>1661.0784</v>
+      </c>
+      <c r="AC277" t="inlineStr"/>
+      <c r="AD277" t="inlineStr"/>
+      <c r="AE277" t="inlineStr"/>
+      <c r="AF277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr"/>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-03-4_05mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>3</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1</v>
+      </c>
+      <c r="G278" t="n">
+        <v>388</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K278" t="n">
+        <v>170.9</v>
+      </c>
+      <c r="L278" t="n">
+        <v>34</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N278" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O278" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P278" t="n">
+        <v>1643.517172784471</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>0</v>
+      </c>
+      <c r="R278" t="n">
+        <v>613</v>
+      </c>
+      <c r="S278" t="inlineStr"/>
+      <c r="T278" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U278" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V278" t="n">
+        <v>635.6265579473804</v>
+      </c>
+      <c r="W278" t="inlineStr"/>
+      <c r="X278" t="n">
+        <v>2318.937129192094</v>
+      </c>
+      <c r="Y278" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (4).txt</t>
+        </is>
+      </c>
+      <c r="Z278" t="inlineStr"/>
+      <c r="AA278" t="inlineStr"/>
+      <c r="AB278" t="n">
+        <v>1680.5404</v>
+      </c>
+      <c r="AC278" t="inlineStr"/>
+      <c r="AD278" t="inlineStr"/>
+      <c r="AE278" t="inlineStr"/>
+      <c r="AF278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr"/>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-04-3_9mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>4</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1</v>
+      </c>
+      <c r="G279" t="n">
+        <v>389</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K279" t="n">
+        <v>170.95</v>
+      </c>
+      <c r="L279" t="n">
+        <v>34</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N279" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O279" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P279" t="n">
+        <v>1659.299154803951</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R279" t="n">
+        <v>593</v>
+      </c>
+      <c r="S279" t="inlineStr"/>
+      <c r="T279" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U279" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V279" t="n">
+        <v>635.6300437143694</v>
+      </c>
+      <c r="W279" t="inlineStr"/>
+      <c r="X279" t="n">
+        <v>2319.295526040354</v>
+      </c>
+      <c r="Y279" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (5).txt</t>
+        </is>
+      </c>
+      <c r="Z279" t="inlineStr"/>
+      <c r="AA279" t="inlineStr"/>
+      <c r="AB279" t="n">
+        <v>1696.6779</v>
+      </c>
+      <c r="AC279" t="inlineStr"/>
+      <c r="AD279" t="inlineStr"/>
+      <c r="AE279" t="inlineStr"/>
+      <c r="AF279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr"/>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-05-3_75mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>5</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1</v>
+      </c>
+      <c r="G280" t="n">
+        <v>390</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K280" t="n">
+        <v>170.95</v>
+      </c>
+      <c r="L280" t="n">
+        <v>34</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N280" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O280" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P280" t="n">
+        <v>1687.910531272654</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>0</v>
+      </c>
+      <c r="R280" t="n">
+        <v>553</v>
+      </c>
+      <c r="S280" t="inlineStr"/>
+      <c r="T280" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U280" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V280" t="n">
+        <v>635.6478676220404</v>
+      </c>
+      <c r="W280" t="inlineStr"/>
+      <c r="X280" t="n">
+        <v>2320.067034008844</v>
+      </c>
+      <c r="Y280" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (6).txt</t>
+        </is>
+      </c>
+      <c r="Z280" t="inlineStr"/>
+      <c r="AA280" t="inlineStr"/>
+      <c r="AB280" t="n">
+        <v>1725.9338</v>
+      </c>
+      <c r="AC280" t="inlineStr"/>
+      <c r="AD280" t="inlineStr"/>
+      <c r="AE280" t="inlineStr"/>
+      <c r="AF280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr"/>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-06-3_6mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>6</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1</v>
+      </c>
+      <c r="G281" t="n">
+        <v>391</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K281" t="n">
+        <v>170.85</v>
+      </c>
+      <c r="L281" t="n">
+        <v>34</v>
+      </c>
+      <c r="M281" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N281" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O281" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P281" t="n">
+        <v>1705.646105067943</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>0</v>
+      </c>
+      <c r="R281" t="n">
+        <v>530</v>
+      </c>
+      <c r="S281" t="inlineStr"/>
+      <c r="T281" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U281" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V281" t="n">
+        <v>635.6819525467697</v>
+      </c>
+      <c r="W281" t="inlineStr"/>
+      <c r="X281" t="n">
+        <v>2311.889584150802</v>
+      </c>
+      <c r="Y281" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (7).txt</t>
+        </is>
+      </c>
+      <c r="Z281" t="inlineStr"/>
+      <c r="AA281" t="inlineStr"/>
+      <c r="AB281" t="n">
+        <v>1744.0689</v>
+      </c>
+      <c r="AC281" t="inlineStr"/>
+      <c r="AD281" t="inlineStr"/>
+      <c r="AE281" t="inlineStr"/>
+      <c r="AF281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr"/>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-07-3_45mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>7</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1</v>
+      </c>
+      <c r="G282" t="n">
+        <v>392</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K282" t="n">
+        <v>170.9</v>
+      </c>
+      <c r="L282" t="n">
+        <v>34</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N282" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O282" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P282" t="n">
+        <v>1734.558109345959</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>0.166666</v>
+      </c>
+      <c r="R282" t="n">
+        <v>510</v>
+      </c>
+      <c r="S282" t="inlineStr"/>
+      <c r="T282" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U282" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V282" t="n">
+        <v>635.6670645978683</v>
+      </c>
+      <c r="W282" t="inlineStr"/>
+      <c r="X282" t="n">
+        <v>2319.879557046751</v>
+      </c>
+      <c r="Y282" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (8).txt</t>
+        </is>
+      </c>
+      <c r="Z282" t="inlineStr"/>
+      <c r="AA282" t="inlineStr"/>
+      <c r="AB282" t="n">
+        <v>1773.6322</v>
+      </c>
+      <c r="AC282" t="inlineStr"/>
+      <c r="AD282" t="inlineStr"/>
+      <c r="AE282" t="inlineStr"/>
+      <c r="AF282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr"/>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-08-3_3mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>8</v>
+      </c>
+      <c r="F283" t="n">
+        <v>1</v>
+      </c>
+      <c r="G283" t="n">
+        <v>393</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K283" t="n">
+        <v>170.95</v>
+      </c>
+      <c r="L283" t="n">
+        <v>34</v>
+      </c>
+      <c r="M283" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N283" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O283" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P283" t="n">
+        <v>1790.177285774158</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R283" t="n">
+        <v>490</v>
+      </c>
+      <c r="S283" t="inlineStr"/>
+      <c r="T283" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U283" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V283" t="n">
+        <v>635.6218247909253</v>
+      </c>
+      <c r="W283" t="inlineStr"/>
+      <c r="X283" t="n">
+        <v>2321.050530741416</v>
+      </c>
+      <c r="Y283" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (9).txt</t>
+        </is>
+      </c>
+      <c r="Z283" t="inlineStr"/>
+      <c r="AA283" t="inlineStr"/>
+      <c r="AB283" t="n">
+        <v>1830.5043</v>
+      </c>
+      <c r="AC283" t="inlineStr"/>
+      <c r="AD283" t="inlineStr"/>
+      <c r="AE283" t="inlineStr"/>
+      <c r="AF283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr"/>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-09-3_15mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>9</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1</v>
+      </c>
+      <c r="G284" t="n">
+        <v>394</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K284" t="n">
+        <v>170.85</v>
+      </c>
+      <c r="L284" t="n">
+        <v>34</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N284" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O284" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P284" t="n">
+        <v>1774.203132757508</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
+      <c r="R284" t="n">
+        <v>518</v>
+      </c>
+      <c r="S284" t="inlineStr"/>
+      <c r="T284" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U284" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V284" t="n">
+        <v>635.6193165886453</v>
+      </c>
+      <c r="W284" t="inlineStr"/>
+      <c r="X284" t="n">
+        <v>2319.089681221196</v>
+      </c>
+      <c r="Y284" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (10).txt</t>
+        </is>
+      </c>
+      <c r="Z284" t="inlineStr"/>
+      <c r="AA284" t="inlineStr"/>
+      <c r="AB284" t="n">
+        <v>1814.1703</v>
+      </c>
+      <c r="AC284" t="inlineStr"/>
+      <c r="AD284" t="inlineStr"/>
+      <c r="AE284" t="inlineStr"/>
+      <c r="AF284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr"/>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-10-3_0mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>10</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1</v>
+      </c>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K285" t="n">
+        <v>170.9</v>
+      </c>
+      <c r="L285" t="n">
+        <v>34</v>
+      </c>
+      <c r="M285" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N285" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O285" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P285" t="inlineStr"/>
+      <c r="Q285" t="inlineStr"/>
+      <c r="R285" t="inlineStr"/>
+      <c r="S285" t="inlineStr"/>
+      <c r="T285" t="n">
+        <v>3</v>
+      </c>
+      <c r="U285" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V285" t="n">
+        <v>635.746117474834</v>
+      </c>
+      <c r="W285" t="inlineStr"/>
+      <c r="X285" t="n">
+        <v>2322.515842938004</v>
+      </c>
+      <c r="Y285" t="inlineStr"/>
+      <c r="Z285" t="inlineStr"/>
+      <c r="AA285" t="inlineStr"/>
+      <c r="AB285" t="inlineStr"/>
+      <c r="AC285" t="inlineStr"/>
+      <c r="AD285" t="inlineStr"/>
+      <c r="AE285" t="inlineStr"/>
+      <c r="AF285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr"/>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-11-3_0mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>11</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1</v>
+      </c>
+      <c r="G286" t="n">
+        <v>396</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K286" t="n">
+        <v>170.8</v>
+      </c>
+      <c r="L286" t="n">
+        <v>34</v>
+      </c>
+      <c r="M286" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N286" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O286" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P286" t="n">
+        <v>1790.277821033746</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>0</v>
+      </c>
+      <c r="R286" t="n">
+        <v>483</v>
+      </c>
+      <c r="S286" t="inlineStr"/>
+      <c r="T286" t="n">
+        <v>3</v>
+      </c>
+      <c r="U286" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V286" t="n">
+        <v>635.739063971751</v>
+      </c>
+      <c r="W286" t="inlineStr"/>
+      <c r="X286" t="n">
+        <v>2323.06034891728</v>
+      </c>
+      <c r="Y286" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (12).txt</t>
+        </is>
+      </c>
+      <c r="Z286" t="inlineStr"/>
+      <c r="AA286" t="inlineStr"/>
+      <c r="AB286" t="n">
+        <v>1830.6071</v>
+      </c>
+      <c r="AC286" t="inlineStr"/>
+      <c r="AD286" t="inlineStr"/>
+      <c r="AE286" t="inlineStr"/>
+      <c r="AF286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr"/>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-12-2_7mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>12</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1</v>
+      </c>
+      <c r="G287" t="n">
+        <v>397</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K287" t="n">
+        <v>170.85</v>
+      </c>
+      <c r="L287" t="n">
+        <v>34</v>
+      </c>
+      <c r="M287" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N287" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O287" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P287" t="n">
+        <v>1846.7213279124</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>0</v>
+      </c>
+      <c r="R287" t="n">
+        <v>430</v>
+      </c>
+      <c r="S287" t="inlineStr"/>
+      <c r="T287" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U287" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V287" t="n">
+        <v>635.611253878787</v>
+      </c>
+      <c r="W287" t="inlineStr"/>
+      <c r="X287" t="n">
+        <v>2321.638363071247</v>
+      </c>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (13).txt</t>
+        </is>
+      </c>
+      <c r="Z287" t="inlineStr"/>
+      <c r="AA287" t="inlineStr"/>
+      <c r="AB287" t="n">
+        <v>1888.3221</v>
+      </c>
+      <c r="AC287" t="inlineStr"/>
+      <c r="AD287" t="inlineStr"/>
+      <c r="AE287" t="inlineStr"/>
+      <c r="AF287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr"/>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-13-2_4mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>13</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1</v>
+      </c>
+      <c r="G288" t="n">
+        <v>398</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K288" t="n">
+        <v>170.8</v>
+      </c>
+      <c r="L288" t="n">
+        <v>34</v>
+      </c>
+      <c r="M288" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N288" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O288" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P288" t="n">
+        <v>1887.1837381913</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>0</v>
+      </c>
+      <c r="R288" t="n">
+        <v>384</v>
+      </c>
+      <c r="S288" t="inlineStr"/>
+      <c r="T288" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U288" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V288" t="inlineStr"/>
+      <c r="W288" t="inlineStr"/>
+      <c r="X288" t="inlineStr"/>
+      <c r="Y288" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (14).txt</t>
+        </is>
+      </c>
+      <c r="Z288" t="inlineStr"/>
+      <c r="AA288" t="inlineStr"/>
+      <c r="AB288" t="n">
+        <v>1929.696</v>
+      </c>
+      <c r="AC288" t="inlineStr"/>
+      <c r="AD288" t="inlineStr"/>
+      <c r="AE288" t="inlineStr"/>
+      <c r="AF288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr"/>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-14-2_1mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>14</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1</v>
+      </c>
+      <c r="G289" t="n">
+        <v>399</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K289" t="n">
+        <v>170.85</v>
+      </c>
+      <c r="L289" t="n">
+        <v>34</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N289" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O289" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P289" t="n">
+        <v>1936.046514868622</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>0</v>
+      </c>
+      <c r="R289" t="n">
+        <v>346</v>
+      </c>
+      <c r="S289" t="inlineStr"/>
+      <c r="T289" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U289" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V289" t="n">
+        <v>504.8958578575211</v>
+      </c>
+      <c r="W289" t="inlineStr"/>
+      <c r="X289" t="n">
+        <v>1055.747580406687</v>
+      </c>
+      <c r="Y289" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (15).txt</t>
+        </is>
+      </c>
+      <c r="Z289" t="inlineStr"/>
+      <c r="AA289" t="inlineStr"/>
+      <c r="AB289" t="n">
+        <v>1979.6595</v>
+      </c>
+      <c r="AC289" t="inlineStr"/>
+      <c r="AD289" t="inlineStr"/>
+      <c r="AE289" t="inlineStr"/>
+      <c r="AF289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr"/>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-15-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>15</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1</v>
+      </c>
+      <c r="G290" t="n">
+        <v>400</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K290" t="n">
+        <v>170.75</v>
+      </c>
+      <c r="L290" t="n">
+        <v>34</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N290" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O290" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P290" t="n">
+        <v>1692.53446863509</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>0</v>
+      </c>
+      <c r="R290" t="n">
+        <v>625</v>
+      </c>
+      <c r="S290" t="inlineStr"/>
+      <c r="T290" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U290" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V290" t="n">
+        <v>635.5745802804263</v>
+      </c>
+      <c r="W290" t="inlineStr"/>
+      <c r="X290" t="n">
+        <v>2320.980234159277</v>
+      </c>
+      <c r="Y290" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (16).txt</t>
+        </is>
+      </c>
+      <c r="Z290" t="inlineStr"/>
+      <c r="AA290" t="inlineStr"/>
+      <c r="AB290" t="n">
+        <v>1730.6619</v>
+      </c>
+      <c r="AC290" t="inlineStr"/>
+      <c r="AD290" t="inlineStr"/>
+      <c r="AE290" t="inlineStr"/>
+      <c r="AF290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr"/>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-16-1_8mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>16</v>
+      </c>
+      <c r="F291" t="n">
+        <v>1</v>
+      </c>
+      <c r="G291" t="n">
+        <v>402</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K291" t="n">
+        <v>170.7</v>
+      </c>
+      <c r="L291" t="n">
+        <v>34</v>
+      </c>
+      <c r="M291" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N291" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O291" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P291" t="n">
+        <v>1976.212795997685</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>0</v>
+      </c>
+      <c r="R291" t="n">
+        <v>315</v>
+      </c>
+      <c r="S291" t="inlineStr"/>
+      <c r="T291" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U291" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V291" t="n">
+        <v>476.6639202167372</v>
+      </c>
+      <c r="W291" t="inlineStr"/>
+      <c r="X291" t="n">
+        <v>524.7707095610727</v>
+      </c>
+      <c r="Y291" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (18).txt</t>
+        </is>
+      </c>
+      <c r="Z291" t="inlineStr"/>
+      <c r="AA291" t="inlineStr"/>
+      <c r="AB291" t="n">
+        <v>2020.7306</v>
+      </c>
+      <c r="AC291" t="inlineStr"/>
+      <c r="AD291" t="inlineStr"/>
+      <c r="AE291" t="inlineStr"/>
+      <c r="AF291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr"/>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-17-1_5mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>17</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1</v>
+      </c>
+      <c r="G292" t="n">
+        <v>403</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K292" t="n">
+        <v>170.7</v>
+      </c>
+      <c r="L292" t="n">
+        <v>34</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N292" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O292" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P292" t="n">
+        <v>2028.246540823726</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>0</v>
+      </c>
+      <c r="R292" t="n">
+        <v>262</v>
+      </c>
+      <c r="S292" t="inlineStr"/>
+      <c r="T292" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U292" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V292" t="n">
+        <v>470.5304236227345</v>
+      </c>
+      <c r="W292" t="inlineStr"/>
+      <c r="X292" t="n">
+        <v>401.0767131252392</v>
+      </c>
+      <c r="Y292" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (19).txt</t>
+        </is>
+      </c>
+      <c r="Z292" t="inlineStr"/>
+      <c r="AA292" t="inlineStr"/>
+      <c r="AB292" t="n">
+        <v>2073.9365</v>
+      </c>
+      <c r="AC292" t="inlineStr"/>
+      <c r="AD292" t="inlineStr"/>
+      <c r="AE292" t="inlineStr"/>
+      <c r="AF292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr"/>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-18-1_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>18</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1</v>
+      </c>
+      <c r="G293" t="n">
+        <v>404</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K293" t="n">
+        <v>170.7</v>
+      </c>
+      <c r="L293" t="n">
+        <v>34</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N293" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O293" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P293" t="n">
+        <v>2069.763691155795</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R293" t="n">
+        <v>233</v>
+      </c>
+      <c r="S293" t="inlineStr"/>
+      <c r="T293" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U293" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V293" t="n">
+        <v>463.6531826283283</v>
+      </c>
+      <c r="W293" t="inlineStr"/>
+      <c r="X293" t="n">
+        <v>301.8487057833786</v>
+      </c>
+      <c r="Y293" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (20).txt</t>
+        </is>
+      </c>
+      <c r="Z293" t="inlineStr"/>
+      <c r="AA293" t="inlineStr"/>
+      <c r="AB293" t="n">
+        <v>2116.3889</v>
+      </c>
+      <c r="AC293" t="inlineStr"/>
+      <c r="AD293" t="inlineStr"/>
+      <c r="AE293" t="inlineStr"/>
+      <c r="AF293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr"/>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-19-0_9mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>19</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1</v>
+      </c>
+      <c r="G294" t="n">
+        <v>405</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K294" t="n">
+        <v>170.6</v>
+      </c>
+      <c r="L294" t="n">
+        <v>34</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N294" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O294" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P294" t="n">
+        <v>2101.523053491114</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>0.08333</v>
+      </c>
+      <c r="R294" t="inlineStr"/>
+      <c r="S294" t="inlineStr"/>
+      <c r="T294" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="U294" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V294" t="n">
+        <v>456.394920607444</v>
+      </c>
+      <c r="W294" t="inlineStr"/>
+      <c r="X294" t="n">
+        <v>198.0276639954349</v>
+      </c>
+      <c r="Y294" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (21).txt</t>
+        </is>
+      </c>
+      <c r="Z294" t="inlineStr"/>
+      <c r="AA294" t="inlineStr"/>
+      <c r="AB294" t="n">
+        <v>2148.8637</v>
+      </c>
+      <c r="AC294" t="inlineStr"/>
+      <c r="AD294" t="inlineStr"/>
+      <c r="AE294" t="inlineStr"/>
+      <c r="AF294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr"/>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-20-0_6mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>20</v>
+      </c>
+      <c r="F295" t="n">
+        <v>1</v>
+      </c>
+      <c r="G295" t="n">
+        <v>406</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K295" t="n">
+        <v>170.6</v>
+      </c>
+      <c r="L295" t="n">
+        <v>34</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N295" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O295" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P295" t="n">
+        <v>2140.869307235308</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>0</v>
+      </c>
+      <c r="R295" t="n">
+        <v>125</v>
+      </c>
+      <c r="S295" t="inlineStr"/>
+      <c r="T295" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U295" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V295" t="n">
+        <v>451.5861044620257</v>
+      </c>
+      <c r="W295" t="inlineStr"/>
+      <c r="X295" t="n">
+        <v>152.9690252681186</v>
+      </c>
+      <c r="Y295" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (22).txt</t>
+        </is>
+      </c>
+      <c r="Z295" t="inlineStr"/>
+      <c r="AA295" t="inlineStr"/>
+      <c r="AB295" t="n">
+        <v>2189.0963</v>
+      </c>
+      <c r="AC295" t="inlineStr"/>
+      <c r="AD295" t="inlineStr"/>
+      <c r="AE295" t="inlineStr"/>
+      <c r="AF295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr"/>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-21-0_3mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>21</v>
+      </c>
+      <c r="F296" t="n">
+        <v>1</v>
+      </c>
+      <c r="G296" t="n">
+        <v>407</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>34</v>
+      </c>
+      <c r="M296" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N296" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O296" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P296" t="n">
+        <v>2167.900676258578</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>0</v>
+      </c>
+      <c r="R296" t="n">
+        <v>66</v>
+      </c>
+      <c r="S296" t="inlineStr"/>
+      <c r="T296" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="U296" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V296" t="n">
+        <v>410.6675895239107</v>
+      </c>
+      <c r="W296" t="inlineStr"/>
+      <c r="X296" t="n">
+        <v>-150.4339525641708</v>
+      </c>
+      <c r="Y296" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (23).txt</t>
+        </is>
+      </c>
+      <c r="Z296" t="inlineStr"/>
+      <c r="AA296" t="inlineStr"/>
+      <c r="AB296" t="n">
+        <v>2216.7366</v>
+      </c>
+      <c r="AC296" t="inlineStr"/>
+      <c r="AD296" t="inlineStr"/>
+      <c r="AE296" t="inlineStr"/>
+      <c r="AF296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr"/>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-22-0_0mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>22</v>
+      </c>
+      <c r="F297" t="n">
+        <v>1</v>
+      </c>
+      <c r="G297" t="n">
+        <v>408</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>34</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N297" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O297" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P297" t="n">
+        <v>2189.637612063639</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>0</v>
+      </c>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
+      <c r="S297" t="inlineStr"/>
+      <c r="T297" t="n">
+        <v>0</v>
+      </c>
+      <c r="U297" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V297" t="inlineStr"/>
+      <c r="W297" t="inlineStr"/>
+      <c r="X297" t="inlineStr"/>
+      <c r="Y297" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (24).txt</t>
+        </is>
+      </c>
+      <c r="Z297" t="inlineStr"/>
+      <c r="AA297" t="inlineStr"/>
+      <c r="AB297" t="n">
+        <v>2238.9632</v>
+      </c>
+      <c r="AC297" t="inlineStr"/>
+      <c r="AD297" t="inlineStr"/>
+      <c r="AE297" t="inlineStr"/>
+      <c r="AF297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr"/>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-23-4_2mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>23</v>
+      </c>
+      <c r="F298" t="n">
+        <v>1</v>
+      </c>
+      <c r="G298" t="n">
+        <v>410</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K298" t="n">
+        <v>170.45</v>
+      </c>
+      <c r="L298" t="n">
+        <v>34</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N298" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O298" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P298" t="n">
+        <v>1641.005942827562</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>0</v>
+      </c>
+      <c r="R298" t="n">
+        <v>628</v>
+      </c>
+      <c r="S298" t="inlineStr"/>
+      <c r="T298" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U298" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V298" t="n">
+        <v>635.3816900654327</v>
+      </c>
+      <c r="W298" t="inlineStr"/>
+      <c r="X298" t="n">
+        <v>2321.293313807535</v>
+      </c>
+      <c r="Y298" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (26).txt</t>
+        </is>
+      </c>
+      <c r="Z298" t="inlineStr"/>
+      <c r="AA298" t="inlineStr"/>
+      <c r="AB298" t="n">
+        <v>1677.9726</v>
+      </c>
+      <c r="AC298" t="inlineStr"/>
+      <c r="AD298" t="inlineStr"/>
+      <c r="AE298" t="inlineStr"/>
+      <c r="AF298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr"/>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>0-0  0  (0)junk_old_2-251111-24-0_9mL-0_15incrmL.dat</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Junk_old_2</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>24</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1</v>
+      </c>
+      <c r="G299" t="n">
+        <v>411</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="K299" t="n">
+        <v>170.65</v>
+      </c>
+      <c r="L299" t="n">
+        <v>34</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0.09941273106262059</v>
+      </c>
+      <c r="N299" t="n">
+        <v>2261.8766</v>
+      </c>
+      <c r="O299" t="n">
+        <v>2209.437444920454</v>
+      </c>
+      <c r="P299" t="n">
+        <v>2103.897172130958</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>0</v>
+      </c>
+      <c r="R299" t="n">
+        <v>197</v>
+      </c>
+      <c r="S299" t="inlineStr"/>
+      <c r="T299" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="U299" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V299" t="n">
+        <v>456.3011102931661</v>
+      </c>
+      <c r="W299" t="inlineStr"/>
+      <c r="X299" t="n">
+        <v>197.1509028694786</v>
+      </c>
+      <c r="Y299" t="inlineStr">
+        <is>
+          <t>co2data 11-11 (27).txt</t>
+        </is>
+      </c>
+      <c r="Z299" t="inlineStr"/>
+      <c r="AA299" t="inlineStr"/>
+      <c r="AB299" t="n">
+        <v>2151.2913</v>
+      </c>
+      <c r="AC299" t="inlineStr"/>
+      <c r="AD299" t="inlineStr"/>
+      <c r="AE299" t="inlineStr"/>
+      <c r="AF299" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Logbook_automated_by_python_testing.xlsx
+++ b/Logbook_automated_by_python_testing.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="165" documentId="11_2AF9439815536E0E62355476585DCE3A8741D500" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED1ED462-CC00-473B-A309-9C722672F892}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="31110" yWindow="2370" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2442,7 +2442,7 @@
   <dimension ref="A1:AG339"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
